--- a/flaskTest/flaskTest/w.xlsx
+++ b/flaskTest/flaskTest/w.xlsx
@@ -1,38 +1,34 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10510"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUMAN\Desktop\재현\윌슨데이터\정리\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zhi/Desktop/Project/PURESum-Server/flaskTest/flaskTest/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2241956-04B3-3046-B3D7-7F2C9E4B4743}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2985" yWindow="2040" windowWidth="27900" windowHeight="16935"/>
+    <workbookView xWindow="2980" yWindow="2040" windowWidth="27900" windowHeight="16940" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$B$1:$B$292</definedName>
+  </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="585" uniqueCount="316">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="585" uniqueCount="319">
   <si>
     <t>여행, 연애</t>
   </si>
@@ -68,13 +64,7 @@
     <t>자존감</t>
   </si>
   <si>
-    <t>안정된 일, 장래가 유망한 일보다 내가 제일 좋아하는 일을 시작한 직장인입니다. 대학교 4년 동안 배운 전공지식을 버리고 좋아하는 일을 하기 위해 스타트업 멤버부터 시작해 5년 째 좋아하는 일을 하고 있습니다. 아직 자랑스러울 만큼 풍부한 경험은 쌓지 못했지만 진로를 고민하고 있는 많은 분들께 조금이라도 도움이 되어드릴 이야기를 해드리고 싶습니다.</t>
-  </si>
-  <si>
     <t>편입에 대한고민</t>
-  </si>
-  <si>
-    <t>저는 7년이라는 업무경력동안 무려 6번이나 회사를 옮긴 사람입니다. 제 자랑이냐고요? 아닙니다. 그만큼 무모했고 겁이났으며 도전적인 삶을 살았음을 말씀드리고 싶었습니다. 대부분의 취준생들이 남들과 같이 스펙쌓고 대기업을 노리다가 하나라도 걸리면 감사하구나 하고 취업이 된 후 얼마안가 퇴준생이되어서 이직을 준비하거나 곧바로 퇴사하는 경우를 너무나도 많이봤습니다. 그래서 취준생때부터 나의 커리어를 건강하고 올바르게 세워서 시행착오를 줄일 수 있도록 도와드리고자 합니다. 많은 분들이 알면 저의 노하우의 희소성이 떨어지겠지만 그래도 도움을 드리고 싶습니다.</t>
   </si>
   <si>
     <t>후회가 되어</t>
@@ -84,9 +74,6 @@
 잠수이별을 당한적도, 상황때문에 이별한 경험도 있습니다. 서로 다른 가치관과 배경을 가진 사람들을 이해하고 배려하며 지내는 방법을 배웠습니다.</t>
   </si>
   <si>
-    <t>수능을 본 후 지방으로 대학을 가게 되었습니다. 편입을 결심하고 2학년을 다니며 영어공부를 시작했습니다. 2학년 과탑으로 졸업하였고, 편입에도 성공하여 학교를 옮겼습니다. 편입이후에도 학과생활에 잘 적응하였고, 장학금을 받으며 다녔습니다. 이후에 나의 적성에 대해 고민하고, 나를 분석하며 진로에 대한 고민을 하였고, 지금은 원하는 직업에 종사하고 있습니다. 외국계회사 인사담당자로서 여러분의 편입과 취업에대한 고민에 답변을 드리고 싶습니다.</t>
-  </si>
-  <si>
     <t>저는  결론적으로봤을때 분노조절장애(정식적인 건아님니다) 의 남친과 대학교 과CC 로3년을사겼습니다</t>
   </si>
   <si>
@@ -97,9 +84,6 @@
   </si>
   <si>
     <t>졸업 전 취업</t>
-  </si>
-  <si>
-    <t>대학진학후 결혼까지 지속적인 연애를 해왔습니다. 그러다 이혼을 하고 재혼을 하면서 진짜 연애..결혼에서 무엇이 중요한가를 깨닫게 되었습니다. 그때 그랬더라면..후회되는 일도 많고 이제야 깨닫는것도 많이 있습니다.</t>
   </si>
   <si>
     <t>항공서비스 경영학과 4년제 졸업하였고 현재 승무원 준비생이고 
@@ -281,12 +265,6 @@
   </si>
   <si>
     <t>똥차에 달구지까지 보내고 사랑을 잘 주는 법과 잘 받는 방법에 대해 많이 알게 되었습니다</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>곰신
-저는 5년차 연애 중 + 곰신탈출 D-2 입니다.
-3년 정도 사귀고 난 후에 남자친구가 군대에 간 거라 괜찮을 줄 알았는데 군대 가기 직전에 서로 예민해져서 가장 많이 싸운 것 같아요. 주변에도 군대 가기 전에 헤어지는 커플이 많은데, 그 이유가 서로를 위해서 헤어지는 경우가 많더라구요. 저는 군대 가기 전에 서로 걱정되는 부분을 먼저 얘기하고 어떻게 극복하는 게 좋은지 남자친구랑 상의를 굉장히 많이 했어요. 그 덕분에 벌써 군생활 막바지까지 왔고, 오히려 군 복무 하는 동안 서로에 대한 신뢰가 깊어졌어요.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -328,21 +306,6 @@
   </si>
   <si>
     <r>
-      <t>저는 집이 잘 살다 한 순간에 무너져 압류증이 붙고 고물을 주우러 다닌 경험이 있을 정도로 다양한 순간순간을 경험하였습니다. 자존감이 낮아져 #심리상담센터를 다녔던 경험도 있고 또한 내담자를 맡아 상담을 진행 하였던 경험도 있습니다.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t/>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
       <t>상처를 많이 받는 성격이라 더 소심해지고 위축되는데요.</t>
     </r>
     <r>
@@ -464,11 +427,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>좁고 깊은 인간관계
-대학 생활하면서 바뀜. 인간관계에 에너지 쏟기 힘들고 스스로에 집중하고 싶음. 현재 부모, 가족, 연애, 진로 얘기 다 할 수 있는 친구 5명과 긴밀한 관계 유지중</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>트러블
 학창시절 직,간접적으로 정말 많은 트러블 겪어봄 그 사람이랑 대화해보면 어떤 유형인지 파악 될 정도.
 최근 2년 사이에 가장 친했던 고등학교 애들과 손절, 성격차이로 인해 한 명과 트러블 있었는데 외국에 있던 사이에 그 친구가 다른 모든 애들 등 돌리게 함. 힘들어서 자존감 낮아졌지만 명상과 자기분석으로 극복</t>
@@ -513,11 +471,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>우울감, 학창시절부터 잦은 범죄행동으로 인해 부모님께서 상처 받고 내가 할 수 있는게 없다라는 생각에 우울증을 앓았는데 주변의 격려와 응원으로 이겨냄
-불안감 제한적 공간에 갇혀 있는 것에 불안함을 느꼈으나 꾸준한 치료로 극복함 치료와 관련된 것들을 다른 사람에게 알려주고 공유하고 싶음 등등</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>간호사7년차 간호사를 꿈꾸지도않고 성적에 맞춰 간호대를 갔고 졸업하고 일하다 보니 어느새 간호임상 7년차네요. 직장간의 선후배, 병원환자와 보호자와의 관계, 간호사로써의 직업관 에 대해서 계속해서 고민, 방황하는 분들 많으실거라 생각해요. 저도 아직 답을 얻진 못했지만 서로 도움이 되는 관계가 되었으면 좋겠어요</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -586,9 +539,6 @@
     <t>새로운 사람과 만났을 때 친해지는 법</t>
   </si>
   <si>
-    <t>대인관계 이야기 듣고, 짧지만 제 인생을 바탕으로 조언해 드릴게요 :)</t>
-  </si>
-  <si>
     <t>안녕하세요 저도 이별의 경험이 있고 아픈 이별의 과정을 겪었습니다. 마음이 답답하신 분 주위에는 해소할 수 없었던 분들 오히려 익명을 통해 답답함을 해소할 수 있게 도와드릴게요!</t>
   </si>
   <si>
@@ -596,9 +546,6 @@
   </si>
   <si>
     <t>저도 우울을 많이 겪은 사람으로서 많이 도와드리겠습니다 자존감 높여드릴께요</t>
-  </si>
-  <si>
-    <t>짝사랑으로 잠도 설치고 혼자 심장도 터져보고, 결국 용기내서 고백도 했지만.. 이 과정에서는 타이밍이 중요하다는걸 깨달았어요..  이 깨달음을 바탕으로 잘 들어드리고 조언도 해드릴게요..</t>
   </si>
   <si>
     <t>연애</t>
@@ -639,15 +586,9 @@
     <t>장녀 스트레스 2년간의 고시생활 현재 취업준비중 고시공부시작하면서 과호릅등 불안 및 우울증 초기증세생겨 우울증약 1년간 복용 현재는 수면장애와 스트레스성 피부염가지고 살아가는중</t>
   </si>
   <si>
-    <t>저는 한번 연애하면 길게 하는 스타일입니다. 3년, 5년, 그리고 이제 결혼을 약속한 연애를 하고 있습니다. 다른 사람들은 늘 궁금해해요. 그렇게 오래 만났는데도 미련과 아쉬움이 남지 않느냐고. 그렇지만 저는 매 순간 최선을 다했고 후회 남지 않을 이별의 방법을 알기에 전혀 생각나지 않고 새로운 사람에게 충실할 수 있었습니다. 신중함과 열정. 이것이 제가 오래토록 연애하는 비결, 그리고 현명한 이별을 할 수 있는 이유라고 생각합니다. 이별을 고민하고 있지만 아직 마음이 남아 있어서 힘들어 하고 계신 분과 저의 이야기를 공유하고 싶습니다.</t>
-  </si>
-  <si>
     <t>원래는 책도 많이 읽었는대 책을 읽지도 못할 정도로 집중도 못하고 진행도 못했었고, 의지도 없이 지내기도 했었는데 혼자서 to do list 같은거나 불릿저널을 통해서 실천력으로 극복하기도 했고, 다양한 취미와 책들로 불안이나 스트레스에게서 도망가보기도 했어요. 정신과에 다녀보기도 하고, 스스로를 들여다보는 일을 계속 해가려고 노력중입니다. 불안하고, 스트레스를 정제하지 못하고 그런 상태나 느낌들을 알고 있다는 게 사람들의 이야기를 들어줄때 도움이 되더라구요.</t>
   </si>
   <si>
-    <t>집에서 가지 말라던 대학을 갔고 알바와 대외활동, 공모전으로 쉼없는 대학생활을 보냈습니다.  졸업 전, 누구나 아는 기업에 취업했지만 정작 제가 느낀 사회와 저의 꿈들은 꿈 이상도 이하도 아닌 것들이었죠.  지금은 직업상담, 사회복지 관련된 일을 준비하고 있습니다.  -  약 1년 간 팟캐스트를 운영 중이며 약 3년 가까이 소소한 글을 써 왔습니다.  또 약 10회의 칼럼을 신문사에 투고했었고 글, 사람에 대한 관심이 많은 사람입니다.</t>
-  </si>
-  <si>
     <t>진로</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -726,9 +667,6 @@
     <t>사랑이 어려워진 나</t>
   </si>
   <si>
-    <t>어릴때부터 알바부터 회사까지 자신과의 한계에 부딪혀 왔습니다  저와 같이 취업고민에  시달리는 분들에게 아낌없이 상담해 드리겠습니다</t>
-  </si>
-  <si>
     <t>공공기관, 민간 기업 근무  프리랜서 경험    다양한 연구, 공무원, 사업, 기획, 영업 등 경험</t>
   </si>
   <si>
@@ -811,9 +749,6 @@
     <t>어릴 적부터 여러 지역을 다니며 별의별 사람들을 다 만나고 일을 다 겪은, 성인이 되어서도 매년 000명과 만나는 일을 업으로 삼으며, 항상 '사람'에 대한 관심을 가지고 있습니다.</t>
   </si>
   <si>
-    <t>인간관계 속의 모든 입장을 경험해 본 것같아요.. 갑과 을...등등...그만큼 상담도 많이 해봤고요..</t>
-  </si>
-  <si>
     <t>다양한 인간 관계</t>
   </si>
   <si>
@@ -832,16 +767,10 @@
     <t>저는 한번 연애하면 길게 하는 스타일입니다. 3년, 5년, 그리고 이제 결혼을 약속한 연애를 하고 있습니다. 다른 사람들은 늘 궁금해 합니다. 그렇게 오래 만났는데도 미련과 아쉬움이 남지 않느냐고. 그렇지만 저는 매 순간 최선을 다했고 후회 남지 않을 이별의 방법을 알기에 전혀 생각나지 않고 새로운 사람에게 충실할 수 있었습니다. 신중함과 열정. 이것이 제가 오래토록 연애하는 비결, 그리고 현명한 이별을 할 수 있는 이유라고 생각합니다. 이별을 고민하고 있지만 아직 마음이 남아 있어서 힘들어 하고 계신 분과 저의 이야기를 공유하고 싶습니다.</t>
   </si>
   <si>
-    <t>정말 좋아했던 사람이 있었어요. 하지만 결국 그 사람에게 다가가지 못했습니다. 그리고 몇 년이 지나 우연하게 알게된 사실은 그 분 역시도 저를 마음에 두고 있었다는 것이었습니다. 물론 그분이 다가올 수도 있었지만, 제가 결국 이루어지지 못했던 것은 열등감 때문이었던 것 같아요. 돌이켜보면 이 분말고도 다양한 관계에서 저는 열등감으로 인해 다가오는 사람들을 자꾸 밀어냈던 거 같아요. 그래서 열등감을 극복하기 위해 많은 노력을 하면서 새로운 관계를 만들 수 있었던 것 같아요. 그리고 지금은 누구보다 사랑하는 사람과 3년 째 잘 연애하고 있어요</t>
-  </si>
-  <si>
     <t>연애</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>미팅, 소개팅, 자연스러운 만남까지 썸 관련 여러 경험들을 가지고 있어요. 어떻게 하면 썸을 탈 수 있는지부터 썸에서 연인으로 발전하기까지 제 경험을 토대로 의견을 말해드릴게요. 함께 얘기하면서 갖고 있는 연애 고민을 풀어나가봐요.</t>
-  </si>
-  <si>
     <t>여자친구와 군대 제대까지 함께 보냈던 경험이 있습니다. 4년 간 사귀면서 제가 겪었던 경험과 제가 느꼈던 감정에 대해서 솔직하게 답변해드 리겠습니다. 비슷한 고민을 갖고 계신 분들이 있다면 더 많이 공감해드릴 수 있습니다.</t>
   </si>
   <si>
@@ -869,12 +798,6 @@
     <t>절절한 짝사랑으로 잠도 설치고 혼자 심장 터질 듯 한 경험을 했습니다. 용기를 내어 고백도 했지만 결국 잘되진 않았어요. 하지만 이 과정에서 용기를 내는 법과 타이밍이 중요하다는 것을 깨달았어요. 제 경험을 바탕으로 잘 들어드리고 조언해드릴 수 있으면 좋겠습니다.</t>
   </si>
   <si>
-    <t>오랜 기간 동안 짝사랑을 가슴 아프게 한 경험이 있습니다. 가슴 아픈 짝사랑 이후에 다이어트와 운동으로 자기 관리를 한 뒤 자존감이 많이 올라갔습니다. 그 과정에서 남들과의 비교는 끝이 없다는 것을 깨닫고 잘나야 한다는 생각을 버린 뒤에 저 자신을 더 사랑할 수 있게 되었습니다. 그리고 나서 좀 더 연애관계가 편해지고 쉽게 다가갈 수 있었던 것 같습니다.</t>
-  </si>
-  <si>
-    <t>연애는 2번 해봤습니다. 2번 연애가 많은  편은 아니지만 , 어떻게 해야 내 자신이 안 힘드는 연애를 할 수 있는지 잘 압니다. 감당할 수 있는 연애의 기준도 잘 아는 편이라고 생각합니다. 하지만 아는 것보다 중요한 것은 상대방을 이해하고 상대방의 시선에서 볼 줄 아며 느낄 줄 아는 것이 제일 중요하다고 생각합니다. 그런 부분에서 서로 대화를 하며 고민을 얘기했으면 합니다.</t>
-  </si>
-  <si>
     <t>내향적인 성격 탓에 혼자서만 좋아하던 사람에게 좋아하는 마음을 전달하고 연애를 시작했습니다. 짝사랑하던 상대를 만나면서 좋은 추억과 기억들을 많이 쌓았습니다. 그리고 그 과정에서 이별을 겪고 마음 아파하며 스스로를 도닥였던 기억을 갖고 있습니다. 이를 바탕으로 갈피를 잡지 못하는 누군가에게 도움이 되어드리고 싶습니다.</t>
   </si>
   <si>
@@ -918,18 +841,12 @@
     <t>대학 생활 중 "내가 진짜로 하고 싶은 일은 무엇일까?"를 찾기 위해 끝없이 여러 일들을 경험해보았습니다. 같이 고민을 나눠봐요</t>
   </si>
   <si>
-    <t>#SI 3년, 흔히 이야기하는 SI에서 3년을 다니고 보니 고용안정?이 절실해 이직을 결심. #포털D사 이직, 검색에서 일하게 되었지요, #제주로 간다, 제주에서 일해볼 기회가 생겨서 7년있다가 돌아왔지요. #합병, 회사가 k사와 합병이 되었는데, 이런 경험은 참 쉽게 할 수 없는 것이였네요. #근속10년, D사K가 도합 10년 채우고, 개발자에게 수시로 오는 성장/경험의 딜레마에 결국... #커머스로 이직, 새로운 도전 중입니다. 커머스의 생태계는 매우 신선한 자극이 되고 있어요~</t>
-  </si>
-  <si>
     <t>대학 생활을 하면서 제게 항상 화두였던 것은 '나는 무슨 일을 해야할까?"였습니다. 처음에는 너무나 막연했습니다. 뭘 어디서부터 해야할 지 , 전공 특성상 뚜렷하게 하나의 기술을 배우거나 하는 것이 아니니까 더 막연했던 것 같습니다. 그래서 우선 무언가라도 경험하자라는 생각에 제가 조금 더 흥미가 가는 분야 위주로 대외활동이든 공모전이든 몰입해서 해보고자 했습니다. 그렇게 선택한 것이 디자인이랑 광고였는데, 재미는 있었지만 생각보다 제가 뒤쳐지거나 좀 더 창의적면이 부족하다는 생각을 많이 하게 됐습니다. 그 순간에 좌절도 좀 했었던 것 같아요. 그래서 그 뒤부터는 막연하게 찾기보단 저에 대해 좀 더 알고 시작하자라는 생각을 했고 그래서 나라는 사람은 어떤 사람일까를 구체적으로 분석하고 공통된 요소들을 찾다보니 개발까지 오게 된 것 같아요. 개발에 와서도 어떤 업계로 가야할지 참 많은 고민을 헀지만 지금은 굉징히 만족하면서 좋은 회사에 다니고 있습니다. 여전히 더 큰 발전을 바라보면서요.</t>
   </si>
   <si>
     <t>진로에 대한 고민이 컸고 대학 입후 후 크게 방황을 거쳤습니다. 학교를 중퇴하고 학교 밖 세상에서 다양한 것들을 배우며 살다보니 현재의 제가 되었네요. 그 시간들을 통해 배운 것이 많습니다.  그리고 그런 경험과 연결되어 제 자신을 아는 것, 인생 전반, 삶을 이해하고 탐구하는 것에 큰 관심을 갖게 되었습니다.</t>
   </si>
   <si>
-    <t>저는 대학을 졸업하고 아주 조그만 회사를 창업해서  제가 좋아하는 방식으로 마케팅/디자인/브랜딩 등의 일을 하며  (적어도 현재까지는) 행복한 삶을 살고 있습니다.  늘 주어진 길 보다는 제가 좋아하는 일과 그 일을 잘 하는 방법,  그리고 그 결과로 자신을 신뢰하는 과정에 대해 고민해왔고  아직도 열심히 고민 또 노력 중입니다.</t>
-  </si>
-  <si>
     <t>지방대 졸업 후 S전자 데이터엔지니어로 일하다 커머스 대기업으로 이직하였습니다. 항상 진로에 대한 고민 많이 하고 있습니다. 현재는 개발자지만,  그 전에는 작가를 꿈꿨습니다. 진로 결정에 대한 고민이 많으시다면 함께 고민을 나눠봐요</t>
   </si>
   <si>
@@ -939,15 +856,9 @@
     <t>내가 하고 싶은게 무엇인지 알기 위해 이것저것 경험해보고 오래도록 고민한 경험이 있습니다. 외국생활과 교환 학생 경험으로 구체화하려고 했습니다. 어학 연수를 통해 해외 취업에도 성공할 수 있게 되었습니다. 제가 가진 경험으로 학업과 관련된 고민에 도움이 되었으면 좋겠습니다.</t>
   </si>
   <si>
-    <t>진로에 대한 방황이 좀 길었습니다. 전공 적성이 너무 안 맞아 학업을 계속 이어나갈 수 있을까라는 고민을 많이 했던 것 같습니다. 과연 날 뭘 좋아할까, 그리고 뭘 할 수 있을까? 내가 적성은 과연 이게 맞을까라는 고민을 하면서 계속 저를 탐구하기 위한 상황에 놓이게 했던 거 같습니다. 그러다보니 결국 엄청 좋아하는 것보단 제가 '꾸준히 할 수 없는 영역'들이 생기더라요. 그래서 전과를 했고, 이후 편입을 하였습니다. 경영에서 공대로 그리고 다시 지방대에서 인서울로 제 목표점에 따라 이동했고 현재는 적성에 맞는 취업을 하여 잘 적응하고 지내고 있습니다.</t>
-  </si>
-  <si>
     <t>사실 제 전공 진로에 대한 전망이 안 좋다기보단 제가 다니는 전공으로 무얼 할 수 있을까라는 생각을 계속했지만 도저히 답이 안나왔습니다. 그래서 아예 다른 쪽으로 눈을 돌렸어요. 그러다 프로그래머, 혹은 개발자라는 직업이 눈에 들어왔고 해당 진로를 통해 다양한 걸 할 수 있다고 생각하니까 생각보다 매력적으로 다가왔습니다. 하지만 막상 개발쪽으로 진로를 가려다 보니, 저는 지방대, 무스펙, 비전공 개발자였고 어디서 부터 준비할지 몰랐습니다. 제가 가진 역량으로 어떻게 제 미래를 그려야할 지 몰랐습니다. 처음에는 국비학원으로 개발에 입문했고 그렇게 첫 직장은 SI업체로 시작했습니다. 들어가자마자 그 곳에는 더 이상 성장하기 어렵다는 생각이 들었고 지속적으로 역량개발을 했습니다. 현재는 굉장히 빠르고 에너지 있게 움직이는 유니콘 스타트업에서 리드개발자로 일하고 있습니다.</t>
   </si>
   <si>
-    <t>관광과에 대한 진로 적성이 맞지 않아 취업 시즌이 되었을 때 개발쪽으로 해야 제가 뭐라도 하고 먹고 살 수 있다는 생각이 들었습니다. 당시에는 막상하려니까 주변에 물어볼 친구들도 없고, 혼자 헤쳐가야하는 입장에서 참 많이 막막했던 것 같아요. 국비지원 단기도 받아보고, 장기도 해보고 그리고 대학에 있는 컴공 교수님을 찾가아서 이런 저런 조언도 많이 구했습니다. 인생에 정말 중요했던 선택이었던 것 같아요. 안그래도 전공자들이나 실력이 좋은 사람들에 비해 제가 많이 뒤쳐진다고 생각했는데. 이 악물고 버텨야겠다라는 생각을 많이 했습니다. 그 와중에 시간이 아까웠던 시행착오도 있고 정말 좋은 기회였구나라는 생각이 드는 일도 있었어요. 막막한 상황에서 고민이 되신다면 조금은 더 시행착오를 줄일 수 있도록 도와드리고 싶네요.</t>
-  </si>
-  <si>
     <t>어렸을 적부터 장사에 대한 관심이 많았습니다. 그래서 대학도 가지 않고 장사업계에 뛰어들었습니다. 구체적으로 업종은 정하지 않고 뭔가 사장님에 대한 꿈이 있어서 음식점들은 가리지 않고 알바를 했던 것 같아요. 그렇게 20대 시절을 보내고 제가 가게를 차릴만한 돈을 모아 막상 창업을 했지만, 생각보다 운영과 사람관리에 대한 부분이 어렵고 힘들더라구요. 또 저랑 맞지도 않은 것 같았습니다. 매일 매상에 대한 고민을 하면서 관리하는 입장이 되다보니 창업이란게 생각보다 쉽지 않구나라는 생각이 정말 많이 들었습니다. 그러다 가게를 운영하면서 우연한 계기로 자동화하는 프로그램이 필요해서 외주개발을 맡기면서 개발쪽에 대한 관심들이 생겼던 것 같아요. 원하는 것들 입력을 넣으면 결과값이 정확하게 나온다는 것에 매력을 느꼈던 것 같아요. 그 때부터 개발쪽에 관심을 가지고 준비를 했고 정말 맨땅에 헤딩한다는 생각으로 도전했습니다. 지금은 중견기업에 있고 이직을 준비하고 있습니다.</t>
   </si>
   <si>
@@ -960,24 +871,12 @@
     <t>진로에 대한 고민으로 디자인, 특히 마땅히 무얼할지 몰라서 디자인쪽으로 진로를 설정을 고민하고 있다면, 해드릴 이야기가 많을 것 같아요. 저도 비슷한 상황에서 대학 때부터 디자인을 해왔지만 생각보다 너무 어렵고, 근무상황이 좋지 않은 일들 많아서 막막한 고민을 하고 있다면 그마나 어떻게 도전하고 시행착오를 줄일 수 있을지 얘기를 나누면 좋을 것 같습니다. 디자이너라는 직무말고도 사실 디자이너에 걸처있는 좀 더 스펙트럼이 넓은 업무들이 많아서 이 부분에 대해서 이야기를 나누면 좋을 것 같습니다.</t>
   </si>
   <si>
-    <t>안녕하세요! 저는 컴퓨터 프로그램이라고는 전혀 만져보지도 않았던 바리스타입니다! 직업상 컴퓨터를 많이 다뤄보지 않아서 편집에 대한 두려움이 컸어요. 이 두려움을 깨고 첫 영상을 찍고 편집을 하는데 까지 시간이 많이 걸렸지만 전문가 급의 영상을 찍을게 아니라는 생각을 갖고 영상을 찍었습니다. 그렇게 핸드폰으로 영상을 촬영하면서 못하는 편집도 열심히 하며 영상을 올렸죠. 그랬더니 사람들이 댓글로 궁금한 메뉴들도 더 물어보고 거기에 대해서 설명해드리는 영상도 만들고 하니 재미가 붙기 시작했어요. 조금씩 영상을 만들다 보니 처음엔 제 얼굴만 봐도 어색했지만 지금은 꾸준히 기어가고 있는 초보 유튜버가 되었습니다 ㅎㅎ. 영상에 대해서 아무것도 몰랐던 저도 하고 있으니 분명 이제 시작하려는 분들도 충분히 할 수 있다고 생각해요!</t>
-  </si>
-  <si>
     <t>7-8년 정도 다니고 있던 직장을 그만 두고 지금은 영상을 만들고 있는 2년차 유튜브 편집자입니다. 전에 있던 직장에선 비슷한 업무를 반복적으로 하는 일이어서 시간이 지날수록 회의감이 들기 시작했어요. 아예 직장을 그만 둘 생각으로 영상을 만진 것은 아니었지만 창작을 해서 무언가를 만들어 낸다는 것에 마음이 끌렸죠. 직장을 다니면서 유튜브로 영상 편집을 배우고 유튜버 소스를 가져와서 제 나름대로 재미를 살리면서 편집을 하기 시작했어요. 그렇게 3-4 개월 정도 취미를 붙여 편집을 하고 있었는데 몇 번 보던 유튜버분께서 편집자를 구한다는 공고를 보고 열과 성을 다해 편집을 해서 편집본을 보내드렸죠. 정말 운이 좋게도 유튜버분께서 연락을 주셔서 편집의 길에 발을 들여놨고 그 이후에도 알음알음 다른 유튜버분들의 편집을 하다 보니 직장을 그만두고 여기까지 오게 되었습니다.</t>
   </si>
   <si>
     <t>안녕하세요! 저는 대학교를 다니면서 유튜브를 하고 있는 대학생입니다. 유튜브를 하기 전에도 1년 정도는 말로만 유튜브를 한다고 떠들고 다니는 소위 말로만 유튜버였습니다 ㅎㅎ. 하고는 싶은데 어떻게 시작해야 될지 뭘 찍어야하는지 잘 몰랐기 때문에 시작하는데 시간이 오래 걸렸어요. 그래서 에라 모르겠다! 하는 심정으로 핸드폰으로 영상을 촬영하면서 편집을 배워가며 영상을 업로드 하기 시작했습니다. 그렇게 영상을 찍은 지 5개월이 다 돼 가는데 점점 나아지는 편집과 제 추억들이 쌓여가는 것을 보면 저만의 보물 상자를 따로 만들어놓은 기분이에요. 연말에 친구들과 모여 제 유튜브를 다시 돌아봤을 땐 지난 기억들이 다시 생각나고 너무 재미있었어요. 앞으로 어떤 추억들이 담길지 너무 기대가 돼서 꾸준히 유튜브를 업로드 할 생각이에요!</t>
   </si>
   <si>
-    <t>원래 디자인에 대한 동경이나 흥미는 있었습니다. 고등학교 때 부모님의 권유로 이과를 가게 되었고 그 때만 해도 저에 대한 목표나 꿈 이런 것에 대한 비중을 두고 생각한 적이 없다보니, 공대를 가게 되었습니다. 하지만 공대를 갈 때 그나마 그리는 것과 연관된 거라는 생각하는 건축학과를 진학하였습니다. 학교생활을 하니 뭔가 디자인과 큰 관련이 있는 건 아니였지만 각종 툴들을 다 익힐 수 있는 시간들이 있다보니 아무래도 디자인 영역을 시도해보는 도움을 준 것 같습니다. 본격적으로 디자인 영역을 도전할 땐 이미 창업이나 다양한 활동들로 디자인을 했던 작업들이 용기를 준 것 같습니다.</t>
-  </si>
-  <si>
-    <t>어렸을 적부터 창업에 대한 생각이 있었던 것은 아니였습니다. 정말 창업은 몇년 전만해도 생각도 못했던 영역이었습니다. 늘 진로에 대한 고민은 하고 있었고, 성적 맞춰서 온 공대는 생각보다 저와 맞지 않는다는 느낌이 많이 들었습니다. '과연 나는 무엇을 하고 싶을까?' 혹은 '어떤 일을 하는게 중요할까?'라는 생각을 오랜 시간 했었고, 마냥 전공이 적성이 맞지 않는다고만 생각했지, 정작 제가 뭘 좋아하는지, 그리고 뭘 해야하는지는 생각해보지 않았습니다. 그렇게 20대의 대부분의 시간을 보냈던 중 정말 인생을 바꿀만한 극적인 경험과 시간들을 보내면서 창업을 해야한다!라는 생각과 계기들이 조금씩 쌓여갔고, 모든 일을 그만 두고 창업을 도전하게 되었습니다.</t>
-  </si>
-  <si>
-    <t>대학 때부터 진로에 대한 고민이 많았습니다. 고민만 하다가 공대를 졸업해 남들 다가는 대기업 중공업쪽으로 가서 근무 했지만 생각보다 너무 안맞고 재미가 없더라구요. 그래서 금융쪽으로 진로를 바꿔 투자심사역으로 이직하게되었어요. 처음에는 굉장히 두렵거나 불안했지만 굉장히 좋은 경험이었던 것 같아요. 투자업계에 있으면서 만났던 창업자분들로부터 예전부터 마음 속에만 있던 무언가가 꿈틀거리기 시작했습니다. 그렇게 예전부터 좋아했던 취미를 좀 더 발전시키고 싶었고 창업에 대해 도전하게 되었습니다.</t>
-  </si>
-  <si>
     <t>고등학교 시절, 좋아했던 사람이 있었고 연애를 했고 그러다 보니 자연스레 아이가 생겼지만, 제 생각과는 다르게 주위에선 제가 마치 잘못을 한 사람 취급을 했습니다. 그렇게 누구에게도 환영받지 못하고 성인이 된 후 혼자 헤처나가기엔 환경적인 힘듬과 어려움이 많았습니다. 그래서 십년이 넘는 시간이 지났음에도 저와 비슷한 환경에 있는 분들이 여전히 어려워하는 모습을 보며 이러한 구조적 개선을 위해 창업을 선택하게 되었습니다. 지금은 정말 누구보다 열정적으로 서비스를 발전시키고 성장시키기 위해 노력하고 있습니다.</t>
   </si>
   <si>
@@ -990,12 +889,6 @@
     <t>비전공 디자이너로써 취업를 하기 위해서 중요했던 부분, 시행착오를 겪었던 부분에 대해 공유해드리고 싶어요.</t>
   </si>
   <si>
-    <t>창업을 하다보니, 직업 혹은 일에 대한 본질적인 고민을 많이 하게 되는 것 같습니다. 막연한 창업을 꿈꾸고 있다면 언제든지 말씀해주세요. 저도 그랬습니다.</t>
-  </si>
-  <si>
-    <t>창업에 대한 도전이 두렵고, 어두운 터널을 지나고 있다고 생각이 든다면 함께 고민을 나눠봐요.</t>
-  </si>
-  <si>
     <t>아무도 도와주지 않는 막막한 상황이라면, 누구보다 그 마음을 잘 알 것 같아요. 조금이라도 제 경험이 시행착오를 줄일 수 있는데 도움이 되었으면 좋겠습니다.</t>
   </si>
   <si>
@@ -1023,9 +916,6 @@
     <t>저 또한 영상에 대해서 전문가는 아니지만 영상으로 이직을 생각하시는 분들이라면 충분히 공감하고 고민에 대해 대화를 나눌 수 있습니다.</t>
   </si>
   <si>
-    <t>편입을 하거나, 전과를 하거나 대학 생활 중 진로에 대한 과감한 결단이 두렵다면 같이 얘기해보면 좋을 것 같습니다.</t>
-  </si>
-  <si>
     <t>"현재의 조건 때문에 막막하고 길이 보이지 않는다면 함께 고민을 풀어가봐요 "</t>
   </si>
   <si>
@@ -1068,9 +958,6 @@
     <t>저는 대학교를 다닐 대 1년 정도 어학연수를 다녀온 경험이 있습니다. 그 댄 이루고자 하는 목표도 있었지만 해외에 나가 같이 지내던 사람들을 볼 수 없다는 마음에 겁도 많이 났죠. 그 중 특별히 친한 친구 한 명이 있었는데 이 친구가 너무 그리우면 어떻게 하지 걱정을 많이 했어요. 하지만 막상 해외로 나가 생활을 하다보니 그렇게 그리운 마음이 들지 않아 이 친구를 좋아하지 않는 건가? 라는 생각을 해봤습니다. 그런데 시간이 지날수록 그 친구가 그리워지게 되고 저를 챙겨주던 빈자리가 크게 다가왔어요. 그때의 기억으로 그 친구와는 지금까지 두터운 우정을 쌓아가고 있는 중입니다 :)</t>
   </si>
   <si>
-    <t>저는 주변사람들을 챙기고 그 후에 고맙다거나 기뻐하는걸 보는 게 너무 좋아서 사람들을 많이 챙기는 편이었습니다. 하지만 시간이 갈수록 그 행동들이 상대방에게 너무나도 당연한 일들이 되어가는 걸 보았어요. 무언가를 바라고 한 행동은 아니지만 제가 힘들 땐 저도 '이 사람도 나를 이만큼 생각해줬음 좋겠어' 라는 생각을 했습니다. 하지만 시간이 어느 정도 지나고 사회에 나와 보니 저도 다른 사람에게 그런 사람이었던 적이 있다는 걸 깨닫고 또 모든 사람들에게 100% 돌려받을 수 없다는 것 또한 느꼈습니다. 인간관계 뿐만 아니라 연애나 가족 사이에서도 만찬가지로요. 그런 경험들로 좀 더 흔들리지 않는 상태가 되었고 남아있는 사람들에게 더 잘해주려고 노력하며 살고 있습니다.</t>
-  </si>
-  <si>
     <t>나를 힘들게 했던 친구, 나에게 힘이 되준 친구, 내가 살아갈 원동력이 되어준 친구 모두 저에게 힘이 됐어요. 그 사람들을 만나면서 누가 좋은 친구다, 필요한 친구다 이렇게 결정내리기 보단 이 친구에겐 어떤 점을 배울 수 있는지 생각하는 힘을 길렀어요. 심지어 저를 배신한 친구에게도 배울 점은 늘 있다는 것도요. 그게 제가 현재를 살아가게 만들었고 부족하고 힘들어도 또 일어날 수 있게 하는 힘인 것 같아요.</t>
   </si>
   <si>
@@ -1086,25 +973,11 @@
   </si>
   <si>
     <t>진로 취업, 원하던 과를 가는 것보다 4년제를 가는것이 더 맞다는 주변얘기에 흔들려 4년제 학교를 가게되었고, 결국 대학교 1학기만에 휴학을 했습니다. 그 이후 부터 저는 제 꿈을 찾는 방황이 시작되었습니다. 휴학 후 공장알바(주,야)알바를 하면서 '난 죽어도 내가 좋아하는 일을 하면서 살아야겠다'라는 생각을 했었습니다. 그런 생각을 한게 야간근무를 하고 아침에 퇴근하는 버스였었고 정신적, 육체적으로 무척 힘들었던 시간이었습니다. 그 생각때문에 지금 내가 이 직업을 가지고 열심히 살아가고 있는것 같습니다. 평소에 옷에 관심이 많았던 터라 의류업에서 일을 해봐야 겠다고 생각했고, '유니클로'라는 곳에서 2년간 근무 했었습니다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> 하지만 모든일이 자신과 맞는일은 이 세상에 존재하지 않는다고 생각하고, 초심으로 돌아가 무작정 열심히 했습니다. 막상 해보니 저랑 직업이 잘 맞다고 느꼈습니다. 어릴적 부터 건축에 관심이 많았고, 지금 이 일도 건축에 축소판이지만 더 나아가 건축업계에 발을 들일수 있는 밑바탕이 될수 있고, 손재주가 나름 있었기에 현장일을 하는데에도 어려움 없이 잘 해나갔습니다. 지금에 와서는 더 큰 꿈이 생겼고, 그 꿈을 위해 여러가지로 노력하고 있습니다. 6일 동안 일하고 일요일만 쉬지만, 귀중한 그 시간을 미래를 위한 투자라 생각하고, 캐드, 맥스 프로그램을 배우는 학원을 다니고 있고, 업무에 있어서 필요한 서류양식들을 저만의 포맷으로 만들어가고 있습니다.</t>
-  </si>
-  <si>
-    <t>처음 자살시도를 한 이후부터 벌써 10년차에 들어섭니다. 몸은 무겁고 마음은 어두워 하루를 살기보단 죽기를 바라던 지난 날들이었음에도 불구하고,상담도 받고 병원도 꾸준히 다닌 것을 보면, 저는 사실 살기를 바랬나 봅니다. 우울로 인한 3년 휴학에, 학교를 다니면서 자살시도로 인해 퇴학당할뻔한 적도 두번이나 있음에도 저는 벌써 대학교 5년차에 들어서고 있습니다. 
-우울하고, 무기력하고, 죽고 싶은 것보다 더 괴로운 것은 이것들을 안고 삶을 살아내는 것이었습니다. 처음에는 저 자신을 쥐어짜며 살아'내야'됐지만 지금은 살아'가고'있습니다.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>점점 회복하게 된 저는 저의 이러한 경험으로 인해 이랬던 저조차 다른 이들에게 도움을 주는 사람이 되어가고 있습니다.
 '삶은 고해다'라는 유명한 말처럼 이 괴로운 삶을 포기하고 싶은 분들에게 삶의 행복을 가르쳐주기보단 괴로운 삶을 함께 해주고 싶습니다. 그러다보면 행복한 순간들이 찾아오고 그 순간들이 모이면 행복한 시간이 온다는 것을 함께 소망하고 싶습니다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">이제와 생각해보면 유년시절부터 안정감 없이 자라온 날이 기억납니다. 맞벌이 하시는 부모님 과 떨어지게 되었고, 다시 만나게 된 날에는 조부모님 과 다른 훈육 방법에 많이 혼란을 느끼고 자아 를 형성하였습니다.
-불안함 이 자아였던 저는 학창시절 친구가 어려웠고, 부모님이 어려웠습니다. 늘 경제적, 교우적, 학업 고민을 늘어지게 하다가 성인이 되고 대학 에 입학하게 되었습니다.
-부모님으로부터 독립을 하며, 사회를 어른 친구 학문 으로부터 내 자신을 다시 찾게 됩니다. </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1220,12 +1093,158 @@
     <t>진로</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t xml:space="preserve"> 하지만 모든일이 자신과 맞는일은 이 세상에 존재하지 않는다고 생각하고, 초심으로 돌아가 무작정 열심히 했습니다. 막상 해보니 저랑 직업이 잘 맞다고 느꼈습니다. 어릴적 부터 건축에 관심이 많았고, 지금 이 일도 건축에 축소판이지만 더 나아가 건축업계에 발을 들일수 있는 밑바탕이 될수 있고, 손재주가 나름 있었기에 현장일을 하는데에도 어려움 없이 잘 해나갔습니다. 지금에 와서는 더 큰 꿈이 생겼고, 그 꿈을 위해 여러가지로 노력하고 있습니다. 6일 동안 일하고 일요일만 쉬지만, 귀중한 그 시간을 미래를 위한 투자라 생각하고, 캐드, 맥스 프로그램을 배우는 학원을 다니고 있고, 업무에 있어서 필요한 서류양식들을 저만의 포맷으로 만들어가고 있습니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>곰신
+저는 5년차 연애 중 + 곰신탈출 성공 1인 입니다.
+3년 정도 사귀고 난 후에 남자친구가 군대에 간 거라 괜찮을 줄 알았는데 군대 가기 직전에 서로 예민해져서 가장 많이 싸운 것 같아요. 주변에도 군대 가기 전에 헤어지는 커플이 많은데, 그 이유가 서로를 위해서 헤어지는 경우가 많더라구요. 저는 군대 가기 전에 서로 걱정되는 부분을 먼저 얘기하고 어떻게 극복하는 게 좋은지 남자친구랑 상의를 굉장히 많이 했어요. 그 덕분에 벌써 군생활 막바지까지 왔고, 오히려 군 복무 하는 동안 서로에 대한 신뢰가 깊어졌어요.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>정말 좋아했던 사람이 있었어요. 하지만 결국 그 사람에게 다가가지 못했습니다. 그리고 몇 년이 지나 우연하게 알게된 사실은 그 분 역시도 저를 마음에 두고 있었다는 것이었습니다. 물론 그분이 다가올 수도 있었지만, 제가 결국 이루어지지 못했던 것은 열등감 때문이었던 것 같아요. 돌이켜보면 이 분말고도 다양한 관계에서 저는 열등감으로 인해 다가오는 사람들을 자꾸 밀어냈던 거 같아요. 그래서 열등감을 극복하기 위해 많은 노력을 하면서 새로운 관계를 만들 수 있었던 것 같아요. 그리고 지금은 누구보다 사랑하는 사람과 3년 째 잘 연애하고 있어요</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>저는 7년이라는 업무경력동안 무려 6번이나 회사를 옮긴 사람입니다. 제 자랑이냐고요? 아닙니다. 그만큼 무모했고 겁이났으며 도전적인 삶을 살았음을 말씀드리고 싶었습니다. 대부분의 취준생들이 남들과 같이 스펙쌓고 대기업을 노리다가 하나라도 걸리면 감사하구나 하고 취업이 된 후 얼마안가 퇴준생이되어서 이직을 준비하거나 곧바로 퇴사하는 경우를 너무나도 많이봤습니다. 그래서 취준생때부터 나의 커리어를 건강하고 올바르게 세워서 시행착오를 줄일 수 있도록 도와드리고자 합니다. 많은 분들이 알면 저의 노하우의 희소성이 떨어지겠지만 그래도 도움을 드리고 싶습니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>연애는 2번 해봤습니다. 2번 연애가 많은  편은 아니지만 , 어떻게 해야 내 자신이 안 힘드는 연애를 할 수 있는지 잘 압니다. 감당할 수 있는 연애의 기준도 잘 아는 편이라고 생각합니다. 하지만 아는 것보다 중요한 것은 상대방을 이해하고 상대방의 시선에서 볼 줄 아며 느낄 줄 아는 것이 제일 중요하다고 생각합니다. 그런 부분에서 서로 대화를 하며 고민을 얘기했으면 합니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>절절한 짝사랑으로 잠도 설치고 혼자 심장 터질 듯 한 경험을 했습니다. 용기를 내어 고백도 했지만 결국 잘되진 않았어요. 하지만 이 과정에서 용기를 내는 법과 타이밍이 중요하다는 것을 깨달았어요. 제 경험을 바탕으로 잘 들어드리고 조언해드릴 수 있으면 좋겠습니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>어렸을 적부터 창업에 대한 생각이 있었던 것은 아니였습니다. 정말 창업은 몇년 전만해도 생각도 못했던 영역이었습니다. 늘 진로에 대한 고민은 하고 있었고, 성적 맞춰서 온 공대는 생각보다 저와 맞지 않는다는 느낌이 많이 들었습니다. '과연 나는 무엇을 하고 싶을까?' 혹은 '어떤 일을 하는게 중요할까?'라는 생각을 오랜 시간 했었고, 마냥 전공이 적성이 맞지 않는다고만 생각했지, 정작 제가 뭘 좋아하는지, 그리고 뭘 해야하는지는 생각해보지 않았습니다. 그렇게 20대의 대부분의 시간을 보냈던 중 정말 인생을 바꿀만한 극적인 경험과 시간들을 보내면서 창업을 해야한다!라는 생각과 계기들이 조금씩 쌓여갔고, 모든 일을 그만 두고 창업을 도전하게 되었습니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">이제와 생각해보면 유년시절부터 안정감 없이 자라온 날이 기억납니다. 맞벌이 하시는 부모님 과 떨어지게 되었고, 다시 만나게 된 날에는 조부모님 과 다른 훈육 방법에 많이 혼란을 느끼고 자아 를 형성하였습니다. 불안함 이 자아였던 저는 학창시절 친구가 어려웠고, 부모님이 어려웠습니다. 늘 경제적, 교우적, 학업 고민을 늘어지게 하다가 성인이 되고 대학 에 입학하게 되었습니다. 부모님으로부터 독립을 하며, 사회를 어른 친구 학문 으로부터 내 자신을 다시 찾게 됩니다. </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>수능을 본 후 지방으로 대학을 가게 되었습니다. 편입을 결심하고 2학년을 다니며 영어공부를 시작했습니다. 2학년 과탑으로 졸업하였고, 편입에도 성공하여 학교를 옮겼습니다. 편입이후에도 학과생활에 잘 적응하였고, 장학금을 받으며 다녔습니다. 이후에 나의 적성에 대해 고민하고, 나를 분석하며 진로에 대한 고민을 하였고, 지금은 원하는 직업에 종사하고 있습니다. 외국계회사 인사담당자로서 여러분의 편입과 취업에대한 고민에 답변을 드리고 싶습니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>진로에 대한 방황이 좀 길었습니다. 전공 적성이 너무 안 맞아 학업을 계속 이어나갈 수 있을까라는 고민을 많이 했던 것 같습니다. 과연 날 뭘 좋아할까, 그리고 뭘 할 수 있을까? 내가 적성은 과연 이게 맞을까라는 고민을 하면서 계속 저를 탐구하기 위한 상황에 놓이게 했던 거 같습니다. 그러다보니 결국 엄청 좋아하는 것보단 제가 '꾸준히 할 수 없는 영역'들이 생기더라요. 그래서 전과를 했고, 이후 편입을 하였습니다. 경영에서 공대로 그리고 다시 지방대에서 인서울로 제 목표점에 따라 이동했고 현재는 적성에 맞는 취업을 하여 잘 적응하고 지내고 있습니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>저는 한번 연애하면 길게 하는 스타일입니다. 3년, 5년, 그리고 이제 결혼을 약속한 연애를 하고 있습니다. 다른 사람들은 늘 궁금해해요. 그렇게 오래 만났는데도 미련과 아쉬움이 남지 않느냐고. 그렇지만 저는 매 순간 최선을 다했고 후회 남지 않을 이별의 방법을 알기에 전혀 생각나지 않고 새로운 사람에게 충실할 수 있었습니다. 신중함과 열정. 이것이 제가 오래토록 연애하는 비결, 그리고 현명한 이별을 할 수 있는 이유라고 생각합니다. 이별을 고민하고 있지만 아직 마음이 남아 있어서 힘들어 하고 계신 분과 저의 이야기를 공유하고 싶습니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#SI 3년, 흔히 이야기하는 SI에서 3년을 다니고 보니 고용안정?이 절실해 이직을 결심. #포털D사 이직, 검색에서 일하게 되었지요, #제주로 간다, 제주에서 일해볼 기회가 생겨서 7년있다가 돌아왔지요. #합병, 회사가 k사와 합병이 되었는데, 이런 경험은 참 쉽게 할 수 없는 것이였네요. #근속10년, D사K가 도합 10년 채우고, 개발자에게 수시로 오는 성장/경험의 딜레마에 결국... #커머스로 이직, 새로운 도전 중입니다. 커머스의 생태계는 매우 신선한 자극이 되고 있어요~</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>대학 때부터 진로에 대한 고민이 많았습니다. 고민만 하다가 공대를 졸업해 남들 다가는 대기업 중공업쪽으로 가서 근무 했지만 생각보다 너무 안맞고 재미가 없더라구요. 그래서 금융쪽으로 진로를 바꿔 투자심사역으로 이직하게되었어요. 처음에는 굉장히 두렵거나 불안했지만 굉장히 좋은 경험이었던 것 같아요. 투자업계에 있으면서 만났던 창업자분들로부터 예전부터 마음 속에만 있던 무언가가 꿈틀거리기 시작했습니다. 그렇게 예전부터 좋아했던 취미를 좀 더 발전시키고 싶었고 창업에 대해 도전하게 되었습니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>안정된 일, 장래가 유망한 일보다 내가 제일 좋아하는 일을 시작한 직장인입니다. 대학교 4년 동안 배운 전공지식을 버리고 좋아하는 일을 하기 위해 스타트업 멤버부터 시작해 5년 째 좋아하는 일을 하고 있습니다. 아직 자랑스러울 만큼 풍부한 경험은 쌓지 못했지만 진로를 고민하고 있는 많은 분들께 조금이라도 도움이 되어드릴 이야기를 해드리고 싶습니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>집에서 가지 말라던 대학을 갔고 알바와 대외활동, 공모전으로 쉼없는 대학생활을 보냈습니다.  졸업 전, 누구나 아는 기업에 취업했지만 정작 제가 느낀 사회와 저의 꿈들은 꿈 이상도 이하도 아닌 것들이었죠.  지금은 직업상담, 사회복지 관련된 일을 준비하고 있습니다.  -  약 1년 간 팟캐스트를 운영 중이며 약 3년 가까이 소소한 글을 써 왔습니다.  또 약 10회의 칼럼을 신문사에 투고했었고 글, 사람에 대한 관심이 많은 사람입니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>어릴때부터 알바부터 회사까지 자신과의 한계에 부딪혀 왔습니다  저와 같이 취업고민에  시달리는 분들에게 아낌없이 상담해 드리겠습니다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>처음 자살시도를 한 이후부터 벌써 10년차에 들어섭니다. 몸은 무겁고 마음은 어두워 하루를 살기보단 죽기를 바라던 지난 날들이었음에도 불구하고,상담도 받고 병원도 꾸준히 다닌 것을 보면, 저는 사실 살기를 바랬나 봅니다. 우울로 인한 3년 휴학에, 학교를 다니면서 자살시도로 인해 퇴학당할뻔한 적도 두번이나 있음에도 저는 벌써 대학교 5년차에 들어서고 있습니다. 우울하고, 무기력하고, 죽고 싶은 것보다 더 괴로운 것은 이것들을 안고 삶을 살아내는 것이었습니다. 처음에는 저 자신을 쥐어짜며 살아'내야'됐지만 지금은 살아'가고'있습니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>우울감, 학창시절부터 잦은 범죄행동으로 인해 부모님께서 상처 받고 내가 할 수 있는게 없다라는 생각에 우울증을 앓았는데 주변의 격려와 응원으로 이겨냄 불안감 제한적 공간에 갇혀 있는 것에 불안함을 느꼈으나 꾸준한 치료로 극복함 치료와 관련된 것들을 다른 사람에게 알려주고 공유하고 싶음 등등</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>편입을 하거나, 전과를 하거나 대학 생활 중 진로에 대한 과감한 결단이 두렵다면 같이 얘기해보면 좋을 것 같습니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>관광과에 대한 진로 적성이 맞지 않아 취업 시즌이 되었을 때 개발쪽으로 해야 제가 뭐라도 하고 먹고 살 수 있다는 생각이 들었습니다. 당시에는 막상하려니까 주변에 물어볼 친구들도 없고, 혼자 헤쳐가야하는 입장에서 참 많이 막막했던 것 같아요. 국비지원 단기도 받아보고, 장기도 해보고 그리고 대학에 있는 컴공 교수님을 찾가아서 이런 저런 조언도 많이 구했습니다. 인생에 정말 중요했던 선택이었던 것 같아요. 안그래도 전공자들이나 실력이 좋은 사람들에 비해 제가 많이 뒤쳐진다고 생각했는데. 이 악물고 버텨야겠다라는 생각을 많이 했습니다. 그 와중에 시간이 아까웠던 시행착오도 있고 정말 좋은 기회였구나라는 생각이 드는 일도 있었어요. 막막한 상황에서 고민이 되신다면 조금은 더 시행착오를 줄일 수 있도록 도와드리고 싶네요.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>안녕하세요! 저는 컴퓨터 프로그램이라고는 전혀 만져보지도 않았던 바리스타입니다! 직업상 컴퓨터를 많이 다뤄보지 않아서 편집에 대한 두려움이 컸어요. 이 두려움을 깨고 첫 영상을 찍고 편집을 하는데 까지 시간이 많이 걸렸지만 전문가 급의 영상을 찍을게 아니라는 생각을 갖고 영상을 찍었습니다. 그렇게 핸드폰으로 영상을 촬영하면서 못하는 편집도 열심히 하며 영상을 올렸죠. 그랬더니 사람들이 댓글로 궁금한 메뉴들도 더 물어보고 거기에 대해서 설명해드리는 영상도 만들고 하니 재미가 붙기 시작했어요. 조금씩 영상을 만들다 보니 처음엔 제 얼굴만 봐도 어색했지만 지금은 꾸준히 기어가고 있는 초보 유튜버가 되었습니다 ㅎㅎ. 영상에 대해서 아무것도 몰랐던 저도 하고 있으니 분명 이제 시작하려는 분들도 충분히 할 수 있다고 생각해요!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>대학진학후 결혼까지 지속적인 연애를 해왔습니다. 그러다 이혼을 하고 재혼을 하면서 진짜 연애..결혼에서 무엇이 중요한가를 깨닫게 되었습니다. 그때 그랬더라면..후회되는 일도 많고 이제야 깨닫는것도 많이 있습니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>원래 디자인에 대한 동경이나 흥미는 있었습니다. 고등학교 때 부모님의 권유로 이과를 가게 되었고 그 때만 해도 저에 대한 목표나 꿈 이런 것에 대한 비중을 두고 생각한 적이 없다보니, 공대를 가게 되었습니다. 하지만 공대를 갈 때 그나마 그리는 것과 연관된 거라는 생각하는 건축학과를 진학하였습니다. 학교생활을 하니 뭔가 디자인과 큰 관련이 있는 건 아니였지만 각종 툴들을 다 익힐 수 있는 시간들이 있다보니 아무래도 디자인 영역을 시도해보는 도움을 준 것 같습니다. 본격적으로 디자인 영역을 도전할 땐 이미 창업이나 다양한 활동들로 디자인을 했던 작업들이 용기를 준 것 같습니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>내가 하고 싶은게 무엇인지 알기 위해 이것저것 경험해보고 오래도록 고민한 경험이 있습니다. 외국생활과 교환 학생 경험으로 구체화하려고 했습니다. 어학 연수를 통해 해외 취업에도 성공할 수 있게 되었습니다. 제가 가진 경험으로 학업과 관련된 고민에 도움이 되었으면 좋겠습니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>저는 집이 잘 살다 한 순간에 무너져 압류증이 붙고 고물을 주우러 다닌 경험이 있을 정도로 다양한 순간순간을 경험하였습니다. 자존감이 낮아져 #심리상담센터를 다녔던 경험도 있고 또한 내담자를 맡아 상담을 진행 하였던 경험도 있습니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>창업에 대한 도전이 두렵고, 어두운 터널을 지나고 있다고 생각이 든다면 함께 고민을 나눠봐요.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>창업을 하다보니, 직업 혹은 일에 대한 본질적인 고민을 많이 하게 되는 것 같습니다. 막연한 창업을 꿈꾸고 있다면 언제든지 말씀해주세요. 저도 그랬습니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>저는 대학을 졸업하고 아주 조그만 회사를 창업해서  제가 좋아하는 방식으로 마케팅/디자인/브랜딩 등의 일을 하며  (적어도 현재까지는) 행복한 삶을 살고 있습니다.  늘 주어진 길 보다는 제가 좋아하는 일과 그 일을 잘 하는 방법,  그리고 그 결과로 자신을 신뢰하는 과정에 대해 고민해왔고  아직도 열심히 고민 또 노력 중입니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>저는 주변사람들을 챙기고 그 후에 고맙다거나 기뻐하는걸 보는 게 너무 좋아서 사람들을 많이 챙기는 편이었습니다. 하지만 시간이 갈수록 그 행동들이 상대방에게 너무나도 당연한 일들이 되어가는 걸 보았어요. 무언가를 바라고 한 행동은 아니지만 제가 힘들 땐 저도 '이 사람도 나를 이만큼 생각해줬음 좋겠어' 라는 생각을 했습니다. 하지만 시간이 어느 정도 지나고 사회에 나와 보니 저도 다른 사람에게 그런 사람이었던 적이 있다는 걸 깨닫고 또 모든 사람들에게 100% 돌려받을 수 없다는 것 또한 느꼈습니다. 인간관계 뿐만 아니라 연애나 가족 사이에서도 만찬가지로요. 그런 경험들로 좀 더 흔들리지 않는 상태가 되었고 남아있는 사람들에게 더 잘해주려고 노력하며 살고 있습니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>짝사랑으로 잠도 설치고 혼자 심장도 터져보고, 결국 용기내서 고백도 했지만.. 이 과정에서는 타이밍이 중요하다는걸 깨달았어요..  이 깨달음을 바탕으로 잘 들어드리고 조언도 해드릴게요..</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>미팅, 소개팅, 자연스러운 만남까지 썸 관련 여러 경험들을 가지고 있어요. 어떻게 하면 썸을 탈 수 있는지부터 썸에서 연인으로 발전하기까지 제 경험을 토대로 의견을 말해드릴게요. 함께 얘기하면서 갖고 있는 연애 고민을 풀어나가봐요.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>오랜 기간 동안 짝사랑을 가슴 아프게 한 경험이 있습니다. 가슴 아픈 짝사랑 이후에 다이어트와 운동으로 자기 관리를 한 뒤 자존감이 많이 올라갔습니다. 그 과정에서 남들과의 비교는 끝이 없다는 것을 깨닫고 잘나야 한다는 생각을 버린 뒤에 저 자신을 더 사랑할 수 있게 되었습니다. 그리고 나서 좀 더 연애관계가 편해지고 쉽게 다가갈 수 있었던 것 같습니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>내향적인 성격 탓에 혼자서만 좋아하던 사람에게 좋아하는 마음을 전달하고 연애를 시작했습니다. 짝사랑하던 상대를 만나면서 좋은 추억과 기억들을 많이 쌓았습니다. 그리고 그 과정에서 이별을 겪고 마음 아파하며 스스로를 도닥였던 기억을 갖고 있습니다. 이를 바탕으로 갈피를 잡지 못하는 누군가에게 도움이 되어드리고 싶습니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>인간관계 속의 모든 입장을 경험해 본 것같아요.. 갑과 을...등등...그만큼 상담도 많이 해봤고요..</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>대인관계 이야기 듣고, 짧지만 제 인생을 바탕으로 조언해 드릴게요 :)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>좁고 깊은 인간관계 대학 생활하면서 바뀜. 인간관계에 에너지 쏟기 힘들고 스스로에 집중하고 싶음. 현재 부모, 가족, 연애, 진로 얘기 다 할 수 있는 친구 5명과 긴밀한 관계 유지중</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="13" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="13">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1766,29 +1785,30 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:AC292"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="E2:F6"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="A87" sqref="A87"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.7109375" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="97.5546875" style="25" customWidth="1"/>
-    <col min="2" max="2" width="10.6640625" style="15"/>
-    <col min="3" max="16384" width="10.6640625" style="6"/>
+    <col min="1" max="1" width="97.5703125" style="25" customWidth="1"/>
+    <col min="2" max="2" width="10.7109375" style="15"/>
+    <col min="3" max="16384" width="10.7109375" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:29" s="1" customFormat="1" ht="16">
       <c r="A1" s="11" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>313</v>
+        <v>280</v>
       </c>
       <c r="D1" s="2"/>
       <c r="E1" s="2"/>
@@ -1817,12 +1837,12 @@
       <c r="AB1" s="3"/>
       <c r="AC1" s="3"/>
     </row>
-    <row r="2" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:29" ht="16" hidden="1">
       <c r="A2" s="13" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="B2" s="14" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="C2" s="4">
         <v>2</v>
@@ -1854,12 +1874,12 @@
       <c r="AB2" s="4"/>
       <c r="AC2" s="4"/>
     </row>
-    <row r="3" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:29" ht="16" hidden="1">
       <c r="A3" s="13" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="B3" s="14" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="C3" s="4">
         <v>3</v>
@@ -1891,12 +1911,12 @@
       <c r="AB3" s="4"/>
       <c r="AC3" s="4"/>
     </row>
-    <row r="4" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:29" ht="16" hidden="1">
       <c r="A4" s="13" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="B4" s="14" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="C4" s="4">
         <v>0</v>
@@ -1928,12 +1948,12 @@
       <c r="AB4" s="4"/>
       <c r="AC4" s="4"/>
     </row>
-    <row r="5" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:29" ht="16" hidden="1">
       <c r="A5" s="13" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="B5" s="14" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="C5" s="4">
         <v>1</v>
@@ -1965,12 +1985,12 @@
       <c r="AB5" s="4"/>
       <c r="AC5" s="4"/>
     </row>
-    <row r="6" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:29" ht="16">
       <c r="A6" s="13" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="B6" s="14" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C6" s="4">
         <v>4</v>
@@ -2002,12 +2022,12 @@
       <c r="AB6" s="4"/>
       <c r="AC6" s="4"/>
     </row>
-    <row r="7" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:29" ht="16" hidden="1">
       <c r="A7" s="13" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="B7" s="14" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C7" s="4">
         <v>1</v>
@@ -2039,12 +2059,12 @@
       <c r="AB7" s="4"/>
       <c r="AC7" s="4"/>
     </row>
-    <row r="8" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:29" ht="16">
       <c r="A8" s="13" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="B8" s="14" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="C8" s="4">
         <v>4</v>
@@ -2076,12 +2096,12 @@
       <c r="AB8" s="4"/>
       <c r="AC8" s="4"/>
     </row>
-    <row r="9" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:29" ht="16" hidden="1">
       <c r="A9" s="13" t="s">
         <v>0</v>
       </c>
       <c r="B9" s="14" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="C9" s="4">
         <v>0</v>
@@ -2113,12 +2133,12 @@
       <c r="AB9" s="4"/>
       <c r="AC9" s="4"/>
     </row>
-    <row r="10" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:29" ht="16">
       <c r="A10" s="13" t="s">
         <v>1</v>
       </c>
       <c r="B10" s="14" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C10" s="4">
         <v>4</v>
@@ -2150,12 +2170,12 @@
       <c r="AB10" s="4"/>
       <c r="AC10" s="4"/>
     </row>
-    <row r="11" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:29" ht="16" hidden="1">
       <c r="A11" s="13" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="B11" s="14" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C11" s="4">
         <v>1</v>
@@ -2187,12 +2207,12 @@
       <c r="AB11" s="4"/>
       <c r="AC11" s="4"/>
     </row>
-    <row r="12" spans="1:29" ht="27" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:29" ht="32" hidden="1">
       <c r="A12" s="13" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="B12" s="14" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="C12" s="4">
         <v>1</v>
@@ -2224,12 +2244,12 @@
       <c r="AB12" s="4"/>
       <c r="AC12" s="4"/>
     </row>
-    <row r="13" spans="1:29" ht="67.5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:29" ht="80" hidden="1">
       <c r="A13" s="16" t="s">
-        <v>289</v>
+        <v>259</v>
       </c>
       <c r="B13" s="14" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="C13" s="4">
         <v>1</v>
@@ -2261,12 +2281,12 @@
       <c r="AB13" s="4"/>
       <c r="AC13" s="4"/>
     </row>
-    <row r="14" spans="1:29" ht="67.5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:29" ht="80" hidden="1">
       <c r="A14" s="16" t="s">
-        <v>288</v>
+        <v>258</v>
       </c>
       <c r="B14" s="14" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C14" s="4">
         <v>1</v>
@@ -2298,12 +2318,12 @@
       <c r="AB14" s="4"/>
       <c r="AC14" s="4"/>
     </row>
-    <row r="15" spans="1:29" ht="67.5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:29" ht="80" hidden="1">
       <c r="A15" s="16" t="s">
-        <v>290</v>
+        <v>283</v>
       </c>
       <c r="B15" s="14" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C15" s="4">
         <v>1</v>
@@ -2335,12 +2355,12 @@
       <c r="AB15" s="4"/>
       <c r="AC15" s="4"/>
     </row>
-    <row r="16" spans="1:29" ht="67.5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:29" ht="80">
       <c r="A16" s="16" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="B16" s="14" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C16" s="4">
         <v>4</v>
@@ -2372,12 +2392,12 @@
       <c r="AB16" s="4"/>
       <c r="AC16" s="4"/>
     </row>
-    <row r="17" spans="1:29" ht="54" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:29" ht="64" hidden="1">
       <c r="A17" s="13" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="B17" s="14" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="C17" s="4">
         <v>2</v>
@@ -2409,12 +2429,12 @@
       <c r="AB17" s="4"/>
       <c r="AC17" s="4"/>
     </row>
-    <row r="18" spans="1:29" ht="81" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:29" ht="96" hidden="1">
       <c r="A18" s="13" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="B18" s="14" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C18" s="4">
         <v>1</v>
@@ -2446,12 +2466,12 @@
       <c r="AB18" s="4"/>
       <c r="AC18" s="4"/>
     </row>
-    <row r="19" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:29" ht="16" hidden="1">
       <c r="A19" s="13" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="B19" s="14" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="C19" s="4">
         <v>3</v>
@@ -2483,12 +2503,12 @@
       <c r="AB19" s="4"/>
       <c r="AC19" s="4"/>
     </row>
-    <row r="20" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:29" ht="16" hidden="1">
       <c r="A20" s="13" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="B20" s="14" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="C20" s="4">
         <v>1</v>
@@ -2520,12 +2540,12 @@
       <c r="AB20" s="4"/>
       <c r="AC20" s="4"/>
     </row>
-    <row r="21" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:29" ht="16" hidden="1">
       <c r="A21" s="13" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="B21" s="14" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="C21" s="4">
         <v>1</v>
@@ -2557,12 +2577,12 @@
       <c r="AB21" s="4"/>
       <c r="AC21" s="4"/>
     </row>
-    <row r="22" spans="1:29" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:29" s="9" customFormat="1" ht="16" hidden="1">
       <c r="A22" s="17" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="B22" s="14" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="C22" s="8">
         <v>2</v>
@@ -2594,12 +2614,12 @@
       <c r="AB22" s="8"/>
       <c r="AC22" s="8"/>
     </row>
-    <row r="23" spans="1:29" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:29" s="9" customFormat="1" ht="16" hidden="1">
       <c r="A23" s="17" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="B23" s="14" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="C23" s="8">
         <v>0</v>
@@ -2631,12 +2651,12 @@
       <c r="AB23" s="8"/>
       <c r="AC23" s="8"/>
     </row>
-    <row r="24" spans="1:29" ht="40.5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:29" ht="32" hidden="1">
       <c r="A24" s="13" t="s">
         <v>2</v>
       </c>
       <c r="B24" s="14" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C24" s="4">
         <v>1</v>
@@ -2668,12 +2688,12 @@
       <c r="AB24" s="4"/>
       <c r="AC24" s="4"/>
     </row>
-    <row r="25" spans="1:29" ht="81" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:29" ht="96" hidden="1">
       <c r="A25" s="13" t="s">
-        <v>68</v>
+        <v>284</v>
       </c>
       <c r="B25" s="14" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="C25" s="4">
         <v>0</v>
@@ -2705,12 +2725,12 @@
       <c r="AB25" s="4"/>
       <c r="AC25" s="4"/>
     </row>
-    <row r="26" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:29" ht="16" hidden="1">
       <c r="A26" s="13" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="B26" s="14" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C26" s="4">
         <v>1</v>
@@ -2742,12 +2762,12 @@
       <c r="AB26" s="4"/>
       <c r="AC26" s="4"/>
     </row>
-    <row r="27" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:29" ht="16" hidden="1">
       <c r="A27" s="13" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="B27" s="14" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="C27" s="4">
         <v>0</v>
@@ -2779,12 +2799,12 @@
       <c r="AB27" s="4"/>
       <c r="AC27" s="4"/>
     </row>
-    <row r="28" spans="1:29" ht="40.5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:29" ht="48" hidden="1">
       <c r="A28" s="13" t="s">
         <v>3</v>
       </c>
       <c r="B28" s="14" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="C28" s="4">
         <v>0</v>
@@ -2816,12 +2836,12 @@
       <c r="AB28" s="4"/>
       <c r="AC28" s="4"/>
     </row>
-    <row r="29" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:29" ht="16" hidden="1">
       <c r="A29" s="13" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="B29" s="14" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="C29" s="4">
         <v>0</v>
@@ -2853,12 +2873,12 @@
       <c r="AB29" s="4"/>
       <c r="AC29" s="4"/>
     </row>
-    <row r="30" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:29" ht="16">
       <c r="A30" s="13" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="B30" s="14" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="C30" s="4">
         <v>4</v>
@@ -2890,12 +2910,12 @@
       <c r="AB30" s="4"/>
       <c r="AC30" s="4"/>
     </row>
-    <row r="31" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:29" ht="16" hidden="1">
       <c r="A31" s="13" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="B31" s="14" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="C31" s="4">
         <v>3</v>
@@ -2927,12 +2947,12 @@
       <c r="AB31" s="4"/>
       <c r="AC31" s="4"/>
     </row>
-    <row r="32" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:29" ht="16" hidden="1">
       <c r="A32" s="13" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="B32" s="14" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C32" s="4">
         <v>1</v>
@@ -2964,12 +2984,12 @@
       <c r="AB32" s="4"/>
       <c r="AC32" s="4"/>
     </row>
-    <row r="33" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:29" ht="16" hidden="1">
       <c r="A33" s="13" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="B33" s="14" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="C33" s="4">
         <v>0</v>
@@ -3001,12 +3021,12 @@
       <c r="AB33" s="4"/>
       <c r="AC33" s="4"/>
     </row>
-    <row r="34" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:29" ht="16">
       <c r="A34" s="13" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="B34" s="14" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C34" s="4">
         <v>4</v>
@@ -3038,12 +3058,12 @@
       <c r="AB34" s="4"/>
       <c r="AC34" s="4"/>
     </row>
-    <row r="35" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:29" ht="16">
       <c r="A35" s="13" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="B35" s="14" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C35" s="4">
         <v>4</v>
@@ -3075,12 +3095,12 @@
       <c r="AB35" s="4"/>
       <c r="AC35" s="4"/>
     </row>
-    <row r="36" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:29" ht="16" hidden="1">
       <c r="A36" s="13" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="B36" s="14" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="C36" s="4">
         <v>0</v>
@@ -3112,12 +3132,12 @@
       <c r="AB36" s="4"/>
       <c r="AC36" s="4"/>
     </row>
-    <row r="37" spans="1:29" ht="67.5" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:29" ht="80" hidden="1">
       <c r="A37" s="13" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="B37" s="14" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="C37" s="4">
         <v>2</v>
@@ -3149,12 +3169,12 @@
       <c r="AB37" s="4"/>
       <c r="AC37" s="4"/>
     </row>
-    <row r="38" spans="1:29" ht="54" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:29" ht="64">
       <c r="A38" s="13" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="B38" s="14" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C38" s="4">
         <v>4</v>
@@ -3186,12 +3206,12 @@
       <c r="AB38" s="4"/>
       <c r="AC38" s="4"/>
     </row>
-    <row r="39" spans="1:29" ht="67.5" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:29" ht="80" hidden="1">
       <c r="A39" s="13" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="B39" s="14" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="C39" s="4">
         <v>0</v>
@@ -3223,12 +3243,12 @@
       <c r="AB39" s="4"/>
       <c r="AC39" s="4"/>
     </row>
-    <row r="40" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:29" ht="16" hidden="1">
       <c r="A40" s="13" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="B40" s="14" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C40" s="4">
         <v>1</v>
@@ -3260,12 +3280,12 @@
       <c r="AB40" s="4"/>
       <c r="AC40" s="4"/>
     </row>
-    <row r="41" spans="1:29" ht="27" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:29" ht="32" hidden="1">
       <c r="A41" s="13" t="s">
-        <v>73</v>
+        <v>307</v>
       </c>
       <c r="B41" s="14" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="C41" s="4">
         <v>2</v>
@@ -3297,12 +3317,12 @@
       <c r="AB41" s="4"/>
       <c r="AC41" s="4"/>
     </row>
-    <row r="42" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:29" ht="16" hidden="1">
       <c r="A42" s="13" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="B42" s="14" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C42" s="4">
         <v>1</v>
@@ -3334,12 +3354,12 @@
       <c r="AB42" s="4"/>
       <c r="AC42" s="4"/>
     </row>
-    <row r="43" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:29" ht="16">
       <c r="A43" s="13" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="B43" s="14" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C43" s="4">
         <v>4</v>
@@ -3371,12 +3391,12 @@
       <c r="AB43" s="4"/>
       <c r="AC43" s="4"/>
     </row>
-    <row r="44" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:29" ht="16" hidden="1">
       <c r="A44" s="13" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="B44" s="14" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="C44" s="4">
         <v>2</v>
@@ -3408,12 +3428,12 @@
       <c r="AB44" s="4"/>
       <c r="AC44" s="4"/>
     </row>
-    <row r="45" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:29" ht="16" hidden="1">
       <c r="A45" s="13" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="B45" s="14" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="C45" s="4">
         <v>1</v>
@@ -3445,12 +3465,12 @@
       <c r="AB45" s="4"/>
       <c r="AC45" s="4"/>
     </row>
-    <row r="46" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:29" ht="16" hidden="1">
       <c r="A46" s="13" t="s">
         <v>4</v>
       </c>
       <c r="B46" s="14" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C46" s="4">
         <v>1</v>
@@ -3482,12 +3502,12 @@
       <c r="AB46" s="4"/>
       <c r="AC46" s="4"/>
     </row>
-    <row r="47" spans="1:29" ht="27" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:29" ht="32" hidden="1">
       <c r="A47" s="13" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="B47" s="14" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="C47" s="4">
         <v>2</v>
@@ -3519,12 +3539,12 @@
       <c r="AB47" s="4"/>
       <c r="AC47" s="4"/>
     </row>
-    <row r="48" spans="1:29" ht="27" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:29" ht="32">
       <c r="A48" s="13" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="B48" s="14" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="C48" s="4">
         <v>4</v>
@@ -3556,12 +3576,12 @@
       <c r="AB48" s="4"/>
       <c r="AC48" s="4"/>
     </row>
-    <row r="49" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:29" ht="16">
       <c r="A49" s="13" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="B49" s="14" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="C49" s="4">
         <v>4</v>
@@ -3593,12 +3613,12 @@
       <c r="AB49" s="4"/>
       <c r="AC49" s="4"/>
     </row>
-    <row r="50" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:29" ht="16" hidden="1">
       <c r="A50" s="13" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="B50" s="14" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="C50" s="4">
         <v>1</v>
@@ -3630,9 +3650,9 @@
       <c r="AB50" s="4"/>
       <c r="AC50" s="4"/>
     </row>
-    <row r="51" spans="1:29" ht="81" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:29" ht="96" hidden="1">
       <c r="A51" s="18" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="B51" s="19" t="s">
         <v>5</v>
@@ -3667,7 +3687,7 @@
       <c r="AB51" s="4"/>
       <c r="AC51" s="4"/>
     </row>
-    <row r="52" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:29" ht="16" hidden="1">
       <c r="A52" s="18" t="s">
         <v>7</v>
       </c>
@@ -3704,12 +3724,12 @@
       <c r="AB52" s="4"/>
       <c r="AC52" s="4"/>
     </row>
-    <row r="53" spans="1:29" ht="27" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:29" ht="32" hidden="1">
       <c r="A53" s="18" t="s">
         <v>8</v>
       </c>
       <c r="B53" s="19" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="C53" s="10">
         <v>0</v>
@@ -3726,7 +3746,7 @@
       <c r="AA53" s="10"/>
       <c r="AB53" s="10"/>
     </row>
-    <row r="54" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:29" ht="16" hidden="1">
       <c r="A54" s="18" t="s">
         <v>9</v>
       </c>
@@ -3748,9 +3768,9 @@
       <c r="AA54" s="10"/>
       <c r="AB54" s="10"/>
     </row>
-    <row r="55" spans="1:29" ht="67.5" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:29" ht="64" hidden="1">
       <c r="A55" s="18" t="s">
-        <v>291</v>
+        <v>299</v>
       </c>
       <c r="B55" s="19" t="s">
         <v>10</v>
@@ -3770,12 +3790,12 @@
       <c r="AA55" s="10"/>
       <c r="AB55" s="10"/>
     </row>
-    <row r="56" spans="1:29" ht="40.5" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:29" ht="48" hidden="1">
       <c r="A56" s="18" t="s">
-        <v>292</v>
+        <v>260</v>
       </c>
       <c r="B56" s="19" t="s">
-        <v>314</v>
+        <v>281</v>
       </c>
       <c r="C56" s="10">
         <v>2</v>
@@ -3792,9 +3812,9 @@
       <c r="AA56" s="10"/>
       <c r="AB56" s="10"/>
     </row>
-    <row r="57" spans="1:29" ht="40.5" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:29" ht="48" hidden="1">
       <c r="A57" s="18" t="s">
-        <v>11</v>
+        <v>296</v>
       </c>
       <c r="B57" s="19" t="s">
         <v>6</v>
@@ -3814,9 +3834,9 @@
       <c r="AA57" s="10"/>
       <c r="AB57" s="10"/>
     </row>
-    <row r="58" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:29" ht="16" hidden="1">
       <c r="A58" s="18" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B58" s="19" t="s">
         <v>6</v>
@@ -3836,12 +3856,12 @@
       <c r="AA58" s="10"/>
       <c r="AB58" s="10"/>
     </row>
-    <row r="59" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:29" ht="16" hidden="1">
       <c r="A59" s="18" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="B59" s="19" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="C59" s="10">
         <v>2</v>
@@ -3858,12 +3878,12 @@
       <c r="AA59" s="10"/>
       <c r="AB59" s="10"/>
     </row>
-    <row r="60" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:29" ht="16" hidden="1">
       <c r="A60" s="18" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="B60" s="19" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C60" s="10">
         <v>1</v>
@@ -3880,9 +3900,9 @@
       <c r="AA60" s="10"/>
       <c r="AB60" s="10"/>
     </row>
-    <row r="61" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:29" ht="16" hidden="1">
       <c r="A61" s="18" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="B61" s="19" t="s">
         <v>5</v>
@@ -3902,9 +3922,9 @@
       <c r="AA61" s="10"/>
       <c r="AB61" s="10"/>
     </row>
-    <row r="62" spans="1:29" ht="54" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:29" ht="64" hidden="1">
       <c r="A62" s="18" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="B62" s="19" t="s">
         <v>6</v>
@@ -3924,9 +3944,9 @@
       <c r="AA62" s="10"/>
       <c r="AB62" s="10"/>
     </row>
-    <row r="63" spans="1:29" ht="67.5" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:29" ht="80" hidden="1">
       <c r="A63" s="18" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="B63" s="19" t="s">
         <v>5</v>
@@ -3946,9 +3966,9 @@
       <c r="AA63" s="10"/>
       <c r="AB63" s="10"/>
     </row>
-    <row r="64" spans="1:29" ht="54" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:29" ht="64" hidden="1">
       <c r="A64" s="18" t="s">
-        <v>13</v>
+        <v>286</v>
       </c>
       <c r="B64" s="19" t="s">
         <v>6</v>
@@ -3968,9 +3988,9 @@
       <c r="AA64" s="10"/>
       <c r="AB64" s="10"/>
     </row>
-    <row r="65" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:28" ht="16" hidden="1">
       <c r="A65" s="18" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B65" s="19" t="s">
         <v>5</v>
@@ -3990,9 +4010,9 @@
       <c r="AA65" s="10"/>
       <c r="AB65" s="10"/>
     </row>
-    <row r="66" spans="1:28" ht="27" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:28" ht="32" hidden="1">
       <c r="A66" s="18" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B66" s="19" t="s">
         <v>5</v>
@@ -4012,9 +4032,9 @@
       <c r="AA66" s="10"/>
       <c r="AB66" s="10"/>
     </row>
-    <row r="67" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:28" ht="16" hidden="1">
       <c r="A67" s="18" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="B67" s="19" t="s">
         <v>5</v>
@@ -4034,9 +4054,9 @@
       <c r="AA67" s="10"/>
       <c r="AB67" s="10"/>
     </row>
-    <row r="68" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:28" ht="16" hidden="1">
       <c r="A68" s="18" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="B68" s="19" t="s">
         <v>5</v>
@@ -4056,12 +4076,12 @@
       <c r="AA68" s="10"/>
       <c r="AB68" s="10"/>
     </row>
-    <row r="69" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:28" ht="16" hidden="1">
       <c r="A69" s="18" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="B69" s="19" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="C69" s="10">
         <v>2</v>
@@ -4078,9 +4098,9 @@
       <c r="AA69" s="10"/>
       <c r="AB69" s="10"/>
     </row>
-    <row r="70" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:28" ht="16" hidden="1">
       <c r="A70" s="18" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="B70" s="19" t="s">
         <v>5</v>
@@ -4100,9 +4120,9 @@
       <c r="AA70" s="10"/>
       <c r="AB70" s="10"/>
     </row>
-    <row r="71" spans="1:28" ht="67.5" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:28" ht="64" hidden="1">
       <c r="A71" s="18" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="B71" s="19" t="s">
         <v>10</v>
@@ -4122,9 +4142,9 @@
       <c r="AA71" s="10"/>
       <c r="AB71" s="10"/>
     </row>
-    <row r="72" spans="1:28" ht="54" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:28" ht="64" hidden="1">
       <c r="A72" s="18" t="s">
-        <v>294</v>
+        <v>261</v>
       </c>
       <c r="B72" s="19" t="s">
         <v>10</v>
@@ -4144,9 +4164,9 @@
       <c r="AA72" s="10"/>
       <c r="AB72" s="10"/>
     </row>
-    <row r="73" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:28" ht="16" hidden="1">
       <c r="A73" s="18" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="B73" s="19" t="s">
         <v>5</v>
@@ -4166,9 +4186,9 @@
       <c r="AA73" s="10"/>
       <c r="AB73" s="10"/>
     </row>
-    <row r="74" spans="1:28" ht="54" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:28" ht="64" hidden="1">
       <c r="A74" s="18" t="s">
-        <v>16</v>
+        <v>291</v>
       </c>
       <c r="B74" s="19" t="s">
         <v>6</v>
@@ -4188,9 +4208,9 @@
       <c r="AA74" s="10"/>
       <c r="AB74" s="10"/>
     </row>
-    <row r="75" spans="1:28" ht="67.5" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:28" ht="80" hidden="1">
       <c r="A75" s="18" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="B75" s="19" t="s">
         <v>6</v>
@@ -4210,9 +4230,9 @@
       <c r="AA75" s="10"/>
       <c r="AB75" s="10"/>
     </row>
-    <row r="76" spans="1:28" ht="67.5" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:28" ht="80" hidden="1">
       <c r="A76" s="18" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="B76" s="19" t="s">
         <v>6</v>
@@ -4232,9 +4252,9 @@
       <c r="AA76" s="10"/>
       <c r="AB76" s="10"/>
     </row>
-    <row r="77" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:28" ht="16" hidden="1">
       <c r="A77" s="18" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B77" s="19" t="s">
         <v>5</v>
@@ -4254,9 +4274,9 @@
       <c r="AA77" s="10"/>
       <c r="AB77" s="10"/>
     </row>
-    <row r="78" spans="1:28" ht="54" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:28" ht="64" hidden="1">
       <c r="A78" s="18" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="B78" s="19" t="s">
         <v>5</v>
@@ -4276,12 +4296,12 @@
       <c r="AA78" s="10"/>
       <c r="AB78" s="10"/>
     </row>
-    <row r="79" spans="1:28" ht="54" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:28" ht="64">
       <c r="A79" s="18" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B79" s="19" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C79" s="10">
         <v>4</v>
@@ -4298,9 +4318,9 @@
       <c r="AA79" s="10"/>
       <c r="AB79" s="10"/>
     </row>
-    <row r="80" spans="1:28" ht="40.5" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:28" ht="32" hidden="1">
       <c r="A80" s="18" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="B80" s="19" t="s">
         <v>5</v>
@@ -4320,9 +4340,9 @@
       <c r="AA80" s="10"/>
       <c r="AB80" s="10"/>
     </row>
-    <row r="81" spans="1:28" ht="40.5" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:28" ht="48" hidden="1">
       <c r="A81" s="18" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="B81" s="19" t="s">
         <v>5</v>
@@ -4342,9 +4362,9 @@
       <c r="AA81" s="10"/>
       <c r="AB81" s="10"/>
     </row>
-    <row r="82" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:28" ht="16" hidden="1">
       <c r="A82" s="18" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B82" s="19" t="s">
         <v>6</v>
@@ -4364,9 +4384,9 @@
       <c r="AA82" s="10"/>
       <c r="AB82" s="10"/>
     </row>
-    <row r="83" spans="1:28" ht="27" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:28" ht="32" hidden="1">
       <c r="A83" s="18" t="s">
-        <v>21</v>
+        <v>304</v>
       </c>
       <c r="B83" s="19" t="s">
         <v>5</v>
@@ -4386,9 +4406,9 @@
       <c r="AA83" s="10"/>
       <c r="AB83" s="10"/>
     </row>
-    <row r="84" spans="1:28" ht="54" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:28" ht="64" hidden="1">
       <c r="A84" s="18" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="B84" s="19" t="s">
         <v>6</v>
@@ -4408,9 +4428,9 @@
       <c r="AA84" s="10"/>
       <c r="AB84" s="10"/>
     </row>
-    <row r="85" spans="1:28" ht="54" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:28" ht="64" hidden="1">
       <c r="A85" s="18" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="B85" s="19" t="s">
         <v>6</v>
@@ -4430,12 +4450,12 @@
       <c r="AA85" s="10"/>
       <c r="AB85" s="10"/>
     </row>
-    <row r="86" spans="1:28" ht="27" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:28" ht="32">
       <c r="A86" s="18" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="B86" s="19" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="C86" s="10">
         <v>4</v>
@@ -4452,12 +4472,12 @@
       <c r="AA86" s="10"/>
       <c r="AB86" s="10"/>
     </row>
-    <row r="87" spans="1:28" ht="40.5" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:28" ht="32">
       <c r="A87" s="18" t="s">
-        <v>100</v>
+        <v>318</v>
       </c>
       <c r="B87" s="19" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="C87" s="10">
         <v>4</v>
@@ -4474,12 +4494,12 @@
       <c r="AA87" s="10"/>
       <c r="AB87" s="10"/>
     </row>
-    <row r="88" spans="1:28" ht="54" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:28" ht="64">
       <c r="A88" s="18" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="B88" s="19" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="C88" s="10">
         <v>4</v>
@@ -4496,12 +4516,12 @@
       <c r="AA88" s="10"/>
       <c r="AB88" s="10"/>
     </row>
-    <row r="89" spans="1:28" ht="54" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:28" ht="64" hidden="1">
       <c r="A89" s="18" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="B89" s="19" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="C89" s="10">
         <v>2</v>
@@ -4518,12 +4538,12 @@
       <c r="AA89" s="10"/>
       <c r="AB89" s="10"/>
     </row>
-    <row r="90" spans="1:28" ht="54" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:28" ht="64" hidden="1">
       <c r="A90" s="18" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="B90" s="19" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="C90" s="10">
         <v>1</v>
@@ -4540,12 +4560,12 @@
       <c r="AA90" s="10"/>
       <c r="AB90" s="10"/>
     </row>
-    <row r="91" spans="1:28" ht="40.5" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:28" ht="48" hidden="1">
       <c r="A91" s="18" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="B91" s="19" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="C91" s="10">
         <v>0</v>
@@ -4562,9 +4582,9 @@
       <c r="AA91" s="10"/>
       <c r="AB91" s="10"/>
     </row>
-    <row r="92" spans="1:28" ht="94.5" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:28" ht="112" hidden="1">
       <c r="A92" s="18" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="B92" s="19" t="s">
         <v>5</v>
@@ -4584,9 +4604,9 @@
       <c r="AA92" s="10"/>
       <c r="AB92" s="10"/>
     </row>
-    <row r="93" spans="1:28" ht="40.5" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:28" ht="48" hidden="1">
       <c r="A93" s="18" t="s">
-        <v>109</v>
+        <v>300</v>
       </c>
       <c r="B93" s="19" t="s">
         <v>10</v>
@@ -4606,9 +4626,9 @@
       <c r="AA93" s="10"/>
       <c r="AB93" s="10"/>
     </row>
-    <row r="94" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:28" ht="16" hidden="1">
       <c r="A94" s="18" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="B94" s="19" t="s">
         <v>6</v>
@@ -4628,9 +4648,9 @@
       <c r="AA94" s="10"/>
       <c r="AB94" s="10"/>
     </row>
-    <row r="95" spans="1:28" ht="40.5" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:28" ht="48" hidden="1">
       <c r="A95" s="18" t="s">
-        <v>295</v>
+        <v>262</v>
       </c>
       <c r="B95" s="19" t="s">
         <v>6</v>
@@ -4650,12 +4670,12 @@
       <c r="AA95" s="10"/>
       <c r="AB95" s="10"/>
     </row>
-    <row r="96" spans="1:28" ht="40.5" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:28" ht="48" hidden="1">
       <c r="A96" s="18" t="s">
-        <v>296</v>
+        <v>263</v>
       </c>
       <c r="B96" s="19" t="s">
-        <v>315</v>
+        <v>282</v>
       </c>
       <c r="C96" s="10">
         <v>1</v>
@@ -4672,12 +4692,12 @@
       <c r="AA96" s="10"/>
       <c r="AB96" s="10"/>
     </row>
-    <row r="97" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:28" ht="16" hidden="1">
       <c r="A97" s="18" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="B97" s="19" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="C97" s="10">
         <v>1</v>
@@ -4694,9 +4714,9 @@
       <c r="AA97" s="10"/>
       <c r="AB97" s="10"/>
     </row>
-    <row r="98" spans="1:28" ht="40.5" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:28" ht="48" hidden="1">
       <c r="A98" s="18" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
       <c r="B98" s="19" t="s">
         <v>6</v>
@@ -4716,9 +4736,9 @@
       <c r="AA98" s="10"/>
       <c r="AB98" s="10"/>
     </row>
-    <row r="99" spans="1:28" ht="40.5" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:28" ht="48" hidden="1">
       <c r="A99" s="18" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B99" s="19" t="s">
         <v>10</v>
@@ -4738,9 +4758,9 @@
       <c r="AA99" s="10"/>
       <c r="AB99" s="10"/>
     </row>
-    <row r="100" spans="1:28" ht="67.5" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:28" ht="96" hidden="1">
       <c r="A100" s="18" t="s">
-        <v>297</v>
+        <v>264</v>
       </c>
       <c r="B100" s="19" t="s">
         <v>10</v>
@@ -4760,9 +4780,9 @@
       <c r="AA100" s="10"/>
       <c r="AB100" s="10"/>
     </row>
-    <row r="101" spans="1:28" ht="67.5" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:28" ht="80" hidden="1">
       <c r="A101" s="18" t="s">
-        <v>298</v>
+        <v>265</v>
       </c>
       <c r="B101" s="19" t="s">
         <v>10</v>
@@ -4782,12 +4802,12 @@
       <c r="AA101" s="10"/>
       <c r="AB101" s="10"/>
     </row>
-    <row r="102" spans="1:28" ht="27" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:28" ht="32" hidden="1">
       <c r="A102" s="18" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="B102" s="19" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="C102" s="10">
         <v>1</v>
@@ -4804,12 +4824,12 @@
       <c r="AA102" s="10"/>
       <c r="AB102" s="10"/>
     </row>
-    <row r="103" spans="1:28" ht="27" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:28" ht="32">
       <c r="A103" s="18" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
       <c r="B103" s="19" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C103" s="10">
         <v>4</v>
@@ -4826,9 +4846,9 @@
       <c r="AA103" s="10"/>
       <c r="AB103" s="10"/>
     </row>
-    <row r="104" spans="1:28" ht="283.5" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:28" ht="335" hidden="1">
       <c r="A104" s="18" t="s">
-        <v>299</v>
+        <v>266</v>
       </c>
       <c r="B104" s="19" t="s">
         <v>6</v>
@@ -4848,12 +4868,12 @@
       <c r="AA104" s="10"/>
       <c r="AB104" s="10"/>
     </row>
-    <row r="105" spans="1:28" ht="54" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:28" ht="64">
       <c r="A105" s="18" t="s">
-        <v>300</v>
+        <v>267</v>
       </c>
       <c r="B105" s="19" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C105" s="10">
         <v>4</v>
@@ -4870,12 +4890,12 @@
       <c r="AA105" s="10"/>
       <c r="AB105" s="10"/>
     </row>
-    <row r="106" spans="1:28" ht="67.5" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:28" ht="80">
       <c r="A106" s="18" t="s">
-        <v>301</v>
+        <v>268</v>
       </c>
       <c r="B106" s="19" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C106" s="10">
         <v>4</v>
@@ -4892,12 +4912,12 @@
       <c r="AA106" s="10"/>
       <c r="AB106" s="10"/>
     </row>
-    <row r="107" spans="1:28" ht="27" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:28" ht="32">
       <c r="A107" s="18" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
       <c r="B107" s="19" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C107" s="10">
         <v>4</v>
@@ -4914,12 +4934,12 @@
       <c r="AA107" s="10"/>
       <c r="AB107" s="10"/>
     </row>
-    <row r="108" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:28" ht="16" hidden="1">
       <c r="A108" s="18" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
       <c r="B108" s="19" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="C108" s="10">
         <v>0</v>
@@ -4936,9 +4956,9 @@
       <c r="AA108" s="10"/>
       <c r="AB108" s="10"/>
     </row>
-    <row r="109" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:28" ht="16" hidden="1">
       <c r="A109" s="18" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
       <c r="B109" s="19" t="s">
         <v>10</v>
@@ -4958,12 +4978,12 @@
       <c r="AA109" s="10"/>
       <c r="AB109" s="10"/>
     </row>
-    <row r="110" spans="1:28" ht="27" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:28" ht="32" hidden="1">
       <c r="A110" s="18" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
       <c r="B110" s="19" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="C110" s="10">
         <v>0</v>
@@ -4980,12 +5000,12 @@
       <c r="AA110" s="10"/>
       <c r="AB110" s="10"/>
     </row>
-    <row r="111" spans="1:28" ht="27" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:28" ht="32" hidden="1">
       <c r="A111" s="18" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="B111" s="19" t="s">
-        <v>118</v>
+        <v>110</v>
       </c>
       <c r="C111" s="10">
         <v>2</v>
@@ -5002,12 +5022,12 @@
       <c r="AA111" s="10"/>
       <c r="AB111" s="10"/>
     </row>
-    <row r="112" spans="1:28" ht="94.5" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:28" ht="112" hidden="1">
       <c r="A112" s="18" t="s">
-        <v>119</v>
+        <v>111</v>
       </c>
       <c r="B112" s="19" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="C112" s="10">
         <v>1</v>
@@ -5024,12 +5044,12 @@
       <c r="AA112" s="10"/>
       <c r="AB112" s="10"/>
     </row>
-    <row r="113" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:28" hidden="1">
       <c r="A113" s="21" t="s">
-        <v>120</v>
+        <v>112</v>
       </c>
       <c r="B113" s="19" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="C113" s="10">
         <v>0</v>
@@ -5045,12 +5065,12 @@
       <c r="AA113" s="10"/>
       <c r="AB113" s="10"/>
     </row>
-    <row r="114" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:28" ht="16" hidden="1">
       <c r="A114" s="22" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="B114" s="19" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="C114" s="10">
         <v>1</v>
@@ -5066,12 +5086,12 @@
       <c r="AA114" s="10"/>
       <c r="AB114" s="10"/>
     </row>
-    <row r="115" spans="1:28" ht="54" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:28" ht="64" hidden="1">
       <c r="A115" s="23" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="B115" s="19" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="C115" s="10">
         <v>1</v>
@@ -5079,12 +5099,12 @@
       <c r="D115" s="10"/>
       <c r="O115" s="10"/>
     </row>
-    <row r="116" spans="1:28" ht="27" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:28" ht="32">
       <c r="A116" s="23" t="s">
-        <v>123</v>
+        <v>115</v>
       </c>
       <c r="B116" s="20" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="C116" s="10">
         <v>4</v>
@@ -5092,12 +5112,12 @@
       <c r="D116" s="10"/>
       <c r="O116" s="10"/>
     </row>
-    <row r="117" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:28" ht="16">
       <c r="A117" s="23" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="B117" s="20" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="C117" s="10">
         <v>4</v>
@@ -5105,12 +5125,12 @@
       <c r="D117" s="10"/>
       <c r="O117" s="10"/>
     </row>
-    <row r="118" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:28" ht="16" hidden="1">
       <c r="A118" s="24" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="B118" s="20" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="C118" s="10">
         <v>0</v>
@@ -5118,12 +5138,12 @@
       <c r="D118" s="10"/>
       <c r="O118" s="10"/>
     </row>
-    <row r="119" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:28" ht="16" hidden="1">
       <c r="A119" s="23" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="B119" s="20" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="C119" s="10">
         <v>0</v>
@@ -5131,12 +5151,12 @@
       <c r="D119" s="10"/>
       <c r="O119" s="10"/>
     </row>
-    <row r="120" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:28" ht="16">
       <c r="A120" s="23" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="B120" s="20" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="C120" s="10">
         <v>4</v>
@@ -5144,12 +5164,12 @@
       <c r="D120" s="10"/>
       <c r="O120" s="10"/>
     </row>
-    <row r="121" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:28" ht="16">
       <c r="A121" s="23" t="s">
-        <v>128</v>
+        <v>317</v>
       </c>
       <c r="B121" s="20" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="C121" s="10">
         <v>4</v>
@@ -5157,12 +5177,12 @@
       <c r="D121" s="10"/>
       <c r="O121" s="10"/>
     </row>
-    <row r="122" spans="1:28" ht="27" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:28" ht="32" hidden="1">
       <c r="A122" s="23" t="s">
-        <v>129</v>
+        <v>120</v>
       </c>
       <c r="B122" s="20" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="C122" s="10">
         <v>0</v>
@@ -5170,12 +5190,12 @@
       <c r="D122" s="10"/>
       <c r="O122" s="10"/>
     </row>
-    <row r="123" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:28" ht="16" hidden="1">
       <c r="A123" s="23" t="s">
-        <v>130</v>
+        <v>121</v>
       </c>
       <c r="B123" s="20" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="C123" s="10">
         <v>0</v>
@@ -5183,12 +5203,12 @@
       <c r="D123" s="10"/>
       <c r="O123" s="10"/>
     </row>
-    <row r="124" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:28" ht="16" hidden="1">
       <c r="A124" s="23" t="s">
-        <v>131</v>
+        <v>122</v>
       </c>
       <c r="B124" s="20" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="C124" s="10">
         <v>2</v>
@@ -5196,12 +5216,12 @@
       <c r="D124" s="10"/>
       <c r="O124" s="10"/>
     </row>
-    <row r="125" spans="1:28" ht="27" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:28" ht="32" hidden="1">
       <c r="A125" s="23" t="s">
-        <v>132</v>
+        <v>312</v>
       </c>
       <c r="B125" s="20" t="s">
-        <v>133</v>
+        <v>123</v>
       </c>
       <c r="C125" s="10">
         <v>0</v>
@@ -5209,12 +5229,12 @@
       <c r="D125" s="10"/>
       <c r="O125" s="10"/>
     </row>
-    <row r="126" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:28" ht="16" hidden="1">
       <c r="A126" s="24" t="s">
-        <v>134</v>
+        <v>124</v>
       </c>
       <c r="B126" s="20" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="C126" s="10">
         <v>0</v>
@@ -5222,12 +5242,12 @@
       <c r="D126" s="10"/>
       <c r="O126" s="10"/>
     </row>
-    <row r="127" spans="1:28" ht="27" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:28" ht="32">
       <c r="A127" s="23" t="s">
-        <v>135</v>
+        <v>125</v>
       </c>
       <c r="B127" s="20" t="s">
-        <v>136</v>
+        <v>126</v>
       </c>
       <c r="C127" s="10">
         <v>4</v>
@@ -5235,12 +5255,12 @@
       <c r="D127" s="10"/>
       <c r="O127" s="10"/>
     </row>
-    <row r="128" spans="1:28" ht="54" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:28" ht="64" hidden="1">
       <c r="A128" s="23" t="s">
-        <v>137</v>
+        <v>127</v>
       </c>
       <c r="B128" s="20" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="C128" s="10">
         <v>0</v>
@@ -5248,12 +5268,12 @@
       <c r="D128" s="10"/>
       <c r="O128" s="10"/>
     </row>
-    <row r="129" spans="1:15" ht="27" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:15" ht="32" hidden="1">
       <c r="A129" s="23" t="s">
-        <v>138</v>
+        <v>128</v>
       </c>
       <c r="B129" s="20" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="C129" s="10">
         <v>0</v>
@@ -5261,12 +5281,12 @@
       <c r="D129" s="10"/>
       <c r="O129" s="10"/>
     </row>
-    <row r="130" spans="1:15" ht="40.5" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:15" ht="48" hidden="1">
       <c r="A130" s="23" t="s">
-        <v>139</v>
+        <v>129</v>
       </c>
       <c r="B130" s="20" t="s">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="C130" s="10">
         <v>0</v>
@@ -5274,12 +5294,12 @@
       <c r="D130" s="10"/>
       <c r="O130" s="10"/>
     </row>
-    <row r="131" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:15" ht="16" hidden="1">
       <c r="A131" s="23" t="s">
-        <v>141</v>
+        <v>131</v>
       </c>
       <c r="B131" s="20" t="s">
-        <v>142</v>
+        <v>132</v>
       </c>
       <c r="C131" s="10">
         <v>2</v>
@@ -5287,12 +5307,12 @@
       <c r="D131" s="10"/>
       <c r="O131" s="10"/>
     </row>
-    <row r="132" spans="1:15" ht="27" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:15" ht="32" hidden="1">
       <c r="A132" s="23" t="s">
-        <v>143</v>
+        <v>133</v>
       </c>
       <c r="B132" s="20" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="C132" s="10">
         <v>2</v>
@@ -5300,12 +5320,12 @@
       <c r="D132" s="10"/>
       <c r="O132" s="10"/>
     </row>
-    <row r="133" spans="1:15" ht="54" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:15" ht="64" hidden="1">
       <c r="A133" s="23" t="s">
-        <v>144</v>
+        <v>293</v>
       </c>
       <c r="B133" s="20" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="C133" s="10">
         <v>0</v>
@@ -5313,12 +5333,12 @@
       <c r="D133" s="10"/>
       <c r="O133" s="10"/>
     </row>
-    <row r="134" spans="1:15" ht="54" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:15" ht="64" hidden="1">
       <c r="A134" s="23" t="s">
-        <v>145</v>
+        <v>134</v>
       </c>
       <c r="B134" s="20" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="C134" s="10">
         <v>2</v>
@@ -5326,12 +5346,12 @@
       <c r="D134" s="10"/>
       <c r="O134" s="10"/>
     </row>
-    <row r="135" spans="1:15" ht="40.5" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:15" ht="48" hidden="1">
       <c r="A135" s="23" t="s">
-        <v>146</v>
+        <v>297</v>
       </c>
       <c r="B135" s="20" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="C135" s="10">
         <v>1</v>
@@ -5339,12 +5359,12 @@
       <c r="D135" s="10"/>
       <c r="O135" s="10"/>
     </row>
-    <row r="136" spans="1:15" ht="27" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:15" ht="32" hidden="1">
       <c r="A136" s="23" t="s">
-        <v>148</v>
+        <v>136</v>
       </c>
       <c r="B136" s="20" t="s">
-        <v>147</v>
+        <v>135</v>
       </c>
       <c r="C136" s="10">
         <v>1</v>
@@ -5352,12 +5372,12 @@
       <c r="D136" s="10"/>
       <c r="O136" s="10"/>
     </row>
-    <row r="137" spans="1:15" ht="40.5" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:15" ht="48">
       <c r="A137" s="23" t="s">
-        <v>149</v>
+        <v>137</v>
       </c>
       <c r="B137" s="20" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="C137" s="10">
         <v>4</v>
@@ -5365,12 +5385,12 @@
       <c r="D137" s="10"/>
       <c r="O137" s="10"/>
     </row>
-    <row r="138" spans="1:15" ht="27" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:15" ht="32">
       <c r="A138" s="23" t="s">
-        <v>150</v>
+        <v>138</v>
       </c>
       <c r="B138" s="20" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="C138" s="10">
         <v>4</v>
@@ -5378,12 +5398,12 @@
       <c r="D138" s="10"/>
       <c r="O138" s="10"/>
     </row>
-    <row r="139" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:15" ht="16">
       <c r="A139" s="23" t="s">
-        <v>151</v>
+        <v>139</v>
       </c>
       <c r="B139" s="20" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="C139" s="10">
         <v>4</v>
@@ -5391,12 +5411,12 @@
       <c r="D139" s="10"/>
       <c r="O139" s="10"/>
     </row>
-    <row r="140" spans="1:15" ht="27" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:15" ht="32" hidden="1">
       <c r="A140" s="23" t="s">
-        <v>152</v>
+        <v>140</v>
       </c>
       <c r="B140" s="20" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="C140" s="10">
         <v>0</v>
@@ -5404,12 +5424,12 @@
       <c r="D140" s="10"/>
       <c r="O140" s="10"/>
     </row>
-    <row r="141" spans="1:15" ht="27" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:15" ht="32" hidden="1">
       <c r="A141" s="23" t="s">
-        <v>153</v>
+        <v>141</v>
       </c>
       <c r="B141" s="20" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="C141" s="10">
         <v>0</v>
@@ -5417,12 +5437,12 @@
       <c r="D141" s="10"/>
       <c r="O141" s="10"/>
     </row>
-    <row r="142" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:15" ht="16" hidden="1">
       <c r="A142" s="23" t="s">
-        <v>154</v>
+        <v>142</v>
       </c>
       <c r="B142" s="20" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="C142" s="10">
         <v>0</v>
@@ -5430,12 +5450,12 @@
       <c r="D142" s="10"/>
       <c r="O142" s="10"/>
     </row>
-    <row r="143" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:15" ht="16" hidden="1">
       <c r="A143" s="23" t="s">
-        <v>155</v>
+        <v>143</v>
       </c>
       <c r="B143" s="20" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="C143" s="10">
         <v>0</v>
@@ -5443,12 +5463,12 @@
       <c r="D143" s="10"/>
       <c r="O143" s="10"/>
     </row>
-    <row r="144" spans="1:15" ht="27" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:15" ht="32" hidden="1">
       <c r="A144" s="23" t="s">
-        <v>156</v>
+        <v>144</v>
       </c>
       <c r="B144" s="20" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="C144" s="10">
         <v>0</v>
@@ -5456,12 +5476,12 @@
       <c r="D144" s="10"/>
       <c r="O144" s="10"/>
     </row>
-    <row r="145" spans="1:15" ht="27" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:15" ht="32" hidden="1">
       <c r="A145" s="23" t="s">
-        <v>157</v>
+        <v>145</v>
       </c>
       <c r="B145" s="20" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="C145" s="10">
         <v>0</v>
@@ -5469,12 +5489,12 @@
       <c r="D145" s="10"/>
       <c r="O145" s="10"/>
     </row>
-    <row r="146" spans="1:15" ht="27" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:15" ht="32" hidden="1">
       <c r="A146" s="23" t="s">
-        <v>158</v>
+        <v>146</v>
       </c>
       <c r="B146" s="20" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="C146" s="10">
         <v>0</v>
@@ -5482,12 +5502,12 @@
       <c r="D146" s="10"/>
       <c r="O146" s="10"/>
     </row>
-    <row r="147" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:15" ht="16" hidden="1">
       <c r="A147" s="23" t="s">
-        <v>159</v>
+        <v>147</v>
       </c>
       <c r="B147" s="20" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="C147" s="10">
         <v>0</v>
@@ -5495,12 +5515,12 @@
       <c r="D147" s="10"/>
       <c r="O147" s="10"/>
     </row>
-    <row r="148" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:15" ht="16" hidden="1">
       <c r="A148" s="23" t="s">
-        <v>160</v>
+        <v>148</v>
       </c>
       <c r="B148" s="20" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="C148" s="10">
         <v>0</v>
@@ -5508,12 +5528,12 @@
       <c r="D148" s="10"/>
       <c r="O148" s="10"/>
     </row>
-    <row r="149" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:15" ht="16" hidden="1">
       <c r="A149" s="23" t="s">
-        <v>161</v>
+        <v>149</v>
       </c>
       <c r="B149" s="20" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="C149" s="10">
         <v>0</v>
@@ -5521,12 +5541,12 @@
       <c r="D149" s="10"/>
       <c r="O149" s="10"/>
     </row>
-    <row r="150" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:15" ht="16" hidden="1">
       <c r="A150" s="24" t="s">
-        <v>162</v>
+        <v>150</v>
       </c>
       <c r="B150" s="20" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="C150" s="10">
         <v>1</v>
@@ -5534,12 +5554,12 @@
       <c r="D150" s="10"/>
       <c r="O150" s="10"/>
     </row>
-    <row r="151" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:15" ht="16" hidden="1">
       <c r="A151" s="24" t="s">
-        <v>163</v>
+        <v>151</v>
       </c>
       <c r="B151" s="20" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="C151" s="10">
         <v>0</v>
@@ -5547,12 +5567,12 @@
       <c r="D151" s="10"/>
       <c r="O151" s="10"/>
     </row>
-    <row r="152" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:15" ht="16" hidden="1">
       <c r="A152" s="24" t="s">
-        <v>165</v>
+        <v>153</v>
       </c>
       <c r="B152" s="20" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="C152" s="10">
         <v>1</v>
@@ -5560,12 +5580,12 @@
       <c r="D152" s="10"/>
       <c r="O152" s="10"/>
     </row>
-    <row r="153" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:15" ht="16" hidden="1">
       <c r="A153" s="24" t="s">
-        <v>164</v>
+        <v>152</v>
       </c>
       <c r="B153" s="20" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="C153" s="10">
         <v>2</v>
@@ -5573,12 +5593,12 @@
       <c r="D153" s="10"/>
       <c r="O153" s="10"/>
     </row>
-    <row r="154" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:15" ht="16" hidden="1">
       <c r="A154" s="24" t="s">
-        <v>166</v>
+        <v>154</v>
       </c>
       <c r="B154" s="20" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="C154" s="10">
         <v>1</v>
@@ -5586,12 +5606,12 @@
       <c r="D154" s="10"/>
       <c r="O154" s="10"/>
     </row>
-    <row r="155" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:15" ht="16" hidden="1">
       <c r="A155" s="24" t="s">
-        <v>167</v>
+        <v>155</v>
       </c>
       <c r="B155" s="20" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="C155" s="10">
         <v>2</v>
@@ -5599,12 +5619,12 @@
       <c r="D155" s="10"/>
       <c r="O155" s="10"/>
     </row>
-    <row r="156" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:15" ht="16" hidden="1">
       <c r="A156" s="24" t="s">
-        <v>168</v>
+        <v>156</v>
       </c>
       <c r="B156" s="20" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="C156" s="10">
         <v>2</v>
@@ -5612,12 +5632,12 @@
       <c r="D156" s="10"/>
       <c r="O156" s="10"/>
     </row>
-    <row r="157" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:15" ht="16">
       <c r="A157" s="24" t="s">
-        <v>169</v>
+        <v>157</v>
       </c>
       <c r="B157" s="20" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="C157" s="10">
         <v>4</v>
@@ -5625,12 +5645,12 @@
       <c r="D157" s="10"/>
       <c r="O157" s="10"/>
     </row>
-    <row r="158" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:15" ht="16">
       <c r="A158" s="24" t="s">
-        <v>170</v>
+        <v>158</v>
       </c>
       <c r="B158" s="20" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="C158" s="10">
         <v>4</v>
@@ -5638,12 +5658,12 @@
       <c r="D158" s="10"/>
       <c r="O158" s="10"/>
     </row>
-    <row r="159" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:15" ht="16">
       <c r="A159" s="24" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="B159" s="20" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="C159" s="10">
         <v>4</v>
@@ -5651,12 +5671,12 @@
       <c r="D159" s="10"/>
       <c r="O159" s="10"/>
     </row>
-    <row r="160" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:15" ht="16" hidden="1">
       <c r="A160" s="24" t="s">
-        <v>171</v>
+        <v>159</v>
       </c>
       <c r="B160" s="20" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="C160" s="10">
         <v>0</v>
@@ -5664,12 +5684,12 @@
       <c r="D160" s="10"/>
       <c r="O160" s="10"/>
     </row>
-    <row r="161" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:15" ht="16" hidden="1">
       <c r="A161" s="23" t="s">
-        <v>172</v>
+        <v>298</v>
       </c>
       <c r="B161" s="20" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="C161" s="10">
         <v>1</v>
@@ -5677,12 +5697,12 @@
       <c r="D161" s="10"/>
       <c r="O161" s="10"/>
     </row>
-    <row r="162" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:15" ht="16" hidden="1">
       <c r="A162" s="23" t="s">
-        <v>173</v>
+        <v>160</v>
       </c>
       <c r="B162" s="20" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="C162" s="10">
         <v>1</v>
@@ -5690,12 +5710,12 @@
       <c r="D162" s="10"/>
       <c r="O162" s="10"/>
     </row>
-    <row r="163" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:15" ht="16" hidden="1">
       <c r="A163" s="23" t="s">
-        <v>174</v>
+        <v>161</v>
       </c>
       <c r="B163" s="20" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C163" s="10">
         <v>1</v>
@@ -5703,12 +5723,12 @@
       <c r="D163" s="10"/>
       <c r="O163" s="10"/>
     </row>
-    <row r="164" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:15" ht="16" hidden="1">
       <c r="A164" s="23" t="s">
-        <v>175</v>
+        <v>162</v>
       </c>
       <c r="B164" s="20" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C164" s="10">
         <v>1</v>
@@ -5716,12 +5736,12 @@
       <c r="D164" s="10"/>
       <c r="O164" s="10"/>
     </row>
-    <row r="165" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:15" ht="16" hidden="1">
       <c r="A165" s="23" t="s">
-        <v>176</v>
+        <v>163</v>
       </c>
       <c r="B165" s="20" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="C165" s="10">
         <v>2</v>
@@ -5729,12 +5749,12 @@
       <c r="D165" s="10"/>
       <c r="O165" s="10"/>
     </row>
-    <row r="166" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:15" ht="16" hidden="1">
       <c r="A166" s="23" t="s">
-        <v>177</v>
+        <v>164</v>
       </c>
       <c r="B166" s="20" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="C166" s="10">
         <v>2</v>
@@ -5742,12 +5762,12 @@
       <c r="D166" s="10"/>
       <c r="O166" s="10"/>
     </row>
-    <row r="167" spans="1:15" ht="27" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:15" ht="32" hidden="1">
       <c r="A167" s="23" t="s">
-        <v>178</v>
+        <v>165</v>
       </c>
       <c r="B167" s="20" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="C167" s="10">
         <v>2</v>
@@ -5755,12 +5775,12 @@
       <c r="D167" s="10"/>
       <c r="O167" s="10"/>
     </row>
-    <row r="168" spans="1:15" ht="40.5" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:15" ht="48" hidden="1">
       <c r="A168" s="23" t="s">
-        <v>184</v>
+        <v>171</v>
       </c>
       <c r="B168" s="20" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="C168" s="10">
         <v>2</v>
@@ -5768,12 +5788,12 @@
       <c r="D168" s="10"/>
       <c r="O168" s="10"/>
     </row>
-    <row r="169" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:15" ht="16" hidden="1">
       <c r="A169" s="23" t="s">
-        <v>185</v>
+        <v>172</v>
       </c>
       <c r="B169" s="20" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="C169" s="10">
         <v>2</v>
@@ -5781,12 +5801,12 @@
       <c r="D169" s="10"/>
       <c r="O169" s="10"/>
     </row>
-    <row r="170" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:15" ht="16" hidden="1">
       <c r="A170" s="23" t="s">
-        <v>179</v>
+        <v>166</v>
       </c>
       <c r="B170" s="20" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="C170" s="10">
         <v>0</v>
@@ -5794,12 +5814,12 @@
       <c r="D170" s="10"/>
       <c r="O170" s="10"/>
     </row>
-    <row r="171" spans="1:15" ht="54" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:15" ht="64" hidden="1">
       <c r="A171" s="23" t="s">
-        <v>304</v>
+        <v>271</v>
       </c>
       <c r="B171" s="20" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="C171" s="10">
         <v>2</v>
@@ -5807,12 +5827,12 @@
       <c r="D171" s="10"/>
       <c r="O171" s="10"/>
     </row>
-    <row r="172" spans="1:15" ht="54" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:15" ht="64" hidden="1">
       <c r="A172" s="23" t="s">
-        <v>302</v>
+        <v>269</v>
       </c>
       <c r="B172" s="20" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="C172" s="10">
         <v>2</v>
@@ -5820,12 +5840,12 @@
       <c r="D172" s="10"/>
       <c r="O172" s="10"/>
     </row>
-    <row r="173" spans="1:15" ht="40.5" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:15" ht="48" hidden="1">
       <c r="A173" s="23" t="s">
-        <v>303</v>
+        <v>270</v>
       </c>
       <c r="B173" s="20" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="C173" s="10">
         <v>2</v>
@@ -5833,12 +5853,12 @@
       <c r="D173" s="10"/>
       <c r="O173" s="10"/>
     </row>
-    <row r="174" spans="1:15" ht="27" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:15" ht="32" hidden="1">
       <c r="A174" s="23" t="s">
-        <v>305</v>
+        <v>272</v>
       </c>
       <c r="B174" s="20" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="C174" s="10">
         <v>2</v>
@@ -5846,12 +5866,12 @@
       <c r="D174" s="10"/>
       <c r="O174" s="10"/>
     </row>
-    <row r="175" spans="1:15" ht="54" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:15" ht="64" hidden="1">
       <c r="A175" s="23" t="s">
-        <v>180</v>
+        <v>167</v>
       </c>
       <c r="B175" s="20" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="C175" s="10">
         <v>2</v>
@@ -5859,12 +5879,12 @@
       <c r="D175" s="10"/>
       <c r="O175" s="10"/>
     </row>
-    <row r="176" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:15" ht="16" hidden="1">
       <c r="A176" s="23" t="s">
-        <v>181</v>
+        <v>168</v>
       </c>
       <c r="B176" s="20" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="C176" s="10">
         <v>2</v>
@@ -5872,12 +5892,12 @@
       <c r="D176" s="10"/>
       <c r="O176" s="10"/>
     </row>
-    <row r="177" spans="1:15" ht="27" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:15" ht="32" hidden="1">
       <c r="A177" s="23" t="s">
-        <v>182</v>
+        <v>169</v>
       </c>
       <c r="B177" s="20" t="s">
-        <v>186</v>
+        <v>173</v>
       </c>
       <c r="C177" s="10">
         <v>1</v>
@@ -5885,12 +5905,12 @@
       <c r="D177" s="10"/>
       <c r="O177" s="10"/>
     </row>
-    <row r="178" spans="1:15" ht="40.5" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:15" ht="48" hidden="1">
       <c r="A178" s="23" t="s">
-        <v>306</v>
+        <v>273</v>
       </c>
       <c r="B178" s="20" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="C178" s="10">
         <v>2</v>
@@ -5898,12 +5918,12 @@
       <c r="D178" s="10"/>
       <c r="O178" s="10"/>
     </row>
-    <row r="179" spans="1:15" ht="40.5" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:15" ht="48" hidden="1">
       <c r="A179" s="23" t="s">
-        <v>307</v>
+        <v>274</v>
       </c>
       <c r="B179" s="20" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="C179" s="10">
         <v>2</v>
@@ -5911,12 +5931,12 @@
       <c r="D179" s="10"/>
       <c r="O179" s="10"/>
     </row>
-    <row r="180" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:15" ht="16" hidden="1">
       <c r="A180" s="23" t="s">
-        <v>183</v>
+        <v>170</v>
       </c>
       <c r="B180" s="20" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="C180" s="10">
         <v>2</v>
@@ -5924,12 +5944,12 @@
       <c r="D180" s="10"/>
       <c r="O180" s="10"/>
     </row>
-    <row r="181" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:15" ht="16" hidden="1">
       <c r="A181" s="23" t="s">
-        <v>187</v>
+        <v>174</v>
       </c>
       <c r="B181" s="20" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="C181" s="10">
         <v>2</v>
@@ -5937,12 +5957,12 @@
       <c r="D181" s="10"/>
       <c r="O181" s="10"/>
     </row>
-    <row r="182" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:15" ht="16" hidden="1">
       <c r="A182" s="23" t="s">
-        <v>188</v>
+        <v>175</v>
       </c>
       <c r="B182" s="20" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="C182" s="10">
         <v>1</v>
@@ -5950,12 +5970,12 @@
       <c r="D182" s="10"/>
       <c r="O182" s="10"/>
     </row>
-    <row r="183" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:15" ht="16" hidden="1">
       <c r="A183" s="23" t="s">
-        <v>189</v>
+        <v>176</v>
       </c>
       <c r="B183" s="20" t="s">
-        <v>190</v>
+        <v>177</v>
       </c>
       <c r="C183" s="10">
         <v>2</v>
@@ -5963,12 +5983,12 @@
       <c r="D183" s="10"/>
       <c r="O183" s="10"/>
     </row>
-    <row r="184" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:15" ht="16" hidden="1">
       <c r="A184" s="23" t="s">
-        <v>191</v>
+        <v>178</v>
       </c>
       <c r="B184" s="20" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="C184" s="10">
         <v>2</v>
@@ -5976,12 +5996,12 @@
       <c r="D184" s="10"/>
       <c r="O184" s="10"/>
     </row>
-    <row r="185" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:15" ht="16" hidden="1">
       <c r="A185" s="23" t="s">
-        <v>192</v>
+        <v>179</v>
       </c>
       <c r="B185" s="20" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="C185" s="10">
         <v>2</v>
@@ -5989,12 +6009,12 @@
       <c r="D185" s="10"/>
       <c r="O185" s="10"/>
     </row>
-    <row r="186" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:15" ht="16">
       <c r="A186" s="23" t="s">
-        <v>193</v>
+        <v>180</v>
       </c>
       <c r="B186" s="20" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="C186" s="10">
         <v>4</v>
@@ -6002,12 +6022,12 @@
       <c r="D186" s="10"/>
       <c r="O186" s="10"/>
     </row>
-    <row r="187" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:15" ht="16">
       <c r="A187" s="23" t="s">
-        <v>194</v>
+        <v>181</v>
       </c>
       <c r="B187" s="20" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="C187" s="10">
         <v>4</v>
@@ -6015,12 +6035,12 @@
       <c r="D187" s="10"/>
       <c r="O187" s="10"/>
     </row>
-    <row r="188" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:15" ht="16">
       <c r="A188" s="23" t="s">
-        <v>195</v>
+        <v>182</v>
       </c>
       <c r="B188" s="20" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="C188" s="10">
         <v>4</v>
@@ -6028,12 +6048,12 @@
       <c r="D188" s="10"/>
       <c r="O188" s="10"/>
     </row>
-    <row r="189" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:15" ht="16">
       <c r="A189" s="23" t="s">
-        <v>196</v>
+        <v>183</v>
       </c>
       <c r="B189" s="20" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="C189" s="10">
         <v>4</v>
@@ -6041,12 +6061,12 @@
       <c r="D189" s="10"/>
       <c r="O189" s="10"/>
     </row>
-    <row r="190" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:15" ht="16">
       <c r="A190" s="23" t="s">
-        <v>197</v>
+        <v>184</v>
       </c>
       <c r="B190" s="20" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="C190" s="10">
         <v>4</v>
@@ -6054,12 +6074,12 @@
       <c r="D190" s="10"/>
       <c r="O190" s="10"/>
     </row>
-    <row r="191" spans="1:15" ht="27" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:15" ht="32">
       <c r="A191" s="23" t="s">
-        <v>198</v>
+        <v>185</v>
       </c>
       <c r="B191" s="20" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="C191" s="10">
         <v>4</v>
@@ -6067,12 +6087,12 @@
       <c r="D191" s="10"/>
       <c r="O191" s="10"/>
     </row>
-    <row r="192" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:15" ht="16">
       <c r="A192" s="23" t="s">
-        <v>199</v>
+        <v>316</v>
       </c>
       <c r="B192" s="20" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="C192" s="10">
         <v>4</v>
@@ -6081,12 +6101,12 @@
       <c r="L192" s="10"/>
       <c r="O192" s="10"/>
     </row>
-    <row r="193" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:15" ht="16">
       <c r="A193" s="23" t="s">
-        <v>200</v>
+        <v>186</v>
       </c>
       <c r="B193" s="20" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="C193" s="10">
         <v>4</v>
@@ -6095,12 +6115,12 @@
       <c r="L193" s="10"/>
       <c r="O193" s="10"/>
     </row>
-    <row r="194" spans="1:15" ht="27" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:15" ht="32">
       <c r="A194" s="23" t="s">
-        <v>201</v>
+        <v>187</v>
       </c>
       <c r="B194" s="20" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="C194" s="10">
         <v>4</v>
@@ -6109,12 +6129,12 @@
       <c r="L194" s="10"/>
       <c r="O194" s="10"/>
     </row>
-    <row r="195" spans="1:15" ht="40.5" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:15" ht="48">
       <c r="A195" s="23" t="s">
-        <v>202</v>
+        <v>188</v>
       </c>
       <c r="B195" s="20" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="C195" s="10">
         <v>4</v>
@@ -6123,12 +6143,12 @@
       <c r="L195" s="10"/>
       <c r="O195" s="10"/>
     </row>
-    <row r="196" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:15" ht="16">
       <c r="A196" s="23" t="s">
-        <v>203</v>
+        <v>189</v>
       </c>
       <c r="B196" s="20" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="C196" s="10">
         <v>4</v>
@@ -6137,12 +6157,12 @@
       <c r="L196" s="10"/>
       <c r="O196" s="10"/>
     </row>
-    <row r="197" spans="1:15" ht="54" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:15" ht="64" hidden="1">
       <c r="A197" s="23" t="s">
-        <v>204</v>
+        <v>190</v>
       </c>
       <c r="B197" s="20" t="s">
-        <v>207</v>
+        <v>192</v>
       </c>
       <c r="C197" s="10">
         <v>0</v>
@@ -6151,12 +6171,12 @@
       <c r="L197" s="10"/>
       <c r="O197" s="10"/>
     </row>
-    <row r="198" spans="1:15" ht="54" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:15" ht="64" hidden="1">
       <c r="A198" s="23" t="s">
-        <v>205</v>
+        <v>191</v>
       </c>
       <c r="B198" s="20" t="s">
-        <v>207</v>
+        <v>192</v>
       </c>
       <c r="C198" s="10">
         <v>0</v>
@@ -6165,12 +6185,12 @@
       <c r="L198" s="10"/>
       <c r="O198" s="10"/>
     </row>
-    <row r="199" spans="1:15" ht="54" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:15" ht="64" hidden="1">
       <c r="A199" s="23" t="s">
-        <v>206</v>
+        <v>285</v>
       </c>
       <c r="B199" s="20" t="s">
-        <v>207</v>
+        <v>192</v>
       </c>
       <c r="C199" s="10">
         <v>0</v>
@@ -6179,12 +6199,12 @@
       <c r="L199" s="10"/>
       <c r="O199" s="10"/>
     </row>
-    <row r="200" spans="1:15" ht="27" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:15" ht="32" hidden="1">
       <c r="A200" s="23" t="s">
-        <v>208</v>
+        <v>313</v>
       </c>
       <c r="B200" s="20" t="s">
-        <v>207</v>
+        <v>192</v>
       </c>
       <c r="C200" s="10">
         <v>0</v>
@@ -6193,12 +6213,12 @@
       <c r="L200" s="10"/>
       <c r="O200" s="10"/>
     </row>
-    <row r="201" spans="1:15" ht="27" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:15" ht="32" hidden="1">
       <c r="A201" s="23" t="s">
-        <v>209</v>
+        <v>193</v>
       </c>
       <c r="B201" s="20" t="s">
-        <v>207</v>
+        <v>192</v>
       </c>
       <c r="C201" s="10">
         <v>0</v>
@@ -6207,12 +6227,12 @@
       <c r="L201" s="10"/>
       <c r="O201" s="10"/>
     </row>
-    <row r="202" spans="1:15" ht="54" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:15" ht="64" hidden="1">
       <c r="A202" s="23" t="s">
-        <v>210</v>
+        <v>194</v>
       </c>
       <c r="B202" s="20" t="s">
-        <v>207</v>
+        <v>192</v>
       </c>
       <c r="C202" s="10">
         <v>0</v>
@@ -6221,12 +6241,12 @@
       <c r="L202" s="10"/>
       <c r="O202" s="10"/>
     </row>
-    <row r="203" spans="1:15" ht="40.5" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:15" ht="48" hidden="1">
       <c r="A203" s="23" t="s">
-        <v>211</v>
+        <v>195</v>
       </c>
       <c r="B203" s="20" t="s">
-        <v>207</v>
+        <v>192</v>
       </c>
       <c r="C203" s="10">
         <v>0</v>
@@ -6235,12 +6255,12 @@
       <c r="L203" s="10"/>
       <c r="O203" s="10"/>
     </row>
-    <row r="204" spans="1:15" ht="54" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:15" ht="64" hidden="1">
       <c r="A204" s="23" t="s">
-        <v>212</v>
+        <v>196</v>
       </c>
       <c r="B204" s="20" t="s">
-        <v>207</v>
+        <v>192</v>
       </c>
       <c r="C204" s="10">
         <v>0</v>
@@ -6249,12 +6269,12 @@
       <c r="L204" s="10"/>
       <c r="O204" s="10"/>
     </row>
-    <row r="205" spans="1:15" ht="54" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:15" ht="64" hidden="1">
       <c r="A205" s="23" t="s">
-        <v>213</v>
+        <v>197</v>
       </c>
       <c r="B205" s="20" t="s">
-        <v>207</v>
+        <v>192</v>
       </c>
       <c r="C205" s="10">
         <v>0</v>
@@ -6263,12 +6283,12 @@
       <c r="L205" s="10"/>
       <c r="O205" s="10"/>
     </row>
-    <row r="206" spans="1:15" ht="40.5" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:15" ht="48" hidden="1">
       <c r="A206" s="23" t="s">
-        <v>214</v>
+        <v>198</v>
       </c>
       <c r="B206" s="20" t="s">
-        <v>207</v>
+        <v>192</v>
       </c>
       <c r="C206" s="10">
         <v>0</v>
@@ -6277,12 +6297,12 @@
       <c r="L206" s="10"/>
       <c r="O206" s="10"/>
     </row>
-    <row r="207" spans="1:15" ht="40.5" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:15" ht="32" hidden="1">
       <c r="A207" s="23" t="s">
-        <v>215</v>
+        <v>199</v>
       </c>
       <c r="B207" s="20" t="s">
-        <v>207</v>
+        <v>192</v>
       </c>
       <c r="C207" s="10">
         <v>0</v>
@@ -6291,12 +6311,12 @@
       <c r="L207" s="10"/>
       <c r="O207" s="10"/>
     </row>
-    <row r="208" spans="1:15" ht="40.5" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:15" ht="48" hidden="1">
       <c r="A208" s="23" t="s">
-        <v>216</v>
+        <v>200</v>
       </c>
       <c r="B208" s="20" t="s">
-        <v>207</v>
+        <v>192</v>
       </c>
       <c r="C208" s="10">
         <v>0</v>
@@ -6305,12 +6325,12 @@
       <c r="L208" s="10"/>
       <c r="O208" s="10"/>
     </row>
-    <row r="209" spans="1:15" ht="27" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:15" ht="32" hidden="1">
       <c r="A209" s="23" t="s">
-        <v>217</v>
+        <v>201</v>
       </c>
       <c r="B209" s="20" t="s">
-        <v>207</v>
+        <v>192</v>
       </c>
       <c r="C209" s="10">
         <v>0</v>
@@ -6319,12 +6339,12 @@
       <c r="L209" s="10"/>
       <c r="O209" s="10"/>
     </row>
-    <row r="210" spans="1:15" ht="40.5" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:15" ht="48" hidden="1">
       <c r="A210" s="23" t="s">
-        <v>218</v>
+        <v>314</v>
       </c>
       <c r="B210" s="20" t="s">
-        <v>207</v>
+        <v>192</v>
       </c>
       <c r="C210" s="10">
         <v>0</v>
@@ -6333,12 +6353,12 @@
       <c r="L210" s="10"/>
       <c r="O210" s="10"/>
     </row>
-    <row r="211" spans="1:15" ht="40.5" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:15" ht="48" hidden="1">
       <c r="A211" s="23" t="s">
-        <v>219</v>
+        <v>287</v>
       </c>
       <c r="B211" s="20" t="s">
-        <v>207</v>
+        <v>192</v>
       </c>
       <c r="C211" s="10">
         <v>0</v>
@@ -6347,12 +6367,12 @@
       <c r="L211" s="10"/>
       <c r="O211" s="10"/>
     </row>
-    <row r="212" spans="1:15" ht="40.5" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:15" ht="48" hidden="1">
       <c r="A212" s="23" t="s">
-        <v>220</v>
+        <v>315</v>
       </c>
       <c r="B212" s="20" t="s">
-        <v>207</v>
+        <v>192</v>
       </c>
       <c r="C212" s="10">
         <v>0</v>
@@ -6361,12 +6381,12 @@
       <c r="L212" s="10"/>
       <c r="O212" s="10"/>
     </row>
-    <row r="213" spans="1:15" ht="27" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:15" ht="32" hidden="1">
       <c r="A213" s="23" t="s">
-        <v>217</v>
+        <v>288</v>
       </c>
       <c r="B213" s="20" t="s">
-        <v>207</v>
+        <v>192</v>
       </c>
       <c r="C213" s="10">
         <v>0</v>
@@ -6375,12 +6395,12 @@
       <c r="L213" s="10"/>
       <c r="O213" s="10"/>
     </row>
-    <row r="214" spans="1:15" ht="27" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:15" ht="32" hidden="1">
       <c r="A214" s="23" t="s">
-        <v>221</v>
+        <v>203</v>
       </c>
       <c r="B214" s="20" t="s">
-        <v>207</v>
+        <v>192</v>
       </c>
       <c r="C214" s="10">
         <v>0</v>
@@ -6389,12 +6409,12 @@
       <c r="L214" s="10"/>
       <c r="O214" s="10"/>
     </row>
-    <row r="215" spans="1:15" ht="40.5" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:15" ht="48" hidden="1">
       <c r="A215" s="23" t="s">
-        <v>220</v>
+        <v>202</v>
       </c>
       <c r="B215" s="20" t="s">
-        <v>207</v>
+        <v>192</v>
       </c>
       <c r="C215" s="10">
         <v>0</v>
@@ -6403,12 +6423,12 @@
       <c r="L215" s="10"/>
       <c r="O215" s="10"/>
     </row>
-    <row r="216" spans="1:15" ht="40.5" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:15" ht="48" hidden="1">
       <c r="A216" s="23" t="s">
-        <v>222</v>
+        <v>204</v>
       </c>
       <c r="B216" s="20" t="s">
-        <v>207</v>
+        <v>192</v>
       </c>
       <c r="C216" s="10">
         <v>0</v>
@@ -6417,12 +6437,12 @@
       <c r="L216" s="10"/>
       <c r="O216" s="10"/>
     </row>
-    <row r="217" spans="1:15" ht="40.5" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:15" ht="48" hidden="1">
       <c r="A217" s="23" t="s">
-        <v>222</v>
+        <v>204</v>
       </c>
       <c r="B217" s="20" t="s">
-        <v>207</v>
+        <v>192</v>
       </c>
       <c r="C217" s="10">
         <v>0</v>
@@ -6430,12 +6450,12 @@
       <c r="D217" s="10"/>
       <c r="O217" s="10"/>
     </row>
-    <row r="218" spans="1:15" ht="54" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:15" ht="64" hidden="1">
       <c r="A218" s="23" t="s">
-        <v>223</v>
+        <v>205</v>
       </c>
       <c r="B218" s="20" t="s">
-        <v>207</v>
+        <v>192</v>
       </c>
       <c r="C218" s="10">
         <v>0</v>
@@ -6444,12 +6464,12 @@
       <c r="L218" s="10"/>
       <c r="O218" s="10"/>
     </row>
-    <row r="219" spans="1:15" ht="54" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:15" ht="64" hidden="1">
       <c r="A219" s="23" t="s">
-        <v>225</v>
+        <v>207</v>
       </c>
       <c r="B219" s="20" t="s">
-        <v>224</v>
+        <v>206</v>
       </c>
       <c r="C219" s="10">
         <v>1</v>
@@ -6458,12 +6478,12 @@
       <c r="L219" s="10"/>
       <c r="O219" s="10"/>
     </row>
-    <row r="220" spans="1:15" ht="40.5" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:15" ht="48" hidden="1">
       <c r="A220" s="23" t="s">
-        <v>226</v>
+        <v>208</v>
       </c>
       <c r="B220" s="20" t="s">
-        <v>224</v>
+        <v>206</v>
       </c>
       <c r="C220" s="10">
         <v>1</v>
@@ -6472,12 +6492,12 @@
       <c r="L220" s="10"/>
       <c r="O220" s="10"/>
     </row>
-    <row r="221" spans="1:15" ht="54" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:15" ht="64" hidden="1">
       <c r="A221" s="23" t="s">
-        <v>227</v>
+        <v>209</v>
       </c>
       <c r="B221" s="20" t="s">
-        <v>224</v>
+        <v>206</v>
       </c>
       <c r="C221" s="10">
         <v>1</v>
@@ -6486,12 +6506,12 @@
       <c r="L221" s="10"/>
       <c r="O221" s="10"/>
     </row>
-    <row r="222" spans="1:15" ht="40.5" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:15" ht="48" hidden="1">
       <c r="A222" s="23" t="s">
-        <v>228</v>
+        <v>210</v>
       </c>
       <c r="B222" s="20" t="s">
-        <v>224</v>
+        <v>206</v>
       </c>
       <c r="C222" s="10">
         <v>1</v>
@@ -6500,12 +6520,12 @@
       <c r="L222" s="10"/>
       <c r="O222" s="10"/>
     </row>
-    <row r="223" spans="1:15" ht="54" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:15" ht="48" hidden="1">
       <c r="A223" s="23" t="s">
-        <v>229</v>
+        <v>211</v>
       </c>
       <c r="B223" s="20" t="s">
-        <v>224</v>
+        <v>206</v>
       </c>
       <c r="C223" s="10">
         <v>1</v>
@@ -6514,12 +6534,12 @@
       <c r="L223" s="10"/>
       <c r="O223" s="10"/>
     </row>
-    <row r="224" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:15" ht="16" hidden="1">
       <c r="A224" s="23" t="s">
-        <v>230</v>
+        <v>212</v>
       </c>
       <c r="B224" s="20" t="s">
-        <v>224</v>
+        <v>206</v>
       </c>
       <c r="C224" s="10">
         <v>1</v>
@@ -6528,12 +6548,12 @@
       <c r="L224" s="10"/>
       <c r="O224" s="10"/>
     </row>
-    <row r="225" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:15" ht="16" hidden="1">
       <c r="A225" s="23" t="s">
-        <v>231</v>
+        <v>213</v>
       </c>
       <c r="B225" s="20" t="s">
-        <v>224</v>
+        <v>206</v>
       </c>
       <c r="C225" s="10">
         <v>1</v>
@@ -6542,12 +6562,12 @@
       <c r="L225" s="10"/>
       <c r="O225" s="10"/>
     </row>
-    <row r="226" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:15" ht="16" hidden="1">
       <c r="A226" s="23" t="s">
-        <v>232</v>
+        <v>214</v>
       </c>
       <c r="B226" s="20" t="s">
-        <v>224</v>
+        <v>206</v>
       </c>
       <c r="C226" s="10">
         <v>1</v>
@@ -6555,12 +6575,12 @@
       <c r="D226" s="10"/>
       <c r="O226" s="10"/>
     </row>
-    <row r="227" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:15" ht="16" hidden="1">
       <c r="A227" s="23" t="s">
-        <v>233</v>
+        <v>215</v>
       </c>
       <c r="B227" s="20" t="s">
-        <v>224</v>
+        <v>206</v>
       </c>
       <c r="C227" s="10">
         <v>1</v>
@@ -6569,12 +6589,12 @@
       <c r="L227" s="10"/>
       <c r="O227" s="10"/>
     </row>
-    <row r="228" spans="1:15" ht="54" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:15" ht="64" hidden="1">
       <c r="A228" s="23" t="s">
-        <v>234</v>
+        <v>294</v>
       </c>
       <c r="B228" s="20" t="s">
-        <v>224</v>
+        <v>206</v>
       </c>
       <c r="C228" s="10">
         <v>1</v>
@@ -6583,12 +6603,12 @@
       <c r="L228" s="10"/>
       <c r="O228" s="10"/>
     </row>
-    <row r="229" spans="1:15" ht="94.5" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:15" ht="112" hidden="1">
       <c r="A229" s="23" t="s">
-        <v>235</v>
+        <v>216</v>
       </c>
       <c r="B229" s="20" t="s">
-        <v>224</v>
+        <v>206</v>
       </c>
       <c r="C229" s="10">
         <v>1</v>
@@ -6597,12 +6617,12 @@
       <c r="L229" s="10"/>
       <c r="O229" s="10"/>
     </row>
-    <row r="230" spans="1:15" ht="40.5" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:15" ht="48" hidden="1">
       <c r="A230" s="23" t="s">
-        <v>236</v>
+        <v>217</v>
       </c>
       <c r="B230" s="20" t="s">
-        <v>224</v>
+        <v>206</v>
       </c>
       <c r="C230" s="10">
         <v>1</v>
@@ -6611,12 +6631,12 @@
       <c r="L230" s="10"/>
       <c r="O230" s="10"/>
     </row>
-    <row r="231" spans="1:15" ht="40.5" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:15" ht="48" hidden="1">
       <c r="A231" s="23" t="s">
-        <v>237</v>
+        <v>310</v>
       </c>
       <c r="B231" s="20" t="s">
-        <v>224</v>
+        <v>206</v>
       </c>
       <c r="C231" s="10">
         <v>1</v>
@@ -6625,12 +6645,12 @@
       <c r="L231" s="10"/>
       <c r="O231" s="10"/>
     </row>
-    <row r="232" spans="1:15" ht="27" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:15" ht="32" hidden="1">
       <c r="A232" s="23" t="s">
-        <v>238</v>
+        <v>218</v>
       </c>
       <c r="B232" s="20" t="s">
-        <v>224</v>
+        <v>206</v>
       </c>
       <c r="C232" s="10">
         <v>1</v>
@@ -6639,12 +6659,12 @@
       <c r="L232" s="10"/>
       <c r="O232" s="10"/>
     </row>
-    <row r="233" spans="1:15" ht="27" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:15" ht="32" hidden="1">
       <c r="A233" s="23" t="s">
-        <v>239</v>
+        <v>219</v>
       </c>
       <c r="B233" s="20" t="s">
-        <v>224</v>
+        <v>206</v>
       </c>
       <c r="C233" s="10">
         <v>1</v>
@@ -6653,12 +6673,12 @@
       <c r="L233" s="10"/>
       <c r="O233" s="10"/>
     </row>
-    <row r="234" spans="1:15" ht="27" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:15" ht="32" hidden="1">
       <c r="A234" s="23" t="s">
-        <v>240</v>
+        <v>220</v>
       </c>
       <c r="B234" s="20" t="s">
-        <v>224</v>
+        <v>206</v>
       </c>
       <c r="C234" s="10">
         <v>1</v>
@@ -6666,12 +6686,12 @@
       <c r="D234" s="10"/>
       <c r="L234" s="10"/>
     </row>
-    <row r="235" spans="1:15" ht="54" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:15" ht="64" hidden="1">
       <c r="A235" s="23" t="s">
-        <v>241</v>
+        <v>292</v>
       </c>
       <c r="B235" s="20" t="s">
-        <v>224</v>
+        <v>206</v>
       </c>
       <c r="C235" s="10">
         <v>1</v>
@@ -6680,12 +6700,12 @@
       <c r="L235" s="10"/>
       <c r="O235" s="10"/>
     </row>
-    <row r="236" spans="1:15" ht="81" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:15" ht="96" hidden="1">
       <c r="A236" s="23" t="s">
-        <v>242</v>
+        <v>221</v>
       </c>
       <c r="B236" s="20" t="s">
-        <v>224</v>
+        <v>206</v>
       </c>
       <c r="C236" s="10">
         <v>1</v>
@@ -6694,12 +6714,12 @@
       <c r="L236" s="10"/>
       <c r="O236" s="10"/>
     </row>
-    <row r="237" spans="1:15" ht="81" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:15" ht="80" hidden="1">
       <c r="A237" s="23" t="s">
-        <v>243</v>
+        <v>302</v>
       </c>
       <c r="B237" s="20" t="s">
-        <v>224</v>
+        <v>206</v>
       </c>
       <c r="C237" s="10">
         <v>1</v>
@@ -6708,12 +6728,12 @@
       <c r="L237" s="10"/>
       <c r="O237" s="10"/>
     </row>
-    <row r="238" spans="1:15" ht="94.5" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:15" ht="112" hidden="1">
       <c r="A238" s="23" t="s">
-        <v>244</v>
+        <v>222</v>
       </c>
       <c r="B238" s="20" t="s">
-        <v>224</v>
+        <v>206</v>
       </c>
       <c r="C238" s="10">
         <v>1</v>
@@ -6722,12 +6742,12 @@
       <c r="L238" s="10"/>
       <c r="O238" s="10"/>
     </row>
-    <row r="239" spans="1:15" ht="81" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:15" ht="96" hidden="1">
       <c r="A239" s="23" t="s">
-        <v>310</v>
+        <v>277</v>
       </c>
       <c r="B239" s="20" t="s">
-        <v>224</v>
+        <v>206</v>
       </c>
       <c r="C239" s="10">
         <v>1</v>
@@ -6736,12 +6756,12 @@
       <c r="L239" s="10"/>
       <c r="O239" s="10"/>
     </row>
-    <row r="240" spans="1:15" ht="54" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:15" ht="64" hidden="1">
       <c r="A240" s="23" t="s">
-        <v>245</v>
+        <v>223</v>
       </c>
       <c r="B240" s="20" t="s">
-        <v>224</v>
+        <v>206</v>
       </c>
       <c r="C240" s="10">
         <v>1</v>
@@ -6750,12 +6770,12 @@
       <c r="L240" s="10"/>
       <c r="O240" s="10"/>
     </row>
-    <row r="241" spans="1:15" ht="67.5" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:15" ht="80" hidden="1">
       <c r="A241" s="23" t="s">
-        <v>246</v>
+        <v>224</v>
       </c>
       <c r="B241" s="20" t="s">
-        <v>224</v>
+        <v>206</v>
       </c>
       <c r="C241" s="10">
         <v>1</v>
@@ -6764,12 +6784,12 @@
       <c r="L241" s="10"/>
       <c r="O241" s="10"/>
     </row>
-    <row r="242" spans="1:15" ht="54" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:15" ht="64" hidden="1">
       <c r="A242" s="23" t="s">
-        <v>247</v>
+        <v>225</v>
       </c>
       <c r="B242" s="20" t="s">
-        <v>224</v>
+        <v>206</v>
       </c>
       <c r="C242" s="10">
         <v>1</v>
@@ -6778,12 +6798,12 @@
       <c r="L242" s="10"/>
       <c r="O242" s="10"/>
     </row>
-    <row r="243" spans="1:15" ht="40.5" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:15" ht="48" hidden="1">
       <c r="A243" s="23" t="s">
-        <v>311</v>
+        <v>278</v>
       </c>
       <c r="B243" s="20" t="s">
-        <v>224</v>
+        <v>206</v>
       </c>
       <c r="C243" s="10">
         <v>1</v>
@@ -6792,12 +6812,12 @@
       <c r="L243" s="10"/>
       <c r="O243" s="10"/>
     </row>
-    <row r="244" spans="1:15" ht="67.5" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:15" ht="80" hidden="1">
       <c r="A244" s="23" t="s">
-        <v>312</v>
+        <v>279</v>
       </c>
       <c r="B244" s="20" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C244" s="10">
         <v>1</v>
@@ -6806,12 +6826,12 @@
       <c r="L244" s="10"/>
       <c r="O244" s="10"/>
     </row>
-    <row r="245" spans="1:15" ht="81" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:15" ht="96" hidden="1">
       <c r="A245" s="23" t="s">
-        <v>248</v>
+        <v>303</v>
       </c>
       <c r="B245" s="20" t="s">
-        <v>224</v>
+        <v>206</v>
       </c>
       <c r="C245" s="10">
         <v>1</v>
@@ -6820,12 +6840,12 @@
       <c r="L245" s="10"/>
       <c r="O245" s="10"/>
     </row>
-    <row r="246" spans="1:15" ht="81" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:15" ht="96" hidden="1">
       <c r="A246" s="23" t="s">
-        <v>249</v>
+        <v>226</v>
       </c>
       <c r="B246" s="20" t="s">
-        <v>224</v>
+        <v>206</v>
       </c>
       <c r="C246" s="10">
         <v>1</v>
@@ -6834,12 +6854,12 @@
       <c r="L246" s="10"/>
       <c r="O246" s="10"/>
     </row>
-    <row r="247" spans="1:15" ht="40.5" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:15" ht="48" hidden="1">
       <c r="A247" s="23" t="s">
-        <v>308</v>
+        <v>275</v>
       </c>
       <c r="B247" s="20" t="s">
-        <v>224</v>
+        <v>206</v>
       </c>
       <c r="C247" s="10">
         <v>1</v>
@@ -6848,12 +6868,12 @@
       <c r="L247" s="10"/>
       <c r="O247" s="10"/>
     </row>
-    <row r="248" spans="1:15" ht="54" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:15" ht="64" hidden="1">
       <c r="A248" s="23" t="s">
-        <v>309</v>
+        <v>276</v>
       </c>
       <c r="B248" s="20" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C248" s="10">
         <v>1</v>
@@ -6862,12 +6882,12 @@
       <c r="L248" s="10"/>
       <c r="O248" s="10"/>
     </row>
-    <row r="249" spans="1:15" ht="81" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:15" ht="96" hidden="1">
       <c r="A249" s="23" t="s">
-        <v>250</v>
+        <v>227</v>
       </c>
       <c r="B249" s="20" t="s">
-        <v>224</v>
+        <v>206</v>
       </c>
       <c r="C249" s="10">
         <v>1</v>
@@ -6876,12 +6896,12 @@
       <c r="L249" s="10"/>
       <c r="O249" s="10"/>
     </row>
-    <row r="250" spans="1:15" ht="67.5" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:15" ht="80" hidden="1">
       <c r="A250" s="23" t="s">
-        <v>251</v>
+        <v>305</v>
       </c>
       <c r="B250" s="20" t="s">
-        <v>224</v>
+        <v>206</v>
       </c>
       <c r="C250" s="10">
         <v>1</v>
@@ -6890,12 +6910,12 @@
       <c r="L250" s="10"/>
       <c r="O250" s="10"/>
     </row>
-    <row r="251" spans="1:15" ht="67.5" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:15" ht="80" hidden="1">
       <c r="A251" s="23" t="s">
-        <v>252</v>
+        <v>289</v>
       </c>
       <c r="B251" s="20" t="s">
-        <v>224</v>
+        <v>206</v>
       </c>
       <c r="C251" s="10">
         <v>1</v>
@@ -6904,12 +6924,12 @@
       <c r="L251" s="10"/>
       <c r="O251" s="10"/>
     </row>
-    <row r="252" spans="1:15" ht="54" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:15" ht="64" hidden="1">
       <c r="A252" s="23" t="s">
-        <v>253</v>
+        <v>295</v>
       </c>
       <c r="B252" s="20" t="s">
-        <v>224</v>
+        <v>206</v>
       </c>
       <c r="C252" s="10">
         <v>1</v>
@@ -6918,12 +6938,12 @@
       <c r="L252" s="10"/>
       <c r="O252" s="10"/>
     </row>
-    <row r="253" spans="1:15" ht="54" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:15" ht="64" hidden="1">
       <c r="A253" s="23" t="s">
-        <v>254</v>
+        <v>228</v>
       </c>
       <c r="B253" s="20" t="s">
-        <v>224</v>
+        <v>206</v>
       </c>
       <c r="C253" s="10">
         <v>1</v>
@@ -6932,12 +6952,12 @@
       <c r="L253" s="10"/>
       <c r="O253" s="10"/>
     </row>
-    <row r="254" spans="1:15" ht="67.5" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:15" ht="80" hidden="1">
       <c r="A254" s="23" t="s">
-        <v>255</v>
+        <v>229</v>
       </c>
       <c r="B254" s="20" t="s">
-        <v>224</v>
+        <v>206</v>
       </c>
       <c r="C254" s="10">
         <v>1</v>
@@ -6946,12 +6966,12 @@
       <c r="L254" s="10"/>
       <c r="O254" s="10"/>
     </row>
-    <row r="255" spans="1:15" ht="67.5" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:15" ht="80" hidden="1">
       <c r="A255" s="23" t="s">
-        <v>256</v>
+        <v>230</v>
       </c>
       <c r="B255" s="20" t="s">
-        <v>224</v>
+        <v>206</v>
       </c>
       <c r="C255" s="10">
         <v>1</v>
@@ -6960,12 +6980,12 @@
       <c r="L255" s="10"/>
       <c r="O255" s="10"/>
     </row>
-    <row r="256" spans="1:15" ht="94.5" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:15" ht="112" hidden="1">
       <c r="A256" s="23" t="s">
-        <v>235</v>
+        <v>216</v>
       </c>
       <c r="B256" s="20" t="s">
-        <v>224</v>
+        <v>206</v>
       </c>
       <c r="C256" s="10">
         <v>1</v>
@@ -6974,12 +6994,12 @@
       <c r="L256" s="10"/>
       <c r="O256" s="10"/>
     </row>
-    <row r="257" spans="1:15" ht="67.5" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:15" ht="80" hidden="1">
       <c r="A257" s="23" t="s">
-        <v>255</v>
+        <v>229</v>
       </c>
       <c r="B257" s="20" t="s">
-        <v>224</v>
+        <v>206</v>
       </c>
       <c r="C257" s="10">
         <v>1</v>
@@ -6988,12 +7008,12 @@
       <c r="L257" s="10"/>
       <c r="O257" s="10"/>
     </row>
-    <row r="258" spans="1:15" ht="54" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:15" ht="64" hidden="1">
       <c r="A258" s="23" t="s">
-        <v>254</v>
+        <v>228</v>
       </c>
       <c r="B258" s="20" t="s">
-        <v>224</v>
+        <v>206</v>
       </c>
       <c r="C258" s="10">
         <v>1</v>
@@ -7002,12 +7022,12 @@
       <c r="L258" s="10"/>
       <c r="O258" s="10"/>
     </row>
-    <row r="259" spans="1:15" ht="27" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:15" ht="32" hidden="1">
       <c r="A259" s="23" t="s">
-        <v>240</v>
+        <v>306</v>
       </c>
       <c r="B259" s="20" t="s">
-        <v>224</v>
+        <v>206</v>
       </c>
       <c r="C259" s="10">
         <v>1</v>
@@ -7016,12 +7036,12 @@
       <c r="L259" s="10"/>
       <c r="O259" s="10"/>
     </row>
-    <row r="260" spans="1:15" ht="54" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:15" ht="64" hidden="1">
       <c r="A260" s="23" t="s">
-        <v>225</v>
+        <v>207</v>
       </c>
       <c r="B260" s="20" t="s">
-        <v>224</v>
+        <v>206</v>
       </c>
       <c r="C260" s="10">
         <v>1</v>
@@ -7030,12 +7050,12 @@
       <c r="L260" s="10"/>
       <c r="O260" s="10"/>
     </row>
-    <row r="261" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:15" ht="16" hidden="1">
       <c r="A261" s="23" t="s">
-        <v>257</v>
+        <v>231</v>
       </c>
       <c r="B261" s="20" t="s">
-        <v>224</v>
+        <v>206</v>
       </c>
       <c r="C261" s="10">
         <v>1</v>
@@ -7044,12 +7064,12 @@
       <c r="L261" s="10"/>
       <c r="O261" s="10"/>
     </row>
-    <row r="262" spans="1:15" ht="27" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:15" ht="32" hidden="1">
       <c r="A262" s="23" t="s">
-        <v>258</v>
+        <v>309</v>
       </c>
       <c r="B262" s="20" t="s">
-        <v>224</v>
+        <v>206</v>
       </c>
       <c r="C262" s="10">
         <v>1</v>
@@ -7058,12 +7078,12 @@
       <c r="L262" s="10"/>
       <c r="O262" s="10"/>
     </row>
-    <row r="263" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:15" ht="16" hidden="1">
       <c r="A263" s="23" t="s">
-        <v>259</v>
+        <v>308</v>
       </c>
       <c r="B263" s="20" t="s">
-        <v>224</v>
+        <v>206</v>
       </c>
       <c r="C263" s="10">
         <v>1</v>
@@ -7072,12 +7092,12 @@
       <c r="L263" s="10"/>
       <c r="O263" s="10"/>
     </row>
-    <row r="264" spans="1:15" ht="27" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:15" ht="32" hidden="1">
       <c r="A264" s="23" t="s">
-        <v>260</v>
+        <v>232</v>
       </c>
       <c r="B264" s="20" t="s">
-        <v>224</v>
+        <v>206</v>
       </c>
       <c r="C264" s="10">
         <v>1</v>
@@ -7086,12 +7106,12 @@
       <c r="L264" s="10"/>
       <c r="O264" s="10"/>
     </row>
-    <row r="265" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:15" ht="16" hidden="1">
       <c r="A265" s="23" t="s">
-        <v>261</v>
+        <v>233</v>
       </c>
       <c r="B265" s="20" t="s">
-        <v>224</v>
+        <v>206</v>
       </c>
       <c r="C265" s="10">
         <v>1</v>
@@ -7100,12 +7120,12 @@
       <c r="L265" s="10"/>
       <c r="O265" s="10"/>
     </row>
-    <row r="266" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:15" ht="16" hidden="1">
       <c r="A266" s="23" t="s">
-        <v>262</v>
+        <v>234</v>
       </c>
       <c r="B266" s="20" t="s">
-        <v>224</v>
+        <v>206</v>
       </c>
       <c r="C266" s="10">
         <v>1</v>
@@ -7114,12 +7134,12 @@
       <c r="L266" s="10"/>
       <c r="O266" s="10"/>
     </row>
-    <row r="267" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:15" ht="16" hidden="1">
       <c r="A267" s="23" t="s">
-        <v>263</v>
+        <v>235</v>
       </c>
       <c r="B267" s="20" t="s">
-        <v>224</v>
+        <v>206</v>
       </c>
       <c r="C267" s="10">
         <v>1</v>
@@ -7128,12 +7148,12 @@
       <c r="L267" s="10"/>
       <c r="O267" s="10"/>
     </row>
-    <row r="268" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:15" ht="16" hidden="1">
       <c r="A268" s="23" t="s">
-        <v>264</v>
+        <v>236</v>
       </c>
       <c r="B268" s="20" t="s">
-        <v>224</v>
+        <v>206</v>
       </c>
       <c r="C268" s="10">
         <v>1</v>
@@ -7142,12 +7162,12 @@
       <c r="L268" s="10"/>
       <c r="O268" s="10"/>
     </row>
-    <row r="269" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:15" ht="16" hidden="1">
       <c r="A269" s="23" t="s">
-        <v>265</v>
+        <v>237</v>
       </c>
       <c r="B269" s="20" t="s">
-        <v>224</v>
+        <v>206</v>
       </c>
       <c r="C269" s="10">
         <v>1</v>
@@ -7156,12 +7176,12 @@
       <c r="L269" s="10"/>
       <c r="O269" s="10"/>
     </row>
-    <row r="270" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:15" ht="16" hidden="1">
       <c r="A270" s="23" t="s">
-        <v>266</v>
+        <v>238</v>
       </c>
       <c r="B270" s="20" t="s">
-        <v>224</v>
+        <v>206</v>
       </c>
       <c r="C270" s="10">
         <v>1</v>
@@ -7170,12 +7190,12 @@
       <c r="L270" s="10"/>
       <c r="O270" s="10"/>
     </row>
-    <row r="271" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:15" ht="16" hidden="1">
       <c r="A271" s="23" t="s">
-        <v>267</v>
+        <v>239</v>
       </c>
       <c r="B271" s="20" t="s">
-        <v>224</v>
+        <v>206</v>
       </c>
       <c r="C271" s="10">
         <v>1</v>
@@ -7184,12 +7204,12 @@
       <c r="L271" s="10"/>
       <c r="O271" s="10"/>
     </row>
-    <row r="272" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:15" ht="16" hidden="1">
       <c r="A272" s="23" t="s">
-        <v>268</v>
+        <v>240</v>
       </c>
       <c r="B272" s="20" t="s">
-        <v>224</v>
+        <v>206</v>
       </c>
       <c r="C272" s="10">
         <v>1</v>
@@ -7198,12 +7218,12 @@
       <c r="L272" s="10"/>
       <c r="O272" s="10"/>
     </row>
-    <row r="273" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:15" ht="16" hidden="1">
       <c r="A273" s="23" t="s">
-        <v>269</v>
+        <v>301</v>
       </c>
       <c r="B273" s="20" t="s">
-        <v>224</v>
+        <v>206</v>
       </c>
       <c r="C273" s="10">
         <v>1</v>
@@ -7212,12 +7232,12 @@
       <c r="L273" s="10"/>
       <c r="O273" s="10"/>
     </row>
-    <row r="274" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:15" ht="16" hidden="1">
       <c r="A274" s="23" t="s">
-        <v>270</v>
+        <v>241</v>
       </c>
       <c r="B274" s="20" t="s">
-        <v>224</v>
+        <v>206</v>
       </c>
       <c r="C274" s="10">
         <v>1</v>
@@ -7226,12 +7246,12 @@
       <c r="L274" s="10"/>
       <c r="O274" s="10"/>
     </row>
-    <row r="275" spans="1:15" ht="27" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:15" ht="32" hidden="1">
       <c r="A275" s="23" t="s">
-        <v>271</v>
+        <v>242</v>
       </c>
       <c r="B275" s="20" t="s">
-        <v>224</v>
+        <v>206</v>
       </c>
       <c r="C275" s="10">
         <v>1</v>
@@ -7240,12 +7260,12 @@
       <c r="L275" s="10"/>
       <c r="O275" s="10"/>
     </row>
-    <row r="276" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:15" ht="16" hidden="1">
       <c r="A276" s="23" t="s">
-        <v>272</v>
+        <v>243</v>
       </c>
       <c r="B276" s="20" t="s">
-        <v>224</v>
+        <v>206</v>
       </c>
       <c r="C276" s="10">
         <v>1</v>
@@ -7254,12 +7274,12 @@
       <c r="L276" s="10"/>
       <c r="O276" s="10"/>
     </row>
-    <row r="277" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:15" ht="16" hidden="1">
       <c r="A277" s="23" t="s">
-        <v>273</v>
+        <v>244</v>
       </c>
       <c r="B277" s="20" t="s">
-        <v>224</v>
+        <v>206</v>
       </c>
       <c r="C277" s="10">
         <v>1</v>
@@ -7268,12 +7288,12 @@
       <c r="L277" s="10"/>
       <c r="O277" s="10"/>
     </row>
-    <row r="278" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:15" ht="16" hidden="1">
       <c r="A278" s="23" t="s">
-        <v>274</v>
+        <v>245</v>
       </c>
       <c r="B278" s="20" t="s">
-        <v>224</v>
+        <v>206</v>
       </c>
       <c r="C278" s="10">
         <v>1</v>
@@ -7282,12 +7302,12 @@
       <c r="L278" s="10"/>
       <c r="O278" s="10"/>
     </row>
-    <row r="279" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:15" ht="16" hidden="1">
       <c r="A279" s="23" t="s">
-        <v>233</v>
+        <v>215</v>
       </c>
       <c r="B279" s="20" t="s">
-        <v>224</v>
+        <v>206</v>
       </c>
       <c r="C279" s="10">
         <v>1</v>
@@ -7296,12 +7316,12 @@
       <c r="L279" s="10"/>
       <c r="O279" s="10"/>
     </row>
-    <row r="280" spans="1:15" ht="40.5" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:15" ht="48" hidden="1">
       <c r="A280" s="23" t="s">
-        <v>275</v>
+        <v>246</v>
       </c>
       <c r="B280" s="20" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="C280" s="10">
         <v>2</v>
@@ -7310,12 +7330,12 @@
       <c r="L280" s="10"/>
       <c r="O280" s="10"/>
     </row>
-    <row r="281" spans="1:15" ht="40.5" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:15" ht="48" hidden="1">
       <c r="A281" s="23" t="s">
-        <v>276</v>
+        <v>247</v>
       </c>
       <c r="B281" s="20" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="C281" s="10">
         <v>2</v>
@@ -7324,12 +7344,12 @@
       <c r="L281" s="10"/>
       <c r="O281" s="10"/>
     </row>
-    <row r="282" spans="1:15" ht="40.5" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:15" ht="48" hidden="1">
       <c r="A282" s="23" t="s">
-        <v>277</v>
+        <v>248</v>
       </c>
       <c r="B282" s="20" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="C282" s="10">
         <v>2</v>
@@ -7338,12 +7358,12 @@
       <c r="L282" s="10"/>
       <c r="O282" s="10"/>
     </row>
-    <row r="283" spans="1:15" ht="81" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:15" ht="96" hidden="1">
       <c r="A283" s="23" t="s">
-        <v>278</v>
+        <v>249</v>
       </c>
       <c r="B283" s="20" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="C283" s="10">
         <v>2</v>
@@ -7352,12 +7372,12 @@
       <c r="L283" s="10"/>
       <c r="O283" s="10"/>
     </row>
-    <row r="284" spans="1:15" ht="40.5" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:15" ht="48" hidden="1">
       <c r="A284" s="23" t="s">
-        <v>279</v>
+        <v>250</v>
       </c>
       <c r="B284" s="20" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="C284" s="10">
         <v>2</v>
@@ -7366,12 +7386,12 @@
       <c r="L284" s="10"/>
       <c r="O284" s="10"/>
     </row>
-    <row r="285" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:15" ht="16" hidden="1">
       <c r="A285" s="23" t="s">
-        <v>280</v>
+        <v>251</v>
       </c>
       <c r="B285" s="20" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="C285" s="10">
         <v>2</v>
@@ -7380,12 +7400,12 @@
       <c r="L285" s="10"/>
       <c r="O285" s="10"/>
     </row>
-    <row r="286" spans="1:15" ht="67.5" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:15" ht="80" hidden="1">
       <c r="A286" s="23" t="s">
-        <v>281</v>
+        <v>252</v>
       </c>
       <c r="B286" s="20" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="C286" s="10">
         <v>2</v>
@@ -7394,12 +7414,12 @@
       <c r="L286" s="10"/>
       <c r="O286" s="10"/>
     </row>
-    <row r="287" spans="1:15" ht="27" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:15" ht="32" hidden="1">
       <c r="A287" s="23" t="s">
-        <v>282</v>
+        <v>253</v>
       </c>
       <c r="B287" s="20" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="C287" s="10">
         <v>2</v>
@@ -7408,12 +7428,12 @@
       <c r="L287" s="10"/>
       <c r="O287" s="10"/>
     </row>
-    <row r="288" spans="1:15" ht="54" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:15" ht="64" hidden="1">
       <c r="A288" s="23" t="s">
-        <v>283</v>
+        <v>254</v>
       </c>
       <c r="B288" s="20" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="C288" s="10">
         <v>2</v>
@@ -7422,12 +7442,12 @@
       <c r="L288" s="10"/>
       <c r="O288" s="10"/>
     </row>
-    <row r="289" spans="1:15" ht="67.5" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:15" ht="80" hidden="1">
       <c r="A289" s="23" t="s">
-        <v>284</v>
+        <v>311</v>
       </c>
       <c r="B289" s="20" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="C289" s="10">
         <v>2</v>
@@ -7436,12 +7456,12 @@
       <c r="L289" s="10"/>
       <c r="O289" s="10"/>
     </row>
-    <row r="290" spans="1:15" ht="40.5" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:15" ht="48" hidden="1">
       <c r="A290" s="23" t="s">
-        <v>285</v>
+        <v>255</v>
       </c>
       <c r="B290" s="20" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="C290" s="10">
         <v>2</v>
@@ -7450,12 +7470,12 @@
       <c r="L290" s="10"/>
       <c r="O290" s="10"/>
     </row>
-    <row r="291" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:15" ht="16" hidden="1">
       <c r="A291" s="23" t="s">
-        <v>286</v>
+        <v>256</v>
       </c>
       <c r="B291" s="20" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="C291" s="10">
         <v>2</v>
@@ -7464,12 +7484,12 @@
       <c r="L291" s="10"/>
       <c r="O291" s="10"/>
     </row>
-    <row r="292" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:15" ht="16" hidden="1">
       <c r="A292" s="23" t="s">
-        <v>287</v>
+        <v>257</v>
       </c>
       <c r="B292" s="20" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="C292" s="10">
         <v>2</v>
@@ -7479,6 +7499,13 @@
       <c r="O292" s="10"/>
     </row>
   </sheetData>
+  <autoFilter ref="B1:B292" xr:uid="{FA1A086F-8425-6F47-9951-01E60A9FEFB3}">
+    <filterColumn colId="0">
+      <filters>
+        <filter val="대인관계"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/flaskTest/flaskTest/w.xlsx
+++ b/flaskTest/flaskTest/w.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zhi/Desktop/Project/PURESum-Server/flaskTest/flaskTest/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2241956-04B3-3046-B3D7-7F2C9E4B4743}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65F9578A-0E31-C849-98C4-DAC7E464E7A9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2980" yWindow="2040" windowWidth="27900" windowHeight="16940" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="16800" windowHeight="20540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$B$1:$B$292</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$B$1:$B$260</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -28,13 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="585" uniqueCount="319">
-  <si>
-    <t>여행, 연애</t>
-  </si>
-  <si>
-    <t>상하관계의 스트레스를 해결하긴 어렵지만 쌓이고나면 인정받는 방법! , 주변사람 장단점찾기</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="521" uniqueCount="283">
   <si>
     <t>진로에대한 고민이 컸고 대학 입학 후 크게 방황을 거쳤습니다. 학교를 중퇴하고 학교 밖 세상에서 다양한 것들을 배우며 살다가 지금이 됐어요. 그 시간들을 통해 배운 게 많습니다. 그리고 그런 경험과 연결되어 제 자신을 아는 것, 인생 전반, 삶을 이해하고 탐구하는 것에 큰 관심을 갖게 되었습니다.</t>
   </si>
@@ -52,38 +46,20 @@
     <t>진로</t>
   </si>
   <si>
-    <t>증권사 재직중</t>
-  </si>
-  <si>
     <t>솔직히 말하면 후회없는 이별이 어디있겠어요. 순간의 마음이 순간을 결정하는건데 그 순간의 결정은 모두 자신의 책임이겠죠. 누굴 탓할수도 없는거고 결국 시간만이 해결할 수 있다고 생각합니다. 조금 아플수도 있는 이야기지만 어쩌겠어요. 내가 선택한 일인데.</t>
   </si>
   <si>
-    <t>약사로서의 진로상담해드립니다</t>
-  </si>
-  <si>
     <t>자존감</t>
-  </si>
-  <si>
-    <t>편입에 대한고민</t>
-  </si>
-  <si>
-    <t>후회가 되어</t>
   </si>
   <si>
     <t>총 7번의 연애 경험. 짧게는 3개월부터 길게는 2년의 연애를 하면서 다양한 사람들을 만났고, 다양한 성격에 대해 분석적인 안목을 갖게 되었습니다.
 잠수이별을 당한적도, 상황때문에 이별한 경험도 있습니다. 서로 다른 가치관과 배경을 가진 사람들을 이해하고 배려하며 지내는 방법을 배웠습니다.</t>
   </si>
   <si>
-    <t>저는  결론적으로봤을때 분노조절장애(정식적인 건아님니다) 의 남친과 대학교 과CC 로3년을사겼습니다</t>
-  </si>
-  <si>
     <t>대인관계</t>
   </si>
   <si>
     <t>고등학교 시절 부모님의 사이가 좋지 않아 3년정도 냉전기간이 있었습니다. 그 시기에 집에 들어가기도 싫고 눈치도 많이 봐야해서 꽤 힘들었죠. 또한 3살 아래의 여동생도 있어서 오빠로서 걱정도 많이 했습니다. 그렇게 3년이 지나고 부모님께 각자 삶을 사는게 어떻냐고 제안을 했고 그 이후 부모님은 이혼을 하시고 각자의 삶을 살아가고 계십니다. 저와 동생도 이혼 초반에는 행동/생활을 어떻게 해야할지 잘 몰랐지만 시간이 많이 흐른 지금 그래도 이혼을 하는게 맞다는 생각을 하며 잘 지내고 있습니다.</t>
-  </si>
-  <si>
-    <t>졸업 전 취업</t>
   </si>
   <si>
     <t>항공서비스 경영학과 4년제 졸업하였고 현재 승무원 준비생이고 
@@ -129,81 +105,14 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>연애</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>일상</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>알바</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>진로</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>인간관계</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>인간 관계</t>
-  </si>
-  <si>
-    <t>대인관계</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>일상</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>여행설계</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>인턴추천</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>진로</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>취업준비</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>취준</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>고무신</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>연애상담</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>대인관계</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>친구관계</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>인생에서 취미는 있어야 한다고 생각하게 되었습니다. 없으면 심심하다는 것을 깨달았죠.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>인간관계</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>사람들과 어울리기를 좋아해서 살면서 인간관계의 성공과 실패를 많이 겪었습니다.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -217,27 +126,7 @@
     <t xml:space="preserve">취준기간에 사랑하던 사람이 바람을 피고 울면서 면접을 보러갔던 경험도 있습니다. </t>
   </si>
   <si>
-    <t>자기계발</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>진로</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>저를 지지해준 누군가가 있어 목소리를 내고 행동하며 밝아질 수 있었어요.</t>
-  </si>
-  <si>
-    <t>일과 휴식의 필요성</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SW 개발자 취업</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>대학교 전과, 취업 준비</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>진로 고민, 이때까지 내가 하고 싶은게 무엇인지 알기 위해 별행동을 다하고 오래도록 고민한 경험이 있습니다. 
@@ -273,20 +162,6 @@
   </si>
   <si>
     <t>철벽녀 연애를 경험한것은 별로 많지 않습니다 하지만, 연애감정이 생기고 좋아하는 사람들에게 제 마음을 표현하려고 노력한 적은 정말 수도 없이 많은데요. 이 과정에서 전 늘 이성에게 마음을 전하지 못하고 실패를 한적이 대부분입니다. 저의 문제가 무엇인지 생각해보고, 그것을 통해 가장 중요한것은 호감을 얻는데에 우선적으로 필요한것은 대화를 통해서 공감대를 형성하고 그들의 말을 들어주는것이 가장 필수적이라고 느꼈습니다. 흔히들 말하는 밀당은 연애를 하는 도중에 하는 과정이라고 생각하고 그저 당기기밖에 못했던 제가 우선 그러한 부수적인 과정보다도 대화를 통해서 친밀감을 형성하는게 가장 우선적이라고 깨달았습니다</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>용기가 필요할때 대처법</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t/>
-    </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -337,13 +212,6 @@
     <t>인간관계에 회의감을 느끼는 나</t>
   </si>
   <si>
-    <t>대인관계</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>비전공으로 취업하려니 막연한 두려움</t>
-  </si>
-  <si>
     <t>음식도 먹어 본 사람이 더 잘 먹는 법이고,
 사랑도 해본 사람이 더 잘 지켜나가는 법이죠.
 모두가 충분히 느끼고 있고, 힘들어하고 있고,
@@ -383,14 +251,6 @@
     <t>자존감 이 낮아져서 나를 미워한 적도 많아요</t>
   </si>
   <si>
-    <t>바람 핀 전남자친구 때문에 자해 를 한적도 있고</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>썸,미팅,소개팅,자연스러운 만남까지 썸관련 여러 경험들을 가지고 있어요. 같이 얘기하면서 연애고민을 풀어나가보아요.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>어학, 러시아어를 전공했고 영어를 사랑하는 문학사입니다. 가르치는 것도 좋아하고 언어에 대해 이야기하는 것을 좋아해요 :) 지금은 외국계 기업에 재직하면서 영어교육봉사를 하고 있어요.
 경험주의자, 저는 뭐든지 해보는것이 좋다고 생각해요. 그래서 시베리아에서 일했고, 횡단열차에 올랐고, 100만원만 들고 유럽여행을 했어요. 뷔페서빙 아르바이트부터 법무사 사무보조까지 다양한 아르바이트를 한 것도 그 이유 때문이에요. 제가 해봤던 다양한 경험이 누군가에게 도움이 된다면 그보다 더 좋을 수 없을 것 같아요.</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -487,10 +347,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>연애경험 4회</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>비교도 심해지고 우울해졌어요. 힘이 나지 않을 때 객관적으로 보고 감정적이지 않으려 노력하면서부터 많이 변했어요.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -556,7 +412,7 @@
   </si>
   <si>
     <t>왕따도 당해보고 친구오ㅏ 싸워보기도하고 먼저다가가 보기도하고 정말많은 친구 관계에 문제가 많았어요 나같은사람들이 힘들어하지않게 고민을들어주고 친구와애기하듯이 친구처럼 지내고싶어요</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>대인관계</t>
@@ -1244,7 +1100,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="13">
+  <fonts count="12">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1259,11 +1115,6 @@
       <family val="2"/>
       <charset val="129"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
@@ -1399,77 +1250,77 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1786,11 +1637,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <sheetPr filterMode="1"/>
-  <dimension ref="A1:AC292"/>
+  <dimension ref="A1:AC260"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="A87" sqref="A87"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.7109375" defaultRowHeight="15"/>
@@ -1802,13 +1652,13 @@
   <sheetData>
     <row r="1" spans="1:29" s="1" customFormat="1" ht="16">
       <c r="A1" s="11" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>280</v>
+        <v>244</v>
       </c>
       <c r="D1" s="2"/>
       <c r="E1" s="2"/>
@@ -1837,19 +1687,19 @@
       <c r="AB1" s="3"/>
       <c r="AC1" s="3"/>
     </row>
-    <row r="2" spans="1:29" ht="16" hidden="1">
+    <row r="2" spans="1:29" ht="32">
       <c r="A2" s="13" t="s">
-        <v>66</v>
+        <v>28</v>
       </c>
       <c r="B2" s="14" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="C2" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D2" s="4"/>
       <c r="E2" s="4"/>
-      <c r="F2" s="5"/>
+      <c r="F2" s="4"/>
       <c r="G2" s="4"/>
       <c r="H2" s="4"/>
       <c r="I2" s="5"/>
@@ -1859,11 +1709,11 @@
       <c r="M2" s="4"/>
       <c r="N2" s="4"/>
       <c r="O2" s="4"/>
-      <c r="P2" s="5"/>
+      <c r="P2" s="4"/>
       <c r="Q2" s="4"/>
       <c r="R2" s="5"/>
       <c r="S2" s="5"/>
-      <c r="T2" s="5"/>
+      <c r="T2" s="4"/>
       <c r="U2" s="4"/>
       <c r="V2" s="5"/>
       <c r="W2" s="4"/>
@@ -1874,19 +1724,19 @@
       <c r="AB2" s="4"/>
       <c r="AC2" s="4"/>
     </row>
-    <row r="3" spans="1:29" ht="16" hidden="1">
-      <c r="A3" s="13" t="s">
-        <v>55</v>
+    <row r="3" spans="1:29" ht="80">
+      <c r="A3" s="16" t="s">
+        <v>223</v>
       </c>
       <c r="B3" s="14" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="C3" s="4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D3" s="4"/>
       <c r="E3" s="4"/>
-      <c r="F3" s="5"/>
+      <c r="F3" s="4"/>
       <c r="G3" s="4"/>
       <c r="H3" s="4"/>
       <c r="I3" s="5"/>
@@ -1894,13 +1744,13 @@
       <c r="K3" s="4"/>
       <c r="L3" s="4"/>
       <c r="M3" s="4"/>
-      <c r="N3" s="4"/>
+      <c r="N3" s="5"/>
       <c r="O3" s="4"/>
-      <c r="P3" s="5"/>
+      <c r="P3" s="4"/>
       <c r="Q3" s="4"/>
       <c r="R3" s="5"/>
-      <c r="S3" s="5"/>
-      <c r="T3" s="5"/>
+      <c r="S3" s="4"/>
+      <c r="T3" s="4"/>
       <c r="U3" s="4"/>
       <c r="V3" s="5"/>
       <c r="W3" s="4"/>
@@ -1911,15 +1761,15 @@
       <c r="AB3" s="4"/>
       <c r="AC3" s="4"/>
     </row>
-    <row r="4" spans="1:29" ht="16" hidden="1">
-      <c r="A4" s="13" t="s">
-        <v>25</v>
+    <row r="4" spans="1:29" ht="80">
+      <c r="A4" s="16" t="s">
+        <v>222</v>
       </c>
       <c r="B4" s="14" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="C4" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D4" s="4"/>
       <c r="E4" s="4"/>
@@ -1931,14 +1781,14 @@
       <c r="K4" s="4"/>
       <c r="L4" s="4"/>
       <c r="M4" s="4"/>
-      <c r="N4" s="4"/>
+      <c r="N4" s="5"/>
       <c r="O4" s="4"/>
       <c r="P4" s="4"/>
       <c r="Q4" s="4"/>
-      <c r="R4" s="4"/>
+      <c r="R4" s="5"/>
       <c r="S4" s="4"/>
-      <c r="T4" s="5"/>
-      <c r="U4" s="5"/>
+      <c r="T4" s="4"/>
+      <c r="U4" s="4"/>
       <c r="V4" s="5"/>
       <c r="W4" s="4"/>
       <c r="X4" s="5"/>
@@ -1948,12 +1798,12 @@
       <c r="AB4" s="4"/>
       <c r="AC4" s="4"/>
     </row>
-    <row r="5" spans="1:29" ht="16" hidden="1">
-      <c r="A5" s="13" t="s">
-        <v>31</v>
+    <row r="5" spans="1:29" ht="80">
+      <c r="A5" s="16" t="s">
+        <v>247</v>
       </c>
       <c r="B5" s="14" t="s">
-        <v>32</v>
+        <v>18</v>
       </c>
       <c r="C5" s="4">
         <v>1</v>
@@ -1968,14 +1818,14 @@
       <c r="K5" s="4"/>
       <c r="L5" s="4"/>
       <c r="M5" s="4"/>
-      <c r="N5" s="4"/>
+      <c r="N5" s="5"/>
       <c r="O5" s="4"/>
       <c r="P5" s="4"/>
       <c r="Q5" s="4"/>
-      <c r="R5" s="4"/>
+      <c r="R5" s="5"/>
       <c r="S5" s="4"/>
-      <c r="T5" s="5"/>
-      <c r="U5" s="5"/>
+      <c r="T5" s="4"/>
+      <c r="U5" s="4"/>
       <c r="V5" s="5"/>
       <c r="W5" s="4"/>
       <c r="X5" s="5"/>
@@ -1985,12 +1835,12 @@
       <c r="AB5" s="4"/>
       <c r="AC5" s="4"/>
     </row>
-    <row r="6" spans="1:29" ht="16">
-      <c r="A6" s="13" t="s">
-        <v>33</v>
+    <row r="6" spans="1:29" ht="80">
+      <c r="A6" s="16" t="s">
+        <v>29</v>
       </c>
       <c r="B6" s="14" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="C6" s="4">
         <v>4</v>
@@ -2005,14 +1855,14 @@
       <c r="K6" s="4"/>
       <c r="L6" s="4"/>
       <c r="M6" s="4"/>
-      <c r="N6" s="4"/>
+      <c r="N6" s="5"/>
       <c r="O6" s="4"/>
       <c r="P6" s="4"/>
       <c r="Q6" s="4"/>
-      <c r="R6" s="4"/>
+      <c r="R6" s="5"/>
       <c r="S6" s="4"/>
-      <c r="T6" s="5"/>
-      <c r="U6" s="5"/>
+      <c r="T6" s="4"/>
+      <c r="U6" s="4"/>
       <c r="V6" s="5"/>
       <c r="W6" s="4"/>
       <c r="X6" s="5"/>
@@ -2022,15 +1872,15 @@
       <c r="AB6" s="4"/>
       <c r="AC6" s="4"/>
     </row>
-    <row r="7" spans="1:29" ht="16" hidden="1">
+    <row r="7" spans="1:29" ht="64">
       <c r="A7" s="13" t="s">
-        <v>56</v>
+        <v>30</v>
       </c>
       <c r="B7" s="14" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="C7" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D7" s="4"/>
       <c r="E7" s="4"/>
@@ -2052,22 +1902,22 @@
       <c r="U7" s="4"/>
       <c r="V7" s="5"/>
       <c r="W7" s="4"/>
-      <c r="X7" s="7"/>
+      <c r="X7" s="5"/>
       <c r="Y7" s="5"/>
       <c r="Z7" s="5"/>
       <c r="AA7" s="4"/>
       <c r="AB7" s="4"/>
       <c r="AC7" s="4"/>
     </row>
-    <row r="8" spans="1:29" ht="16">
+    <row r="8" spans="1:29" ht="96">
       <c r="A8" s="13" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B8" s="14" t="s">
-        <v>35</v>
+        <v>18</v>
       </c>
       <c r="C8" s="4">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D8" s="4"/>
       <c r="E8" s="4"/>
@@ -2085,7 +1935,7 @@
       <c r="Q8" s="4"/>
       <c r="R8" s="5"/>
       <c r="S8" s="5"/>
-      <c r="T8" s="5"/>
+      <c r="T8" s="4"/>
       <c r="U8" s="4"/>
       <c r="V8" s="5"/>
       <c r="W8" s="4"/>
@@ -2096,86 +1946,86 @@
       <c r="AB8" s="4"/>
       <c r="AC8" s="4"/>
     </row>
-    <row r="9" spans="1:29" ht="16" hidden="1">
-      <c r="A9" s="13" t="s">
-        <v>0</v>
+    <row r="9" spans="1:29" s="9" customFormat="1" ht="16">
+      <c r="A9" s="17" t="s">
+        <v>32</v>
       </c>
       <c r="B9" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="C9" s="4">
-        <v>0</v>
-      </c>
-      <c r="D9" s="4"/>
-      <c r="E9" s="4"/>
-      <c r="F9" s="4"/>
-      <c r="G9" s="4"/>
-      <c r="H9" s="5"/>
-      <c r="I9" s="5"/>
-      <c r="J9" s="4"/>
-      <c r="K9" s="4"/>
-      <c r="L9" s="4"/>
-      <c r="M9" s="4"/>
-      <c r="N9" s="5"/>
-      <c r="O9" s="4"/>
-      <c r="P9" s="5"/>
-      <c r="Q9" s="4"/>
-      <c r="R9" s="5"/>
-      <c r="S9" s="5"/>
-      <c r="T9" s="4"/>
-      <c r="U9" s="5"/>
-      <c r="V9" s="5"/>
-      <c r="W9" s="4"/>
-      <c r="X9" s="5"/>
-      <c r="Y9" s="5"/>
-      <c r="Z9" s="5"/>
-      <c r="AA9" s="4"/>
-      <c r="AB9" s="4"/>
-      <c r="AC9" s="4"/>
-    </row>
-    <row r="10" spans="1:29" ht="16">
-      <c r="A10" s="13" t="s">
-        <v>1</v>
+        <v>16</v>
+      </c>
+      <c r="C9" s="8">
+        <v>2</v>
+      </c>
+      <c r="D9" s="8"/>
+      <c r="E9" s="8"/>
+      <c r="F9" s="8"/>
+      <c r="G9" s="8"/>
+      <c r="H9" s="8"/>
+      <c r="I9" s="8"/>
+      <c r="J9" s="8"/>
+      <c r="K9" s="8"/>
+      <c r="L9" s="8"/>
+      <c r="M9" s="8"/>
+      <c r="N9" s="8"/>
+      <c r="O9" s="8"/>
+      <c r="P9" s="8"/>
+      <c r="Q9" s="8"/>
+      <c r="R9" s="8"/>
+      <c r="S9" s="8"/>
+      <c r="T9" s="8"/>
+      <c r="U9" s="8"/>
+      <c r="V9" s="8"/>
+      <c r="W9" s="8"/>
+      <c r="X9" s="8"/>
+      <c r="Y9" s="8"/>
+      <c r="Z9" s="8"/>
+      <c r="AA9" s="8"/>
+      <c r="AB9" s="8"/>
+      <c r="AC9" s="8"/>
+    </row>
+    <row r="10" spans="1:29" s="9" customFormat="1" ht="16">
+      <c r="A10" s="17" t="s">
+        <v>33</v>
       </c>
       <c r="B10" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="C10" s="4">
-        <v>4</v>
-      </c>
-      <c r="D10" s="4"/>
-      <c r="E10" s="4"/>
-      <c r="F10" s="4"/>
-      <c r="G10" s="4"/>
-      <c r="H10" s="4"/>
-      <c r="I10" s="5"/>
-      <c r="J10" s="4"/>
-      <c r="K10" s="4"/>
-      <c r="L10" s="4"/>
-      <c r="M10" s="4"/>
-      <c r="N10" s="4"/>
-      <c r="O10" s="4"/>
-      <c r="P10" s="4"/>
-      <c r="Q10" s="4"/>
-      <c r="R10" s="5"/>
-      <c r="S10" s="5"/>
-      <c r="T10" s="5"/>
-      <c r="U10" s="4"/>
-      <c r="V10" s="5"/>
-      <c r="W10" s="4"/>
-      <c r="X10" s="7"/>
-      <c r="Y10" s="5"/>
-      <c r="Z10" s="5"/>
-      <c r="AA10" s="4"/>
-      <c r="AB10" s="4"/>
-      <c r="AC10" s="4"/>
-    </row>
-    <row r="11" spans="1:29" ht="16" hidden="1">
+        <v>17</v>
+      </c>
+      <c r="C10" s="8">
+        <v>0</v>
+      </c>
+      <c r="D10" s="8"/>
+      <c r="E10" s="8"/>
+      <c r="F10" s="8"/>
+      <c r="G10" s="8"/>
+      <c r="H10" s="8"/>
+      <c r="I10" s="8"/>
+      <c r="J10" s="8"/>
+      <c r="K10" s="8"/>
+      <c r="L10" s="8"/>
+      <c r="M10" s="8"/>
+      <c r="N10" s="8"/>
+      <c r="O10" s="8"/>
+      <c r="P10" s="8"/>
+      <c r="Q10" s="8"/>
+      <c r="R10" s="8"/>
+      <c r="S10" s="8"/>
+      <c r="T10" s="8"/>
+      <c r="U10" s="8"/>
+      <c r="V10" s="8"/>
+      <c r="W10" s="8"/>
+      <c r="X10" s="8"/>
+      <c r="Y10" s="8"/>
+      <c r="Z10" s="8"/>
+      <c r="AA10" s="8"/>
+      <c r="AB10" s="8"/>
+      <c r="AC10" s="8"/>
+    </row>
+    <row r="11" spans="1:29" ht="32">
       <c r="A11" s="13" t="s">
-        <v>57</v>
+        <v>0</v>
       </c>
       <c r="B11" s="14" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="C11" s="4">
         <v>1</v>
@@ -2185,7 +2035,7 @@
       <c r="F11" s="4"/>
       <c r="G11" s="4"/>
       <c r="H11" s="4"/>
-      <c r="I11" s="5"/>
+      <c r="I11" s="4"/>
       <c r="J11" s="4"/>
       <c r="K11" s="4"/>
       <c r="L11" s="4"/>
@@ -2197,7 +2047,7 @@
       <c r="R11" s="5"/>
       <c r="S11" s="5"/>
       <c r="T11" s="4"/>
-      <c r="U11" s="5"/>
+      <c r="U11" s="4"/>
       <c r="V11" s="5"/>
       <c r="W11" s="4"/>
       <c r="X11" s="5"/>
@@ -2207,21 +2057,21 @@
       <c r="AB11" s="4"/>
       <c r="AC11" s="4"/>
     </row>
-    <row r="12" spans="1:29" ht="32" hidden="1">
+    <row r="12" spans="1:29" ht="96">
       <c r="A12" s="13" t="s">
-        <v>58</v>
+        <v>248</v>
       </c>
       <c r="B12" s="14" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="C12" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D12" s="4"/>
       <c r="E12" s="4"/>
-      <c r="F12" s="4"/>
+      <c r="F12" s="5"/>
       <c r="G12" s="4"/>
-      <c r="H12" s="4"/>
+      <c r="H12" s="5"/>
       <c r="I12" s="5"/>
       <c r="J12" s="4"/>
       <c r="K12" s="4"/>
@@ -2233,7 +2083,7 @@
       <c r="Q12" s="4"/>
       <c r="R12" s="5"/>
       <c r="S12" s="5"/>
-      <c r="T12" s="4"/>
+      <c r="T12" s="5"/>
       <c r="U12" s="4"/>
       <c r="V12" s="5"/>
       <c r="W12" s="4"/>
@@ -2244,15 +2094,15 @@
       <c r="AB12" s="4"/>
       <c r="AC12" s="4"/>
     </row>
-    <row r="13" spans="1:29" ht="80" hidden="1">
-      <c r="A13" s="16" t="s">
-        <v>259</v>
+    <row r="13" spans="1:29" ht="48">
+      <c r="A13" s="13" t="s">
+        <v>1</v>
       </c>
       <c r="B13" s="14" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="C13" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D13" s="4"/>
       <c r="E13" s="4"/>
@@ -2264,13 +2114,13 @@
       <c r="K13" s="4"/>
       <c r="L13" s="4"/>
       <c r="M13" s="4"/>
-      <c r="N13" s="5"/>
+      <c r="N13" s="4"/>
       <c r="O13" s="4"/>
       <c r="P13" s="4"/>
       <c r="Q13" s="4"/>
       <c r="R13" s="5"/>
-      <c r="S13" s="4"/>
-      <c r="T13" s="4"/>
+      <c r="S13" s="5"/>
+      <c r="T13" s="5"/>
       <c r="U13" s="4"/>
       <c r="V13" s="5"/>
       <c r="W13" s="4"/>
@@ -2281,33 +2131,33 @@
       <c r="AB13" s="4"/>
       <c r="AC13" s="4"/>
     </row>
-    <row r="14" spans="1:29" ht="80" hidden="1">
-      <c r="A14" s="16" t="s">
-        <v>258</v>
+    <row r="14" spans="1:29" ht="16">
+      <c r="A14" s="13" t="s">
+        <v>22</v>
       </c>
       <c r="B14" s="14" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="C14" s="4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D14" s="4"/>
       <c r="E14" s="4"/>
       <c r="F14" s="4"/>
       <c r="G14" s="4"/>
-      <c r="H14" s="4"/>
+      <c r="H14" s="5"/>
       <c r="I14" s="5"/>
       <c r="J14" s="4"/>
       <c r="K14" s="4"/>
       <c r="L14" s="4"/>
       <c r="M14" s="4"/>
-      <c r="N14" s="5"/>
+      <c r="N14" s="4"/>
       <c r="O14" s="4"/>
       <c r="P14" s="4"/>
       <c r="Q14" s="4"/>
       <c r="R14" s="5"/>
-      <c r="S14" s="4"/>
-      <c r="T14" s="4"/>
+      <c r="S14" s="5"/>
+      <c r="T14" s="5"/>
       <c r="U14" s="4"/>
       <c r="V14" s="5"/>
       <c r="W14" s="4"/>
@@ -2318,12 +2168,12 @@
       <c r="AB14" s="4"/>
       <c r="AC14" s="4"/>
     </row>
-    <row r="15" spans="1:29" ht="80" hidden="1">
-      <c r="A15" s="16" t="s">
-        <v>283</v>
+    <row r="15" spans="1:29" ht="16">
+      <c r="A15" s="13" t="s">
+        <v>34</v>
       </c>
       <c r="B15" s="14" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="C15" s="4">
         <v>1</v>
@@ -2333,18 +2183,18 @@
       <c r="F15" s="4"/>
       <c r="G15" s="4"/>
       <c r="H15" s="4"/>
-      <c r="I15" s="5"/>
+      <c r="I15" s="4"/>
       <c r="J15" s="4"/>
       <c r="K15" s="4"/>
       <c r="L15" s="4"/>
       <c r="M15" s="4"/>
-      <c r="N15" s="5"/>
+      <c r="N15" s="4"/>
       <c r="O15" s="4"/>
       <c r="P15" s="4"/>
       <c r="Q15" s="4"/>
       <c r="R15" s="5"/>
-      <c r="S15" s="4"/>
-      <c r="T15" s="4"/>
+      <c r="S15" s="5"/>
+      <c r="T15" s="5"/>
       <c r="U15" s="4"/>
       <c r="V15" s="5"/>
       <c r="W15" s="4"/>
@@ -2355,34 +2205,34 @@
       <c r="AB15" s="4"/>
       <c r="AC15" s="4"/>
     </row>
-    <row r="16" spans="1:29" ht="80">
-      <c r="A16" s="16" t="s">
-        <v>59</v>
+    <row r="16" spans="1:29" ht="16">
+      <c r="A16" s="13" t="s">
+        <v>23</v>
       </c>
       <c r="B16" s="14" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="C16" s="4">
         <v>4</v>
       </c>
       <c r="D16" s="4"/>
       <c r="E16" s="4"/>
-      <c r="F16" s="4"/>
+      <c r="F16" s="5"/>
       <c r="G16" s="4"/>
-      <c r="H16" s="4"/>
+      <c r="H16" s="5"/>
       <c r="I16" s="5"/>
       <c r="J16" s="4"/>
       <c r="K16" s="4"/>
       <c r="L16" s="4"/>
       <c r="M16" s="4"/>
-      <c r="N16" s="5"/>
+      <c r="N16" s="4"/>
       <c r="O16" s="4"/>
       <c r="P16" s="4"/>
       <c r="Q16" s="4"/>
       <c r="R16" s="5"/>
-      <c r="S16" s="4"/>
-      <c r="T16" s="4"/>
-      <c r="U16" s="4"/>
+      <c r="S16" s="5"/>
+      <c r="T16" s="5"/>
+      <c r="U16" s="5"/>
       <c r="V16" s="5"/>
       <c r="W16" s="4"/>
       <c r="X16" s="5"/>
@@ -2392,35 +2242,35 @@
       <c r="AB16" s="4"/>
       <c r="AC16" s="4"/>
     </row>
-    <row r="17" spans="1:29" ht="64" hidden="1">
+    <row r="17" spans="1:29" ht="16">
       <c r="A17" s="13" t="s">
-        <v>60</v>
+        <v>36</v>
       </c>
       <c r="B17" s="14" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="C17" s="4">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D17" s="4"/>
       <c r="E17" s="4"/>
       <c r="F17" s="4"/>
       <c r="G17" s="4"/>
-      <c r="H17" s="4"/>
+      <c r="H17" s="5"/>
       <c r="I17" s="5"/>
       <c r="J17" s="4"/>
       <c r="K17" s="4"/>
       <c r="L17" s="4"/>
       <c r="M17" s="4"/>
-      <c r="N17" s="4"/>
+      <c r="N17" s="5"/>
       <c r="O17" s="4"/>
-      <c r="P17" s="4"/>
+      <c r="P17" s="5"/>
       <c r="Q17" s="4"/>
-      <c r="R17" s="5"/>
-      <c r="S17" s="5"/>
-      <c r="T17" s="5"/>
+      <c r="R17" s="4"/>
+      <c r="S17" s="4"/>
+      <c r="T17" s="4"/>
       <c r="U17" s="4"/>
-      <c r="V17" s="5"/>
+      <c r="V17" s="4"/>
       <c r="W17" s="4"/>
       <c r="X17" s="5"/>
       <c r="Y17" s="5"/>
@@ -2429,95 +2279,95 @@
       <c r="AB17" s="4"/>
       <c r="AC17" s="4"/>
     </row>
-    <row r="18" spans="1:29" ht="96" hidden="1">
+    <row r="18" spans="1:29" ht="80">
       <c r="A18" s="13" t="s">
-        <v>61</v>
+        <v>24</v>
       </c>
       <c r="B18" s="14" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="C18" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D18" s="4"/>
       <c r="E18" s="4"/>
       <c r="F18" s="4"/>
       <c r="G18" s="4"/>
-      <c r="H18" s="4"/>
+      <c r="H18" s="5"/>
       <c r="I18" s="5"/>
       <c r="J18" s="4"/>
       <c r="K18" s="4"/>
       <c r="L18" s="4"/>
       <c r="M18" s="4"/>
-      <c r="N18" s="4"/>
+      <c r="N18" s="5"/>
       <c r="O18" s="4"/>
-      <c r="P18" s="4"/>
+      <c r="P18" s="5"/>
       <c r="Q18" s="4"/>
-      <c r="R18" s="5"/>
-      <c r="S18" s="5"/>
+      <c r="R18" s="4"/>
+      <c r="S18" s="4"/>
       <c r="T18" s="4"/>
       <c r="U18" s="4"/>
-      <c r="V18" s="5"/>
+      <c r="V18" s="4"/>
       <c r="W18" s="4"/>
-      <c r="X18" s="7"/>
+      <c r="X18" s="5"/>
       <c r="Y18" s="5"/>
       <c r="Z18" s="5"/>
       <c r="AA18" s="4"/>
       <c r="AB18" s="4"/>
       <c r="AC18" s="4"/>
     </row>
-    <row r="19" spans="1:29" ht="16" hidden="1">
+    <row r="19" spans="1:29" ht="64">
       <c r="A19" s="13" t="s">
-        <v>37</v>
+        <v>25</v>
       </c>
       <c r="B19" s="14" t="s">
-        <v>36</v>
+        <v>19</v>
       </c>
       <c r="C19" s="4">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D19" s="4"/>
       <c r="E19" s="4"/>
       <c r="F19" s="4"/>
       <c r="G19" s="4"/>
-      <c r="H19" s="4"/>
+      <c r="H19" s="5"/>
       <c r="I19" s="5"/>
       <c r="J19" s="4"/>
       <c r="K19" s="4"/>
       <c r="L19" s="4"/>
       <c r="M19" s="4"/>
-      <c r="N19" s="4"/>
+      <c r="N19" s="5"/>
       <c r="O19" s="4"/>
-      <c r="P19" s="4"/>
+      <c r="P19" s="5"/>
       <c r="Q19" s="4"/>
-      <c r="R19" s="5"/>
-      <c r="S19" s="5"/>
+      <c r="R19" s="4"/>
+      <c r="S19" s="4"/>
       <c r="T19" s="4"/>
       <c r="U19" s="4"/>
-      <c r="V19" s="5"/>
+      <c r="V19" s="4"/>
       <c r="W19" s="4"/>
-      <c r="X19" s="7"/>
+      <c r="X19" s="5"/>
       <c r="Y19" s="5"/>
       <c r="Z19" s="5"/>
       <c r="AA19" s="4"/>
       <c r="AB19" s="4"/>
       <c r="AC19" s="4"/>
     </row>
-    <row r="20" spans="1:29" ht="16" hidden="1">
+    <row r="20" spans="1:29" ht="80">
       <c r="A20" s="13" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B20" s="14" t="s">
-        <v>39</v>
+        <v>17</v>
       </c>
       <c r="C20" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D20" s="4"/>
       <c r="E20" s="4"/>
-      <c r="F20" s="4"/>
+      <c r="F20" s="5"/>
       <c r="G20" s="4"/>
-      <c r="H20" s="4"/>
+      <c r="H20" s="5"/>
       <c r="I20" s="5"/>
       <c r="J20" s="4"/>
       <c r="K20" s="4"/>
@@ -2527,8 +2377,8 @@
       <c r="O20" s="4"/>
       <c r="P20" s="4"/>
       <c r="Q20" s="4"/>
-      <c r="R20" s="5"/>
-      <c r="S20" s="5"/>
+      <c r="R20" s="4"/>
+      <c r="S20" s="4"/>
       <c r="T20" s="4"/>
       <c r="U20" s="4"/>
       <c r="V20" s="5"/>
@@ -2540,32 +2390,32 @@
       <c r="AB20" s="4"/>
       <c r="AC20" s="4"/>
     </row>
-    <row r="21" spans="1:29" ht="16" hidden="1">
+    <row r="21" spans="1:29" ht="16">
       <c r="A21" s="13" t="s">
-        <v>40</v>
+        <v>26</v>
       </c>
       <c r="B21" s="14" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="C21" s="4">
         <v>1</v>
       </c>
       <c r="D21" s="4"/>
       <c r="E21" s="4"/>
-      <c r="F21" s="4"/>
+      <c r="F21" s="5"/>
       <c r="G21" s="4"/>
-      <c r="H21" s="4"/>
-      <c r="I21" s="4"/>
+      <c r="H21" s="5"/>
+      <c r="I21" s="5"/>
       <c r="J21" s="4"/>
       <c r="K21" s="4"/>
       <c r="L21" s="4"/>
       <c r="M21" s="4"/>
       <c r="N21" s="4"/>
       <c r="O21" s="4"/>
-      <c r="P21" s="5"/>
+      <c r="P21" s="4"/>
       <c r="Q21" s="4"/>
-      <c r="R21" s="5"/>
-      <c r="S21" s="5"/>
+      <c r="R21" s="4"/>
+      <c r="S21" s="4"/>
       <c r="T21" s="4"/>
       <c r="U21" s="4"/>
       <c r="V21" s="5"/>
@@ -2577,89 +2427,89 @@
       <c r="AB21" s="4"/>
       <c r="AC21" s="4"/>
     </row>
-    <row r="22" spans="1:29" s="9" customFormat="1" ht="16" hidden="1">
-      <c r="A22" s="17" t="s">
-        <v>62</v>
+    <row r="22" spans="1:29" ht="32">
+      <c r="A22" s="13" t="s">
+        <v>271</v>
       </c>
       <c r="B22" s="14" t="s">
-        <v>24</v>
-      </c>
-      <c r="C22" s="8">
+        <v>16</v>
+      </c>
+      <c r="C22" s="4">
         <v>2</v>
       </c>
-      <c r="D22" s="8"/>
-      <c r="E22" s="8"/>
-      <c r="F22" s="8"/>
-      <c r="G22" s="8"/>
-      <c r="H22" s="8"/>
-      <c r="I22" s="8"/>
-      <c r="J22" s="8"/>
-      <c r="K22" s="8"/>
-      <c r="L22" s="8"/>
-      <c r="M22" s="8"/>
-      <c r="N22" s="8"/>
-      <c r="O22" s="8"/>
-      <c r="P22" s="8"/>
-      <c r="Q22" s="8"/>
-      <c r="R22" s="8"/>
-      <c r="S22" s="8"/>
-      <c r="T22" s="8"/>
-      <c r="U22" s="8"/>
-      <c r="V22" s="8"/>
-      <c r="W22" s="8"/>
-      <c r="X22" s="8"/>
-      <c r="Y22" s="8"/>
-      <c r="Z22" s="8"/>
-      <c r="AA22" s="8"/>
-      <c r="AB22" s="8"/>
-      <c r="AC22" s="8"/>
-    </row>
-    <row r="23" spans="1:29" s="9" customFormat="1" ht="16" hidden="1">
-      <c r="A23" s="17" t="s">
-        <v>63</v>
+      <c r="D22" s="4"/>
+      <c r="E22" s="4"/>
+      <c r="F22" s="4"/>
+      <c r="G22" s="4"/>
+      <c r="H22" s="5"/>
+      <c r="I22" s="5"/>
+      <c r="J22" s="4"/>
+      <c r="K22" s="4"/>
+      <c r="L22" s="4"/>
+      <c r="M22" s="4"/>
+      <c r="N22" s="4"/>
+      <c r="O22" s="4"/>
+      <c r="P22" s="4"/>
+      <c r="Q22" s="4"/>
+      <c r="R22" s="5"/>
+      <c r="S22" s="4"/>
+      <c r="T22" s="5"/>
+      <c r="U22" s="5"/>
+      <c r="V22" s="5"/>
+      <c r="W22" s="4"/>
+      <c r="X22" s="5"/>
+      <c r="Y22" s="5"/>
+      <c r="Z22" s="5"/>
+      <c r="AA22" s="4"/>
+      <c r="AB22" s="4"/>
+      <c r="AC22" s="4"/>
+    </row>
+    <row r="23" spans="1:29" ht="16">
+      <c r="A23" s="13" t="s">
+        <v>27</v>
       </c>
       <c r="B23" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="C23" s="8">
-        <v>0</v>
-      </c>
-      <c r="D23" s="8"/>
-      <c r="E23" s="8"/>
-      <c r="F23" s="8"/>
-      <c r="G23" s="8"/>
-      <c r="H23" s="8"/>
-      <c r="I23" s="8"/>
-      <c r="J23" s="8"/>
-      <c r="K23" s="8"/>
-      <c r="L23" s="8"/>
-      <c r="M23" s="8"/>
-      <c r="N23" s="8"/>
-      <c r="O23" s="8"/>
-      <c r="P23" s="8"/>
-      <c r="Q23" s="8"/>
-      <c r="R23" s="8"/>
-      <c r="S23" s="8"/>
-      <c r="T23" s="8"/>
-      <c r="U23" s="8"/>
-      <c r="V23" s="8"/>
-      <c r="W23" s="8"/>
-      <c r="X23" s="8"/>
-      <c r="Y23" s="8"/>
-      <c r="Z23" s="8"/>
-      <c r="AA23" s="8"/>
-      <c r="AB23" s="8"/>
-      <c r="AC23" s="8"/>
-    </row>
-    <row r="24" spans="1:29" ht="32" hidden="1">
+        <v>19</v>
+      </c>
+      <c r="C23" s="4">
+        <v>4</v>
+      </c>
+      <c r="D23" s="4"/>
+      <c r="E23" s="4"/>
+      <c r="F23" s="4"/>
+      <c r="G23" s="4"/>
+      <c r="H23" s="5"/>
+      <c r="I23" s="5"/>
+      <c r="J23" s="4"/>
+      <c r="K23" s="4"/>
+      <c r="L23" s="4"/>
+      <c r="M23" s="4"/>
+      <c r="N23" s="4"/>
+      <c r="O23" s="4"/>
+      <c r="P23" s="4"/>
+      <c r="Q23" s="4"/>
+      <c r="R23" s="5"/>
+      <c r="S23" s="4"/>
+      <c r="T23" s="5"/>
+      <c r="U23" s="5"/>
+      <c r="V23" s="5"/>
+      <c r="W23" s="4"/>
+      <c r="X23" s="5"/>
+      <c r="Y23" s="5"/>
+      <c r="Z23" s="5"/>
+      <c r="AA23" s="4"/>
+      <c r="AB23" s="4"/>
+      <c r="AC23" s="4"/>
+    </row>
+    <row r="24" spans="1:29" ht="16">
       <c r="A24" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="B24" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="C24" s="4">
         <v>2</v>
-      </c>
-      <c r="B24" s="14" t="s">
-        <v>26</v>
-      </c>
-      <c r="C24" s="4">
-        <v>1</v>
       </c>
       <c r="D24" s="4"/>
       <c r="E24" s="4"/>
@@ -2675,10 +2525,10 @@
       <c r="O24" s="4"/>
       <c r="P24" s="4"/>
       <c r="Q24" s="4"/>
-      <c r="R24" s="5"/>
+      <c r="R24" s="4"/>
       <c r="S24" s="5"/>
-      <c r="T24" s="4"/>
-      <c r="U24" s="4"/>
+      <c r="T24" s="5"/>
+      <c r="U24" s="5"/>
       <c r="V24" s="5"/>
       <c r="W24" s="4"/>
       <c r="X24" s="5"/>
@@ -2688,15 +2538,15 @@
       <c r="AB24" s="4"/>
       <c r="AC24" s="4"/>
     </row>
-    <row r="25" spans="1:29" ht="96" hidden="1">
+    <row r="25" spans="1:29" ht="16">
       <c r="A25" s="13" t="s">
-        <v>284</v>
+        <v>2</v>
       </c>
       <c r="B25" s="14" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="C25" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D25" s="4"/>
       <c r="E25" s="4"/>
@@ -2725,15 +2575,15 @@
       <c r="AB25" s="4"/>
       <c r="AC25" s="4"/>
     </row>
-    <row r="26" spans="1:29" ht="16" hidden="1">
+    <row r="26" spans="1:29" ht="32">
       <c r="A26" s="13" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B26" s="14" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="C26" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D26" s="4"/>
       <c r="E26" s="4"/>
@@ -2762,19 +2612,19 @@
       <c r="AB26" s="4"/>
       <c r="AC26" s="4"/>
     </row>
-    <row r="27" spans="1:29" ht="16" hidden="1">
+    <row r="27" spans="1:29" ht="32">
       <c r="A27" s="13" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B27" s="14" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="C27" s="4">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D27" s="4"/>
       <c r="E27" s="4"/>
-      <c r="F27" s="4"/>
+      <c r="F27" s="5"/>
       <c r="G27" s="4"/>
       <c r="H27" s="5"/>
       <c r="I27" s="5"/>
@@ -2782,12 +2632,12 @@
       <c r="K27" s="4"/>
       <c r="L27" s="4"/>
       <c r="M27" s="4"/>
-      <c r="N27" s="5"/>
+      <c r="N27" s="4"/>
       <c r="O27" s="4"/>
-      <c r="P27" s="5"/>
+      <c r="P27" s="4"/>
       <c r="Q27" s="4"/>
       <c r="R27" s="5"/>
-      <c r="S27" s="4"/>
+      <c r="S27" s="5"/>
       <c r="T27" s="5"/>
       <c r="U27" s="4"/>
       <c r="V27" s="5"/>
@@ -2799,12 +2649,12 @@
       <c r="AB27" s="4"/>
       <c r="AC27" s="4"/>
     </row>
-    <row r="28" spans="1:29" ht="48" hidden="1">
-      <c r="A28" s="13" t="s">
+    <row r="28" spans="1:29" ht="96">
+      <c r="A28" s="18" t="s">
+        <v>42</v>
+      </c>
+      <c r="B28" s="19" t="s">
         <v>3</v>
-      </c>
-      <c r="B28" s="14" t="s">
-        <v>25</v>
       </c>
       <c r="C28" s="4">
         <v>0</v>
@@ -2814,925 +2664,565 @@
       <c r="F28" s="4"/>
       <c r="G28" s="4"/>
       <c r="H28" s="4"/>
-      <c r="I28" s="5"/>
+      <c r="I28" s="4"/>
       <c r="J28" s="4"/>
       <c r="K28" s="4"/>
       <c r="L28" s="4"/>
       <c r="M28" s="4"/>
-      <c r="N28" s="4"/>
+      <c r="N28" s="5"/>
       <c r="O28" s="4"/>
       <c r="P28" s="4"/>
       <c r="Q28" s="4"/>
       <c r="R28" s="5"/>
-      <c r="S28" s="5"/>
+      <c r="S28" s="4"/>
       <c r="T28" s="5"/>
-      <c r="U28" s="4"/>
+      <c r="U28" s="5"/>
       <c r="V28" s="5"/>
       <c r="W28" s="4"/>
-      <c r="X28" s="5"/>
+      <c r="X28" s="7"/>
       <c r="Y28" s="5"/>
       <c r="Z28" s="5"/>
       <c r="AA28" s="4"/>
       <c r="AB28" s="4"/>
       <c r="AC28" s="4"/>
     </row>
-    <row r="29" spans="1:29" ht="16" hidden="1">
-      <c r="A29" s="13" t="s">
+    <row r="29" spans="1:29" ht="32">
+      <c r="A29" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="B29" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="C29" s="10">
+        <v>0</v>
+      </c>
+      <c r="D29" s="10"/>
+      <c r="E29" s="10"/>
+      <c r="F29" s="10"/>
+      <c r="G29" s="10"/>
+      <c r="H29" s="10"/>
+      <c r="K29" s="10"/>
+      <c r="L29" s="10"/>
+      <c r="O29" s="10"/>
+      <c r="P29" s="10"/>
+      <c r="AA29" s="10"/>
+      <c r="AB29" s="10"/>
+    </row>
+    <row r="30" spans="1:29" ht="64">
+      <c r="A30" s="18" t="s">
+        <v>263</v>
+      </c>
+      <c r="B30" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="C30" s="10">
+        <v>2</v>
+      </c>
+      <c r="D30" s="10"/>
+      <c r="E30" s="10"/>
+      <c r="F30" s="10"/>
+      <c r="G30" s="10"/>
+      <c r="H30" s="10"/>
+      <c r="K30" s="10"/>
+      <c r="L30" s="10"/>
+      <c r="O30" s="10"/>
+      <c r="P30" s="10"/>
+      <c r="AA30" s="10"/>
+      <c r="AB30" s="10"/>
+    </row>
+    <row r="31" spans="1:29" ht="48">
+      <c r="A31" s="18" t="s">
+        <v>224</v>
+      </c>
+      <c r="B31" s="19" t="s">
+        <v>245</v>
+      </c>
+      <c r="C31" s="10">
+        <v>2</v>
+      </c>
+      <c r="D31" s="10"/>
+      <c r="E31" s="10"/>
+      <c r="F31" s="10"/>
+      <c r="G31" s="10"/>
+      <c r="H31" s="10"/>
+      <c r="K31" s="10"/>
+      <c r="L31" s="10"/>
+      <c r="O31" s="10"/>
+      <c r="P31" s="10"/>
+      <c r="AA31" s="10"/>
+      <c r="AB31" s="10"/>
+    </row>
+    <row r="32" spans="1:29" ht="48">
+      <c r="A32" s="18" t="s">
+        <v>260</v>
+      </c>
+      <c r="B32" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="C32" s="10">
+        <v>1</v>
+      </c>
+      <c r="D32" s="10"/>
+      <c r="E32" s="10"/>
+      <c r="F32" s="10"/>
+      <c r="G32" s="10"/>
+      <c r="H32" s="10"/>
+      <c r="K32" s="10"/>
+      <c r="L32" s="10"/>
+      <c r="O32" s="10"/>
+      <c r="P32" s="10"/>
+      <c r="AA32" s="10"/>
+      <c r="AB32" s="10"/>
+    </row>
+    <row r="33" spans="1:28" ht="16">
+      <c r="A33" s="18" t="s">
         <v>43</v>
       </c>
-      <c r="B29" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="C29" s="4">
-        <v>0</v>
-      </c>
-      <c r="D29" s="4"/>
-      <c r="E29" s="4"/>
-      <c r="F29" s="4"/>
-      <c r="G29" s="4"/>
-      <c r="H29" s="4"/>
-      <c r="I29" s="5"/>
-      <c r="J29" s="4"/>
-      <c r="K29" s="4"/>
-      <c r="L29" s="4"/>
-      <c r="M29" s="4"/>
-      <c r="N29" s="4"/>
-      <c r="O29" s="4"/>
-      <c r="P29" s="4"/>
-      <c r="Q29" s="4"/>
-      <c r="R29" s="5"/>
-      <c r="S29" s="5"/>
-      <c r="T29" s="5"/>
-      <c r="U29" s="4"/>
-      <c r="V29" s="5"/>
-      <c r="W29" s="4"/>
-      <c r="X29" s="5"/>
-      <c r="Y29" s="5"/>
-      <c r="Z29" s="5"/>
-      <c r="AA29" s="4"/>
-      <c r="AB29" s="4"/>
-      <c r="AC29" s="4"/>
-    </row>
-    <row r="30" spans="1:29" ht="16">
-      <c r="A30" s="13" t="s">
+      <c r="B33" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="C33" s="10">
+        <v>2</v>
+      </c>
+      <c r="D33" s="10"/>
+      <c r="E33" s="10"/>
+      <c r="F33" s="10"/>
+      <c r="G33" s="10"/>
+      <c r="H33" s="10"/>
+      <c r="K33" s="10"/>
+      <c r="L33" s="10"/>
+      <c r="O33" s="10"/>
+      <c r="P33" s="10"/>
+      <c r="AA33" s="10"/>
+      <c r="AB33" s="10"/>
+    </row>
+    <row r="34" spans="1:28" ht="16">
+      <c r="A34" s="18" t="s">
+        <v>44</v>
+      </c>
+      <c r="B34" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="C34" s="10">
+        <v>1</v>
+      </c>
+      <c r="D34" s="10"/>
+      <c r="E34" s="10"/>
+      <c r="F34" s="10"/>
+      <c r="G34" s="10"/>
+      <c r="H34" s="10"/>
+      <c r="K34" s="10"/>
+      <c r="L34" s="10"/>
+      <c r="O34" s="10"/>
+      <c r="P34" s="10"/>
+      <c r="AA34" s="10"/>
+      <c r="AB34" s="10"/>
+    </row>
+    <row r="35" spans="1:28" ht="16">
+      <c r="A35" s="18" t="s">
         <v>45</v>
       </c>
-      <c r="B30" s="14" t="s">
-        <v>44</v>
-      </c>
-      <c r="C30" s="4">
+      <c r="B35" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="C35" s="10">
+        <v>0</v>
+      </c>
+      <c r="D35" s="10"/>
+      <c r="E35" s="10"/>
+      <c r="F35" s="10"/>
+      <c r="G35" s="10"/>
+      <c r="H35" s="10"/>
+      <c r="K35" s="10"/>
+      <c r="L35" s="10"/>
+      <c r="O35" s="10"/>
+      <c r="P35" s="10"/>
+      <c r="AA35" s="10"/>
+      <c r="AB35" s="10"/>
+    </row>
+    <row r="36" spans="1:28" ht="64">
+      <c r="A36" s="18" t="s">
+        <v>46</v>
+      </c>
+      <c r="B36" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="D30" s="4"/>
-      <c r="E30" s="4"/>
-      <c r="F30" s="4"/>
-      <c r="G30" s="4"/>
-      <c r="H30" s="5"/>
-      <c r="I30" s="5"/>
-      <c r="J30" s="4"/>
-      <c r="K30" s="4"/>
-      <c r="L30" s="4"/>
-      <c r="M30" s="4"/>
-      <c r="N30" s="4"/>
-      <c r="O30" s="4"/>
-      <c r="P30" s="4"/>
-      <c r="Q30" s="4"/>
-      <c r="R30" s="5"/>
-      <c r="S30" s="5"/>
-      <c r="T30" s="5"/>
-      <c r="U30" s="4"/>
-      <c r="V30" s="5"/>
-      <c r="W30" s="4"/>
-      <c r="X30" s="5"/>
-      <c r="Y30" s="5"/>
-      <c r="Z30" s="5"/>
-      <c r="AA30" s="4"/>
-      <c r="AB30" s="4"/>
-      <c r="AC30" s="4"/>
-    </row>
-    <row r="31" spans="1:29" ht="16" hidden="1">
-      <c r="A31" s="13" t="s">
-        <v>46</v>
-      </c>
-      <c r="B31" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="C31" s="4">
+      <c r="C36" s="10">
+        <v>1</v>
+      </c>
+      <c r="D36" s="10"/>
+      <c r="E36" s="10"/>
+      <c r="F36" s="10"/>
+      <c r="G36" s="10"/>
+      <c r="H36" s="10"/>
+      <c r="K36" s="10"/>
+      <c r="L36" s="10"/>
+      <c r="O36" s="10"/>
+      <c r="P36" s="10"/>
+      <c r="AA36" s="10"/>
+      <c r="AB36" s="10"/>
+    </row>
+    <row r="37" spans="1:28" ht="80">
+      <c r="A37" s="18" t="s">
+        <v>47</v>
+      </c>
+      <c r="B37" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="D31" s="4"/>
-      <c r="E31" s="4"/>
-      <c r="F31" s="4"/>
-      <c r="G31" s="4"/>
-      <c r="H31" s="5"/>
-      <c r="I31" s="5"/>
-      <c r="J31" s="4"/>
-      <c r="K31" s="4"/>
-      <c r="L31" s="4"/>
-      <c r="M31" s="4"/>
-      <c r="N31" s="4"/>
-      <c r="O31" s="4"/>
-      <c r="P31" s="4"/>
-      <c r="Q31" s="4"/>
-      <c r="R31" s="5"/>
-      <c r="S31" s="5"/>
-      <c r="T31" s="5"/>
-      <c r="U31" s="4"/>
-      <c r="V31" s="5"/>
-      <c r="W31" s="4"/>
-      <c r="X31" s="5"/>
-      <c r="Y31" s="5"/>
-      <c r="Z31" s="5"/>
-      <c r="AA31" s="4"/>
-      <c r="AB31" s="4"/>
-      <c r="AC31" s="4"/>
-    </row>
-    <row r="32" spans="1:29" ht="16" hidden="1">
-      <c r="A32" s="13" t="s">
-        <v>64</v>
-      </c>
-      <c r="B32" s="14" t="s">
-        <v>26</v>
-      </c>
-      <c r="C32" s="4">
-        <v>1</v>
-      </c>
-      <c r="D32" s="4"/>
-      <c r="E32" s="4"/>
-      <c r="F32" s="4"/>
-      <c r="G32" s="4"/>
-      <c r="H32" s="4"/>
-      <c r="I32" s="4"/>
-      <c r="J32" s="4"/>
-      <c r="K32" s="4"/>
-      <c r="L32" s="4"/>
-      <c r="M32" s="4"/>
-      <c r="N32" s="4"/>
-      <c r="O32" s="4"/>
-      <c r="P32" s="4"/>
-      <c r="Q32" s="4"/>
-      <c r="R32" s="5"/>
-      <c r="S32" s="5"/>
-      <c r="T32" s="5"/>
-      <c r="U32" s="4"/>
-      <c r="V32" s="5"/>
-      <c r="W32" s="4"/>
-      <c r="X32" s="5"/>
-      <c r="Y32" s="5"/>
-      <c r="Z32" s="5"/>
-      <c r="AA32" s="4"/>
-      <c r="AB32" s="4"/>
-      <c r="AC32" s="4"/>
-    </row>
-    <row r="33" spans="1:29" ht="16" hidden="1">
-      <c r="A33" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="B33" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="C33" s="4">
-        <v>0</v>
-      </c>
-      <c r="D33" s="4"/>
-      <c r="E33" s="4"/>
-      <c r="F33" s="4"/>
-      <c r="G33" s="4"/>
-      <c r="H33" s="4"/>
-      <c r="I33" s="4"/>
-      <c r="J33" s="4"/>
-      <c r="K33" s="4"/>
-      <c r="L33" s="4"/>
-      <c r="M33" s="4"/>
-      <c r="N33" s="4"/>
-      <c r="O33" s="4"/>
-      <c r="P33" s="4"/>
-      <c r="Q33" s="4"/>
-      <c r="R33" s="5"/>
-      <c r="S33" s="5"/>
-      <c r="T33" s="5"/>
-      <c r="U33" s="4"/>
-      <c r="V33" s="5"/>
-      <c r="W33" s="4"/>
-      <c r="X33" s="5"/>
-      <c r="Y33" s="5"/>
-      <c r="Z33" s="5"/>
-      <c r="AA33" s="4"/>
-      <c r="AB33" s="4"/>
-      <c r="AC33" s="4"/>
-    </row>
-    <row r="34" spans="1:29" ht="16">
-      <c r="A34" s="13" t="s">
-        <v>47</v>
-      </c>
-      <c r="B34" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="C34" s="4">
+      <c r="C37" s="10">
+        <v>0</v>
+      </c>
+      <c r="D37" s="10"/>
+      <c r="E37" s="10"/>
+      <c r="F37" s="10"/>
+      <c r="G37" s="10"/>
+      <c r="H37" s="10"/>
+      <c r="K37" s="10"/>
+      <c r="L37" s="10"/>
+      <c r="O37" s="10"/>
+      <c r="P37" s="10"/>
+      <c r="AA37" s="10"/>
+      <c r="AB37" s="10"/>
+    </row>
+    <row r="38" spans="1:28" ht="64">
+      <c r="A38" s="18" t="s">
+        <v>250</v>
+      </c>
+      <c r="B38" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="D34" s="4"/>
-      <c r="E34" s="4"/>
-      <c r="F34" s="5"/>
-      <c r="G34" s="4"/>
-      <c r="H34" s="5"/>
-      <c r="I34" s="5"/>
-      <c r="J34" s="4"/>
-      <c r="K34" s="4"/>
-      <c r="L34" s="4"/>
-      <c r="M34" s="4"/>
-      <c r="N34" s="4"/>
-      <c r="O34" s="4"/>
-      <c r="P34" s="4"/>
-      <c r="Q34" s="4"/>
-      <c r="R34" s="5"/>
-      <c r="S34" s="5"/>
-      <c r="T34" s="5"/>
-      <c r="U34" s="5"/>
-      <c r="V34" s="5"/>
-      <c r="W34" s="4"/>
-      <c r="X34" s="5"/>
-      <c r="Y34" s="5"/>
-      <c r="Z34" s="5"/>
-      <c r="AA34" s="4"/>
-      <c r="AB34" s="4"/>
-      <c r="AC34" s="4"/>
-    </row>
-    <row r="35" spans="1:29" ht="16">
-      <c r="A35" s="13" t="s">
+      <c r="C38" s="10">
+        <v>1</v>
+      </c>
+      <c r="D38" s="10"/>
+      <c r="E38" s="10"/>
+      <c r="F38" s="10"/>
+      <c r="G38" s="10"/>
+      <c r="H38" s="10"/>
+      <c r="K38" s="10"/>
+      <c r="L38" s="10"/>
+      <c r="O38" s="10"/>
+      <c r="P38" s="10"/>
+      <c r="AA38" s="10"/>
+      <c r="AB38" s="10"/>
+    </row>
+    <row r="39" spans="1:28" ht="32">
+      <c r="A39" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="B39" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="C39" s="10">
+        <v>0</v>
+      </c>
+      <c r="D39" s="10"/>
+      <c r="E39" s="10"/>
+      <c r="F39" s="10"/>
+      <c r="G39" s="10"/>
+      <c r="H39" s="10"/>
+      <c r="K39" s="10"/>
+      <c r="L39" s="10"/>
+      <c r="O39" s="10"/>
+      <c r="P39" s="10"/>
+      <c r="AA39" s="10"/>
+      <c r="AB39" s="10"/>
+    </row>
+    <row r="40" spans="1:28" ht="16">
+      <c r="A40" s="18" t="s">
         <v>48</v>
       </c>
-      <c r="B35" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="C35" s="4">
+      <c r="B40" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="C40" s="10">
+        <v>0</v>
+      </c>
+      <c r="D40" s="10"/>
+      <c r="E40" s="10"/>
+      <c r="F40" s="10"/>
+      <c r="G40" s="10"/>
+      <c r="H40" s="10"/>
+      <c r="K40" s="10"/>
+      <c r="L40" s="10"/>
+      <c r="O40" s="10"/>
+      <c r="P40" s="10"/>
+      <c r="AA40" s="10"/>
+      <c r="AB40" s="10"/>
+    </row>
+    <row r="41" spans="1:28" ht="16">
+      <c r="A41" s="18" t="s">
+        <v>49</v>
+      </c>
+      <c r="B41" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="C41" s="10">
+        <v>0</v>
+      </c>
+      <c r="D41" s="10"/>
+      <c r="E41" s="10"/>
+      <c r="F41" s="10"/>
+      <c r="G41" s="10"/>
+      <c r="H41" s="10"/>
+      <c r="K41" s="10"/>
+      <c r="L41" s="10"/>
+      <c r="O41" s="10"/>
+      <c r="P41" s="10"/>
+      <c r="AA41" s="10"/>
+      <c r="AB41" s="10"/>
+    </row>
+    <row r="42" spans="1:28" ht="16">
+      <c r="A42" s="18" t="s">
+        <v>50</v>
+      </c>
+      <c r="B42" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="C42" s="10">
+        <v>2</v>
+      </c>
+      <c r="D42" s="10"/>
+      <c r="E42" s="10"/>
+      <c r="F42" s="10"/>
+      <c r="G42" s="10"/>
+      <c r="H42" s="10"/>
+      <c r="K42" s="10"/>
+      <c r="L42" s="10"/>
+      <c r="O42" s="10"/>
+      <c r="P42" s="10"/>
+      <c r="AA42" s="10"/>
+      <c r="AB42" s="10"/>
+    </row>
+    <row r="43" spans="1:28" ht="64">
+      <c r="A43" s="18" t="s">
+        <v>254</v>
+      </c>
+      <c r="B43" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="C43" s="10">
+        <v>2</v>
+      </c>
+      <c r="D43" s="10"/>
+      <c r="E43" s="10"/>
+      <c r="F43" s="10"/>
+      <c r="G43" s="10"/>
+      <c r="H43" s="10"/>
+      <c r="K43" s="10"/>
+      <c r="L43" s="10"/>
+      <c r="O43" s="10"/>
+      <c r="P43" s="10"/>
+      <c r="AA43" s="10"/>
+      <c r="AB43" s="10"/>
+    </row>
+    <row r="44" spans="1:28" ht="64">
+      <c r="A44" s="18" t="s">
+        <v>225</v>
+      </c>
+      <c r="B44" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="C44" s="10">
+        <v>2</v>
+      </c>
+      <c r="D44" s="10"/>
+      <c r="E44" s="10"/>
+      <c r="F44" s="10"/>
+      <c r="G44" s="10"/>
+      <c r="H44" s="10"/>
+      <c r="K44" s="10"/>
+      <c r="L44" s="10"/>
+      <c r="O44" s="10"/>
+      <c r="P44" s="10"/>
+      <c r="AA44" s="10"/>
+      <c r="AB44" s="10"/>
+    </row>
+    <row r="45" spans="1:28" ht="64">
+      <c r="A45" s="18" t="s">
+        <v>255</v>
+      </c>
+      <c r="B45" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="D35" s="4"/>
-      <c r="E35" s="4"/>
-      <c r="F35" s="5"/>
-      <c r="G35" s="4"/>
-      <c r="H35" s="5"/>
-      <c r="I35" s="5"/>
-      <c r="J35" s="4"/>
-      <c r="K35" s="4"/>
-      <c r="L35" s="4"/>
-      <c r="M35" s="4"/>
-      <c r="N35" s="4"/>
-      <c r="O35" s="4"/>
-      <c r="P35" s="4"/>
-      <c r="Q35" s="4"/>
-      <c r="R35" s="5"/>
-      <c r="S35" s="5"/>
-      <c r="T35" s="5"/>
-      <c r="U35" s="5"/>
-      <c r="V35" s="5"/>
-      <c r="W35" s="4"/>
-      <c r="X35" s="5"/>
-      <c r="Y35" s="5"/>
-      <c r="Z35" s="5"/>
-      <c r="AA35" s="4"/>
-      <c r="AB35" s="4"/>
-      <c r="AC35" s="4"/>
-    </row>
-    <row r="36" spans="1:29" ht="16" hidden="1">
-      <c r="A36" s="13" t="s">
-        <v>67</v>
-      </c>
-      <c r="B36" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="C36" s="4">
-        <v>0</v>
-      </c>
-      <c r="D36" s="4"/>
-      <c r="E36" s="4"/>
-      <c r="F36" s="4"/>
-      <c r="G36" s="4"/>
-      <c r="H36" s="5"/>
-      <c r="I36" s="5"/>
-      <c r="J36" s="4"/>
-      <c r="K36" s="4"/>
-      <c r="L36" s="4"/>
-      <c r="M36" s="4"/>
-      <c r="N36" s="5"/>
-      <c r="O36" s="4"/>
-      <c r="P36" s="5"/>
-      <c r="Q36" s="4"/>
-      <c r="R36" s="4"/>
-      <c r="S36" s="4"/>
-      <c r="T36" s="4"/>
-      <c r="U36" s="4"/>
-      <c r="V36" s="4"/>
-      <c r="W36" s="4"/>
-      <c r="X36" s="5"/>
-      <c r="Y36" s="5"/>
-      <c r="Z36" s="5"/>
-      <c r="AA36" s="4"/>
-      <c r="AB36" s="4"/>
-      <c r="AC36" s="4"/>
-    </row>
-    <row r="37" spans="1:29" ht="80" hidden="1">
-      <c r="A37" s="13" t="s">
-        <v>49</v>
-      </c>
-      <c r="B37" s="14" t="s">
-        <v>24</v>
-      </c>
-      <c r="C37" s="4">
-        <v>2</v>
-      </c>
-      <c r="D37" s="4"/>
-      <c r="E37" s="4"/>
-      <c r="F37" s="4"/>
-      <c r="G37" s="4"/>
-      <c r="H37" s="5"/>
-      <c r="I37" s="5"/>
-      <c r="J37" s="4"/>
-      <c r="K37" s="4"/>
-      <c r="L37" s="4"/>
-      <c r="M37" s="4"/>
-      <c r="N37" s="5"/>
-      <c r="O37" s="4"/>
-      <c r="P37" s="5"/>
-      <c r="Q37" s="4"/>
-      <c r="R37" s="4"/>
-      <c r="S37" s="4"/>
-      <c r="T37" s="4"/>
-      <c r="U37" s="4"/>
-      <c r="V37" s="4"/>
-      <c r="W37" s="4"/>
-      <c r="X37" s="5"/>
-      <c r="Y37" s="5"/>
-      <c r="Z37" s="5"/>
-      <c r="AA37" s="4"/>
-      <c r="AB37" s="4"/>
-      <c r="AC37" s="4"/>
-    </row>
-    <row r="38" spans="1:29" ht="64">
-      <c r="A38" s="13" t="s">
-        <v>50</v>
-      </c>
-      <c r="B38" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="C38" s="4">
+      <c r="C45" s="10">
+        <v>1</v>
+      </c>
+      <c r="D45" s="10"/>
+      <c r="E45" s="10"/>
+      <c r="F45" s="10"/>
+      <c r="G45" s="10"/>
+      <c r="H45" s="10"/>
+      <c r="K45" s="10"/>
+      <c r="L45" s="10"/>
+      <c r="O45" s="10"/>
+      <c r="P45" s="10"/>
+      <c r="AA45" s="10"/>
+      <c r="AB45" s="10"/>
+    </row>
+    <row r="46" spans="1:28" ht="80">
+      <c r="A46" s="18" t="s">
+        <v>51</v>
+      </c>
+      <c r="B46" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="D38" s="4"/>
-      <c r="E38" s="4"/>
-      <c r="F38" s="4"/>
-      <c r="G38" s="4"/>
-      <c r="H38" s="5"/>
-      <c r="I38" s="5"/>
-      <c r="J38" s="4"/>
-      <c r="K38" s="4"/>
-      <c r="L38" s="4"/>
-      <c r="M38" s="4"/>
-      <c r="N38" s="5"/>
-      <c r="O38" s="4"/>
-      <c r="P38" s="5"/>
-      <c r="Q38" s="4"/>
-      <c r="R38" s="4"/>
-      <c r="S38" s="4"/>
-      <c r="T38" s="4"/>
-      <c r="U38" s="4"/>
-      <c r="V38" s="4"/>
-      <c r="W38" s="4"/>
-      <c r="X38" s="5"/>
-      <c r="Y38" s="5"/>
-      <c r="Z38" s="5"/>
-      <c r="AA38" s="4"/>
-      <c r="AB38" s="4"/>
-      <c r="AC38" s="4"/>
-    </row>
-    <row r="39" spans="1:29" ht="80" hidden="1">
-      <c r="A39" s="13" t="s">
-        <v>65</v>
-      </c>
-      <c r="B39" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="C39" s="4">
-        <v>0</v>
-      </c>
-      <c r="D39" s="4"/>
-      <c r="E39" s="4"/>
-      <c r="F39" s="5"/>
-      <c r="G39" s="4"/>
-      <c r="H39" s="5"/>
-      <c r="I39" s="5"/>
-      <c r="J39" s="4"/>
-      <c r="K39" s="4"/>
-      <c r="L39" s="4"/>
-      <c r="M39" s="4"/>
-      <c r="N39" s="4"/>
-      <c r="O39" s="4"/>
-      <c r="P39" s="4"/>
-      <c r="Q39" s="4"/>
-      <c r="R39" s="4"/>
-      <c r="S39" s="4"/>
-      <c r="T39" s="4"/>
-      <c r="U39" s="4"/>
-      <c r="V39" s="5"/>
-      <c r="W39" s="4"/>
-      <c r="X39" s="7"/>
-      <c r="Y39" s="5"/>
-      <c r="Z39" s="5"/>
-      <c r="AA39" s="4"/>
-      <c r="AB39" s="4"/>
-      <c r="AC39" s="4"/>
-    </row>
-    <row r="40" spans="1:29" ht="16" hidden="1">
-      <c r="A40" s="13" t="s">
-        <v>51</v>
-      </c>
-      <c r="B40" s="14" t="s">
-        <v>26</v>
-      </c>
-      <c r="C40" s="4">
-        <v>1</v>
-      </c>
-      <c r="D40" s="4"/>
-      <c r="E40" s="4"/>
-      <c r="F40" s="5"/>
-      <c r="G40" s="4"/>
-      <c r="H40" s="5"/>
-      <c r="I40" s="5"/>
-      <c r="J40" s="4"/>
-      <c r="K40" s="4"/>
-      <c r="L40" s="4"/>
-      <c r="M40" s="4"/>
-      <c r="N40" s="4"/>
-      <c r="O40" s="4"/>
-      <c r="P40" s="4"/>
-      <c r="Q40" s="4"/>
-      <c r="R40" s="4"/>
-      <c r="S40" s="4"/>
-      <c r="T40" s="4"/>
-      <c r="U40" s="4"/>
-      <c r="V40" s="5"/>
-      <c r="W40" s="4"/>
-      <c r="X40" s="7"/>
-      <c r="Y40" s="5"/>
-      <c r="Z40" s="5"/>
-      <c r="AA40" s="4"/>
-      <c r="AB40" s="4"/>
-      <c r="AC40" s="4"/>
-    </row>
-    <row r="41" spans="1:29" ht="32" hidden="1">
-      <c r="A41" s="13" t="s">
-        <v>307</v>
-      </c>
-      <c r="B41" s="14" t="s">
-        <v>24</v>
-      </c>
-      <c r="C41" s="4">
-        <v>2</v>
-      </c>
-      <c r="D41" s="4"/>
-      <c r="E41" s="4"/>
-      <c r="F41" s="4"/>
-      <c r="G41" s="4"/>
-      <c r="H41" s="5"/>
-      <c r="I41" s="5"/>
-      <c r="J41" s="4"/>
-      <c r="K41" s="4"/>
-      <c r="L41" s="4"/>
-      <c r="M41" s="4"/>
-      <c r="N41" s="4"/>
-      <c r="O41" s="4"/>
-      <c r="P41" s="4"/>
-      <c r="Q41" s="4"/>
-      <c r="R41" s="5"/>
-      <c r="S41" s="4"/>
-      <c r="T41" s="5"/>
-      <c r="U41" s="5"/>
-      <c r="V41" s="5"/>
-      <c r="W41" s="4"/>
-      <c r="X41" s="5"/>
-      <c r="Y41" s="5"/>
-      <c r="Z41" s="5"/>
-      <c r="AA41" s="4"/>
-      <c r="AB41" s="4"/>
-      <c r="AC41" s="4"/>
-    </row>
-    <row r="42" spans="1:29" ht="16" hidden="1">
-      <c r="A42" s="13" t="s">
-        <v>39</v>
-      </c>
-      <c r="B42" s="14" t="s">
-        <v>26</v>
-      </c>
-      <c r="C42" s="4">
-        <v>1</v>
-      </c>
-      <c r="D42" s="4"/>
-      <c r="E42" s="4"/>
-      <c r="F42" s="4"/>
-      <c r="G42" s="4"/>
-      <c r="H42" s="5"/>
-      <c r="I42" s="5"/>
-      <c r="J42" s="4"/>
-      <c r="K42" s="4"/>
-      <c r="L42" s="4"/>
-      <c r="M42" s="4"/>
-      <c r="N42" s="4"/>
-      <c r="O42" s="4"/>
-      <c r="P42" s="4"/>
-      <c r="Q42" s="4"/>
-      <c r="R42" s="5"/>
-      <c r="S42" s="4"/>
-      <c r="T42" s="5"/>
-      <c r="U42" s="5"/>
-      <c r="V42" s="5"/>
-      <c r="W42" s="4"/>
-      <c r="X42" s="5"/>
-      <c r="Y42" s="5"/>
-      <c r="Z42" s="5"/>
-      <c r="AA42" s="4"/>
-      <c r="AB42" s="4"/>
-      <c r="AC42" s="4"/>
-    </row>
-    <row r="43" spans="1:29" ht="16">
-      <c r="A43" s="13" t="s">
+      <c r="C46" s="10">
+        <v>1</v>
+      </c>
+      <c r="D46" s="10"/>
+      <c r="E46" s="10"/>
+      <c r="F46" s="10"/>
+      <c r="G46" s="10"/>
+      <c r="H46" s="10"/>
+      <c r="K46" s="10"/>
+      <c r="L46" s="10"/>
+      <c r="O46" s="10"/>
+      <c r="P46" s="10"/>
+      <c r="AA46" s="10"/>
+      <c r="AB46" s="10"/>
+    </row>
+    <row r="47" spans="1:28" ht="80">
+      <c r="A47" s="18" t="s">
+        <v>52</v>
+      </c>
+      <c r="B47" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="C47" s="10">
+        <v>1</v>
+      </c>
+      <c r="D47" s="10"/>
+      <c r="E47" s="10"/>
+      <c r="F47" s="10"/>
+      <c r="G47" s="10"/>
+      <c r="H47" s="10"/>
+      <c r="K47" s="10"/>
+      <c r="L47" s="10"/>
+      <c r="O47" s="10"/>
+      <c r="P47" s="10"/>
+      <c r="AA47" s="10"/>
+      <c r="AB47" s="10"/>
+    </row>
+    <row r="48" spans="1:28" ht="64">
+      <c r="A48" s="18" t="s">
+        <v>53</v>
+      </c>
+      <c r="B48" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="C48" s="10">
+        <v>0</v>
+      </c>
+      <c r="D48" s="10"/>
+      <c r="E48" s="10"/>
+      <c r="F48" s="10"/>
+      <c r="G48" s="10"/>
+      <c r="H48" s="10"/>
+      <c r="K48" s="10"/>
+      <c r="L48" s="10"/>
+      <c r="O48" s="10"/>
+      <c r="P48" s="10"/>
+      <c r="AA48" s="10"/>
+      <c r="AB48" s="10"/>
+    </row>
+    <row r="49" spans="1:28" ht="64">
+      <c r="A49" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="B49" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="C49" s="10">
+        <v>4</v>
+      </c>
+      <c r="D49" s="10"/>
+      <c r="E49" s="10"/>
+      <c r="F49" s="10"/>
+      <c r="G49" s="10"/>
+      <c r="H49" s="10"/>
+      <c r="K49" s="10"/>
+      <c r="L49" s="10"/>
+      <c r="O49" s="10"/>
+      <c r="P49" s="10"/>
+      <c r="AA49" s="10"/>
+      <c r="AB49" s="10"/>
+    </row>
+    <row r="50" spans="1:28" ht="32">
+      <c r="A50" s="18" t="s">
+        <v>55</v>
+      </c>
+      <c r="B50" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="C50" s="10">
+        <v>0</v>
+      </c>
+      <c r="D50" s="10"/>
+      <c r="E50" s="10"/>
+      <c r="F50" s="10"/>
+      <c r="G50" s="10"/>
+      <c r="H50" s="10"/>
+      <c r="K50" s="10"/>
+      <c r="L50" s="10"/>
+      <c r="O50" s="10"/>
+      <c r="P50" s="10"/>
+      <c r="AA50" s="10"/>
+      <c r="AB50" s="10"/>
+    </row>
+    <row r="51" spans="1:28" ht="48">
+      <c r="A51" s="18" t="s">
         <v>54</v>
       </c>
-      <c r="B43" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="C43" s="4">
+      <c r="B51" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="C51" s="10">
+        <v>0</v>
+      </c>
+      <c r="D51" s="10"/>
+      <c r="E51" s="10"/>
+      <c r="F51" s="10"/>
+      <c r="G51" s="10"/>
+      <c r="H51" s="10"/>
+      <c r="K51" s="10"/>
+      <c r="L51" s="10"/>
+      <c r="O51" s="10"/>
+      <c r="P51" s="10"/>
+      <c r="AA51" s="10"/>
+      <c r="AB51" s="10"/>
+    </row>
+    <row r="52" spans="1:28" ht="32">
+      <c r="A52" s="18" t="s">
+        <v>268</v>
+      </c>
+      <c r="B52" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="C52" s="10">
+        <v>0</v>
+      </c>
+      <c r="D52" s="10"/>
+      <c r="E52" s="10"/>
+      <c r="F52" s="10"/>
+      <c r="G52" s="10"/>
+      <c r="H52" s="10"/>
+      <c r="K52" s="10"/>
+      <c r="L52" s="10"/>
+      <c r="O52" s="10"/>
+      <c r="P52" s="10"/>
+      <c r="AA52" s="10"/>
+      <c r="AB52" s="10"/>
+    </row>
+    <row r="53" spans="1:28" ht="64">
+      <c r="A53" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="B53" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="D43" s="4"/>
-      <c r="E43" s="4"/>
-      <c r="F43" s="4"/>
-      <c r="G43" s="4"/>
-      <c r="H43" s="5"/>
-      <c r="I43" s="5"/>
-      <c r="J43" s="4"/>
-      <c r="K43" s="4"/>
-      <c r="L43" s="4"/>
-      <c r="M43" s="4"/>
-      <c r="N43" s="4"/>
-      <c r="O43" s="4"/>
-      <c r="P43" s="4"/>
-      <c r="Q43" s="4"/>
-      <c r="R43" s="5"/>
-      <c r="S43" s="4"/>
-      <c r="T43" s="5"/>
-      <c r="U43" s="5"/>
-      <c r="V43" s="5"/>
-      <c r="W43" s="4"/>
-      <c r="X43" s="5"/>
-      <c r="Y43" s="5"/>
-      <c r="Z43" s="5"/>
-      <c r="AA43" s="4"/>
-      <c r="AB43" s="4"/>
-      <c r="AC43" s="4"/>
-    </row>
-    <row r="44" spans="1:29" ht="16" hidden="1">
-      <c r="A44" s="13" t="s">
-        <v>68</v>
-      </c>
-      <c r="B44" s="14" t="s">
-        <v>24</v>
-      </c>
-      <c r="C44" s="4">
-        <v>2</v>
-      </c>
-      <c r="D44" s="4"/>
-      <c r="E44" s="4"/>
-      <c r="F44" s="4"/>
-      <c r="G44" s="4"/>
-      <c r="H44" s="4"/>
-      <c r="I44" s="4"/>
-      <c r="J44" s="4"/>
-      <c r="K44" s="4"/>
-      <c r="L44" s="4"/>
-      <c r="M44" s="4"/>
-      <c r="N44" s="4"/>
-      <c r="O44" s="4"/>
-      <c r="P44" s="4"/>
-      <c r="Q44" s="4"/>
-      <c r="R44" s="4"/>
-      <c r="S44" s="5"/>
-      <c r="T44" s="5"/>
-      <c r="U44" s="5"/>
-      <c r="V44" s="5"/>
-      <c r="W44" s="4"/>
-      <c r="X44" s="5"/>
-      <c r="Y44" s="5"/>
-      <c r="Z44" s="5"/>
-      <c r="AA44" s="4"/>
-      <c r="AB44" s="4"/>
-      <c r="AC44" s="4"/>
-    </row>
-    <row r="45" spans="1:29" ht="16" hidden="1">
-      <c r="A45" s="13" t="s">
-        <v>52</v>
-      </c>
-      <c r="B45" s="14" t="s">
-        <v>53</v>
-      </c>
-      <c r="C45" s="4">
-        <v>1</v>
-      </c>
-      <c r="D45" s="4"/>
-      <c r="E45" s="4"/>
-      <c r="F45" s="4"/>
-      <c r="G45" s="4"/>
-      <c r="H45" s="4"/>
-      <c r="I45" s="4"/>
-      <c r="J45" s="4"/>
-      <c r="K45" s="4"/>
-      <c r="L45" s="4"/>
-      <c r="M45" s="4"/>
-      <c r="N45" s="4"/>
-      <c r="O45" s="4"/>
-      <c r="P45" s="4"/>
-      <c r="Q45" s="4"/>
-      <c r="R45" s="4"/>
-      <c r="S45" s="5"/>
-      <c r="T45" s="4"/>
-      <c r="U45" s="4"/>
-      <c r="V45" s="5"/>
-      <c r="W45" s="4"/>
-      <c r="X45" s="7"/>
-      <c r="Y45" s="5"/>
-      <c r="Z45" s="5"/>
-      <c r="AA45" s="4"/>
-      <c r="AB45" s="4"/>
-      <c r="AC45" s="4"/>
-    </row>
-    <row r="46" spans="1:29" ht="16" hidden="1">
-      <c r="A46" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="B46" s="14" t="s">
-        <v>26</v>
-      </c>
-      <c r="C46" s="4">
-        <v>1</v>
-      </c>
-      <c r="D46" s="4"/>
-      <c r="E46" s="4"/>
-      <c r="F46" s="5"/>
-      <c r="G46" s="4"/>
-      <c r="H46" s="5"/>
-      <c r="I46" s="5"/>
-      <c r="J46" s="4"/>
-      <c r="K46" s="4"/>
-      <c r="L46" s="4"/>
-      <c r="M46" s="4"/>
-      <c r="N46" s="4"/>
-      <c r="O46" s="4"/>
-      <c r="P46" s="4"/>
-      <c r="Q46" s="4"/>
-      <c r="R46" s="5"/>
-      <c r="S46" s="5"/>
-      <c r="T46" s="5"/>
-      <c r="U46" s="4"/>
-      <c r="V46" s="5"/>
-      <c r="W46" s="4"/>
-      <c r="X46" s="5"/>
-      <c r="Y46" s="5"/>
-      <c r="Z46" s="5"/>
-      <c r="AA46" s="4"/>
-      <c r="AB46" s="4"/>
-      <c r="AC46" s="4"/>
-    </row>
-    <row r="47" spans="1:29" ht="32" hidden="1">
-      <c r="A47" s="13" t="s">
-        <v>69</v>
-      </c>
-      <c r="B47" s="14" t="s">
-        <v>24</v>
-      </c>
-      <c r="C47" s="4">
-        <v>2</v>
-      </c>
-      <c r="D47" s="4"/>
-      <c r="E47" s="4"/>
-      <c r="F47" s="5"/>
-      <c r="G47" s="4"/>
-      <c r="H47" s="5"/>
-      <c r="I47" s="5"/>
-      <c r="J47" s="4"/>
-      <c r="K47" s="4"/>
-      <c r="L47" s="4"/>
-      <c r="M47" s="4"/>
-      <c r="N47" s="4"/>
-      <c r="O47" s="4"/>
-      <c r="P47" s="4"/>
-      <c r="Q47" s="4"/>
-      <c r="R47" s="5"/>
-      <c r="S47" s="5"/>
-      <c r="T47" s="5"/>
-      <c r="U47" s="4"/>
-      <c r="V47" s="5"/>
-      <c r="W47" s="4"/>
-      <c r="X47" s="5"/>
-      <c r="Y47" s="5"/>
-      <c r="Z47" s="5"/>
-      <c r="AA47" s="4"/>
-      <c r="AB47" s="4"/>
-      <c r="AC47" s="4"/>
-    </row>
-    <row r="48" spans="1:29" ht="32">
-      <c r="A48" s="13" t="s">
-        <v>70</v>
-      </c>
-      <c r="B48" s="14" t="s">
-        <v>71</v>
-      </c>
-      <c r="C48" s="4">
-        <v>4</v>
-      </c>
-      <c r="D48" s="4"/>
-      <c r="E48" s="4"/>
-      <c r="F48" s="5"/>
-      <c r="G48" s="4"/>
-      <c r="H48" s="5"/>
-      <c r="I48" s="5"/>
-      <c r="J48" s="4"/>
-      <c r="K48" s="4"/>
-      <c r="L48" s="4"/>
-      <c r="M48" s="4"/>
-      <c r="N48" s="4"/>
-      <c r="O48" s="4"/>
-      <c r="P48" s="4"/>
-      <c r="Q48" s="4"/>
-      <c r="R48" s="5"/>
-      <c r="S48" s="5"/>
-      <c r="T48" s="5"/>
-      <c r="U48" s="4"/>
-      <c r="V48" s="5"/>
-      <c r="W48" s="4"/>
-      <c r="X48" s="5"/>
-      <c r="Y48" s="5"/>
-      <c r="Z48" s="5"/>
-      <c r="AA48" s="4"/>
-      <c r="AB48" s="4"/>
-      <c r="AC48" s="4"/>
-    </row>
-    <row r="49" spans="1:29" ht="16">
-      <c r="A49" s="13" t="s">
-        <v>72</v>
-      </c>
-      <c r="B49" s="14" t="s">
-        <v>73</v>
-      </c>
-      <c r="C49" s="4">
-        <v>4</v>
-      </c>
-      <c r="D49" s="4"/>
-      <c r="E49" s="4"/>
-      <c r="F49" s="5"/>
-      <c r="G49" s="4"/>
-      <c r="H49" s="5"/>
-      <c r="I49" s="5"/>
-      <c r="J49" s="4"/>
-      <c r="K49" s="4"/>
-      <c r="L49" s="4"/>
-      <c r="M49" s="4"/>
-      <c r="N49" s="4"/>
-      <c r="O49" s="4"/>
-      <c r="P49" s="4"/>
-      <c r="Q49" s="4"/>
-      <c r="R49" s="5"/>
-      <c r="S49" s="5"/>
-      <c r="T49" s="5"/>
-      <c r="U49" s="4"/>
-      <c r="V49" s="5"/>
-      <c r="W49" s="4"/>
-      <c r="X49" s="5"/>
-      <c r="Y49" s="5"/>
-      <c r="Z49" s="5"/>
-      <c r="AA49" s="4"/>
-      <c r="AB49" s="4"/>
-      <c r="AC49" s="4"/>
-    </row>
-    <row r="50" spans="1:29" ht="16" hidden="1">
-      <c r="A50" s="13" t="s">
-        <v>74</v>
-      </c>
-      <c r="B50" s="14" t="s">
-        <v>28</v>
-      </c>
-      <c r="C50" s="4">
-        <v>1</v>
-      </c>
-      <c r="D50" s="4"/>
-      <c r="E50" s="4"/>
-      <c r="F50" s="5"/>
-      <c r="G50" s="4"/>
-      <c r="H50" s="5"/>
-      <c r="I50" s="5"/>
-      <c r="J50" s="4"/>
-      <c r="K50" s="4"/>
-      <c r="L50" s="4"/>
-      <c r="M50" s="4"/>
-      <c r="N50" s="4"/>
-      <c r="O50" s="4"/>
-      <c r="P50" s="4"/>
-      <c r="Q50" s="4"/>
-      <c r="R50" s="5"/>
-      <c r="S50" s="5"/>
-      <c r="T50" s="5"/>
-      <c r="U50" s="4"/>
-      <c r="V50" s="5"/>
-      <c r="W50" s="4"/>
-      <c r="X50" s="5"/>
-      <c r="Y50" s="5"/>
-      <c r="Z50" s="5"/>
-      <c r="AA50" s="4"/>
-      <c r="AB50" s="4"/>
-      <c r="AC50" s="4"/>
-    </row>
-    <row r="51" spans="1:29" ht="96" hidden="1">
-      <c r="A51" s="18" t="s">
-        <v>75</v>
-      </c>
-      <c r="B51" s="19" t="s">
-        <v>5</v>
-      </c>
-      <c r="C51" s="4">
-        <v>0</v>
-      </c>
-      <c r="D51" s="4"/>
-      <c r="E51" s="4"/>
-      <c r="F51" s="4"/>
-      <c r="G51" s="4"/>
-      <c r="H51" s="4"/>
-      <c r="I51" s="4"/>
-      <c r="J51" s="4"/>
-      <c r="K51" s="4"/>
-      <c r="L51" s="4"/>
-      <c r="M51" s="4"/>
-      <c r="N51" s="5"/>
-      <c r="O51" s="4"/>
-      <c r="P51" s="4"/>
-      <c r="Q51" s="4"/>
-      <c r="R51" s="5"/>
-      <c r="S51" s="4"/>
-      <c r="T51" s="5"/>
-      <c r="U51" s="5"/>
-      <c r="V51" s="5"/>
-      <c r="W51" s="4"/>
-      <c r="X51" s="7"/>
-      <c r="Y51" s="5"/>
-      <c r="Z51" s="5"/>
-      <c r="AA51" s="4"/>
-      <c r="AB51" s="4"/>
-      <c r="AC51" s="4"/>
-    </row>
-    <row r="52" spans="1:29" ht="16" hidden="1">
-      <c r="A52" s="18" t="s">
-        <v>7</v>
-      </c>
-      <c r="B52" s="19" t="s">
-        <v>6</v>
-      </c>
-      <c r="C52" s="4">
-        <v>1</v>
-      </c>
-      <c r="D52" s="4"/>
-      <c r="E52" s="4"/>
-      <c r="F52" s="4"/>
-      <c r="G52" s="4"/>
-      <c r="H52" s="4"/>
-      <c r="I52" s="4"/>
-      <c r="J52" s="4"/>
-      <c r="K52" s="4"/>
-      <c r="L52" s="4"/>
-      <c r="M52" s="4"/>
-      <c r="N52" s="4"/>
-      <c r="O52" s="4"/>
-      <c r="P52" s="4"/>
-      <c r="Q52" s="4"/>
-      <c r="R52" s="5"/>
-      <c r="S52" s="5"/>
-      <c r="T52" s="5"/>
-      <c r="U52" s="4"/>
-      <c r="V52" s="5"/>
-      <c r="W52" s="4"/>
-      <c r="X52" s="5"/>
-      <c r="Y52" s="5"/>
-      <c r="Z52" s="5"/>
-      <c r="AA52" s="4"/>
-      <c r="AB52" s="4"/>
-      <c r="AC52" s="4"/>
-    </row>
-    <row r="53" spans="1:29" ht="32" hidden="1">
-      <c r="A53" s="18" t="s">
-        <v>8</v>
-      </c>
-      <c r="B53" s="19" t="s">
-        <v>25</v>
-      </c>
       <c r="C53" s="10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D53" s="10"/>
       <c r="E53" s="10"/>
@@ -3746,12 +3236,12 @@
       <c r="AA53" s="10"/>
       <c r="AB53" s="10"/>
     </row>
-    <row r="54" spans="1:29" ht="16" hidden="1">
+    <row r="54" spans="1:28" ht="64">
       <c r="A54" s="18" t="s">
-        <v>9</v>
+        <v>56</v>
       </c>
       <c r="B54" s="19" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C54" s="10">
         <v>1</v>
@@ -3768,15 +3258,15 @@
       <c r="AA54" s="10"/>
       <c r="AB54" s="10"/>
     </row>
-    <row r="55" spans="1:29" ht="64" hidden="1">
+    <row r="55" spans="1:28" ht="32">
       <c r="A55" s="18" t="s">
-        <v>299</v>
+        <v>57</v>
       </c>
       <c r="B55" s="19" t="s">
-        <v>10</v>
+        <v>58</v>
       </c>
       <c r="C55" s="10">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D55" s="10"/>
       <c r="E55" s="10"/>
@@ -3790,15 +3280,15 @@
       <c r="AA55" s="10"/>
       <c r="AB55" s="10"/>
     </row>
-    <row r="56" spans="1:29" ht="48" hidden="1">
+    <row r="56" spans="1:28" ht="32">
       <c r="A56" s="18" t="s">
-        <v>260</v>
+        <v>282</v>
       </c>
       <c r="B56" s="19" t="s">
-        <v>281</v>
+        <v>58</v>
       </c>
       <c r="C56" s="10">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D56" s="10"/>
       <c r="E56" s="10"/>
@@ -3812,15 +3302,15 @@
       <c r="AA56" s="10"/>
       <c r="AB56" s="10"/>
     </row>
-    <row r="57" spans="1:29" ht="48" hidden="1">
+    <row r="57" spans="1:28" ht="64">
       <c r="A57" s="18" t="s">
-        <v>296</v>
+        <v>59</v>
       </c>
       <c r="B57" s="19" t="s">
-        <v>6</v>
+        <v>58</v>
       </c>
       <c r="C57" s="10">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D57" s="10"/>
       <c r="E57" s="10"/>
@@ -3834,15 +3324,15 @@
       <c r="AA57" s="10"/>
       <c r="AB57" s="10"/>
     </row>
-    <row r="58" spans="1:29" ht="16" hidden="1">
+    <row r="58" spans="1:28" ht="64">
       <c r="A58" s="18" t="s">
-        <v>11</v>
+        <v>60</v>
       </c>
       <c r="B58" s="19" t="s">
-        <v>6</v>
+        <v>61</v>
       </c>
       <c r="C58" s="10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D58" s="10"/>
       <c r="E58" s="10"/>
@@ -3856,15 +3346,15 @@
       <c r="AA58" s="10"/>
       <c r="AB58" s="10"/>
     </row>
-    <row r="59" spans="1:29" ht="16" hidden="1">
+    <row r="59" spans="1:28" ht="64">
       <c r="A59" s="18" t="s">
-        <v>76</v>
+        <v>62</v>
       </c>
       <c r="B59" s="19" t="s">
-        <v>24</v>
+        <v>63</v>
       </c>
       <c r="C59" s="10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D59" s="10"/>
       <c r="E59" s="10"/>
@@ -3878,15 +3368,15 @@
       <c r="AA59" s="10"/>
       <c r="AB59" s="10"/>
     </row>
-    <row r="60" spans="1:29" ht="16" hidden="1">
+    <row r="60" spans="1:28" ht="48">
       <c r="A60" s="18" t="s">
-        <v>77</v>
+        <v>64</v>
       </c>
       <c r="B60" s="19" t="s">
-        <v>26</v>
+        <v>65</v>
       </c>
       <c r="C60" s="10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D60" s="10"/>
       <c r="E60" s="10"/>
@@ -3900,12 +3390,12 @@
       <c r="AA60" s="10"/>
       <c r="AB60" s="10"/>
     </row>
-    <row r="61" spans="1:29" ht="16" hidden="1">
+    <row r="61" spans="1:28" ht="112">
       <c r="A61" s="18" t="s">
-        <v>78</v>
+        <v>66</v>
       </c>
       <c r="B61" s="19" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C61" s="10">
         <v>0</v>
@@ -3922,15 +3412,15 @@
       <c r="AA61" s="10"/>
       <c r="AB61" s="10"/>
     </row>
-    <row r="62" spans="1:29" ht="64" hidden="1">
+    <row r="62" spans="1:28" ht="48">
       <c r="A62" s="18" t="s">
-        <v>79</v>
+        <v>264</v>
       </c>
       <c r="B62" s="19" t="s">
         <v>6</v>
       </c>
       <c r="C62" s="10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D62" s="10"/>
       <c r="E62" s="10"/>
@@ -3944,15 +3434,15 @@
       <c r="AA62" s="10"/>
       <c r="AB62" s="10"/>
     </row>
-    <row r="63" spans="1:29" ht="80" hidden="1">
+    <row r="63" spans="1:28" ht="16">
       <c r="A63" s="18" t="s">
-        <v>80</v>
+        <v>11</v>
       </c>
       <c r="B63" s="19" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C63" s="10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D63" s="10"/>
       <c r="E63" s="10"/>
@@ -3966,12 +3456,12 @@
       <c r="AA63" s="10"/>
       <c r="AB63" s="10"/>
     </row>
-    <row r="64" spans="1:29" ht="64" hidden="1">
+    <row r="64" spans="1:28" ht="48">
       <c r="A64" s="18" t="s">
-        <v>286</v>
+        <v>226</v>
       </c>
       <c r="B64" s="19" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C64" s="10">
         <v>1</v>
@@ -3988,15 +3478,15 @@
       <c r="AA64" s="10"/>
       <c r="AB64" s="10"/>
     </row>
-    <row r="65" spans="1:28" ht="16" hidden="1">
+    <row r="65" spans="1:28" ht="48">
       <c r="A65" s="18" t="s">
-        <v>12</v>
+        <v>227</v>
       </c>
       <c r="B65" s="19" t="s">
-        <v>5</v>
+        <v>246</v>
       </c>
       <c r="C65" s="10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D65" s="10"/>
       <c r="E65" s="10"/>
@@ -4010,15 +3500,15 @@
       <c r="AA65" s="10"/>
       <c r="AB65" s="10"/>
     </row>
-    <row r="66" spans="1:28" ht="32" hidden="1">
+    <row r="66" spans="1:28" ht="16">
       <c r="A66" s="18" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B66" s="19" t="s">
-        <v>5</v>
+        <v>63</v>
       </c>
       <c r="C66" s="10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D66" s="10"/>
       <c r="E66" s="10"/>
@@ -4032,15 +3522,15 @@
       <c r="AA66" s="10"/>
       <c r="AB66" s="10"/>
     </row>
-    <row r="67" spans="1:28" ht="16" hidden="1">
+    <row r="67" spans="1:28" ht="48">
       <c r="A67" s="18" t="s">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="B67" s="19" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C67" s="10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D67" s="10"/>
       <c r="E67" s="10"/>
@@ -4054,15 +3544,15 @@
       <c r="AA67" s="10"/>
       <c r="AB67" s="10"/>
     </row>
-    <row r="68" spans="1:28" ht="16" hidden="1">
+    <row r="68" spans="1:28" ht="48">
       <c r="A68" s="18" t="s">
-        <v>82</v>
+        <v>13</v>
       </c>
       <c r="B68" s="19" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C68" s="10">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D68" s="10"/>
       <c r="E68" s="10"/>
@@ -4076,12 +3566,12 @@
       <c r="AA68" s="10"/>
       <c r="AB68" s="10"/>
     </row>
-    <row r="69" spans="1:28" ht="16" hidden="1">
+    <row r="69" spans="1:28" ht="80">
       <c r="A69" s="18" t="s">
-        <v>83</v>
+        <v>228</v>
       </c>
       <c r="B69" s="19" t="s">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="C69" s="10">
         <v>2</v>
@@ -4098,15 +3588,15 @@
       <c r="AA69" s="10"/>
       <c r="AB69" s="10"/>
     </row>
-    <row r="70" spans="1:28" ht="16" hidden="1">
+    <row r="70" spans="1:28" ht="80">
       <c r="A70" s="18" t="s">
-        <v>84</v>
+        <v>229</v>
       </c>
       <c r="B70" s="19" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C70" s="10">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D70" s="10"/>
       <c r="E70" s="10"/>
@@ -4120,15 +3610,15 @@
       <c r="AA70" s="10"/>
       <c r="AB70" s="10"/>
     </row>
-    <row r="71" spans="1:28" ht="64" hidden="1">
+    <row r="71" spans="1:28" ht="32">
       <c r="A71" s="18" t="s">
-        <v>290</v>
+        <v>68</v>
       </c>
       <c r="B71" s="19" t="s">
-        <v>10</v>
+        <v>63</v>
       </c>
       <c r="C71" s="10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D71" s="10"/>
       <c r="E71" s="10"/>
@@ -4142,15 +3632,15 @@
       <c r="AA71" s="10"/>
       <c r="AB71" s="10"/>
     </row>
-    <row r="72" spans="1:28" ht="64" hidden="1">
+    <row r="72" spans="1:28" ht="32">
       <c r="A72" s="18" t="s">
-        <v>261</v>
+        <v>69</v>
       </c>
       <c r="B72" s="19" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C72" s="10">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D72" s="10"/>
       <c r="E72" s="10"/>
@@ -4164,15 +3654,15 @@
       <c r="AA72" s="10"/>
       <c r="AB72" s="10"/>
     </row>
-    <row r="73" spans="1:28" ht="16" hidden="1">
+    <row r="73" spans="1:28" ht="335">
       <c r="A73" s="18" t="s">
-        <v>85</v>
+        <v>230</v>
       </c>
       <c r="B73" s="19" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C73" s="10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D73" s="10"/>
       <c r="E73" s="10"/>
@@ -4186,15 +3676,15 @@
       <c r="AA73" s="10"/>
       <c r="AB73" s="10"/>
     </row>
-    <row r="74" spans="1:28" ht="64" hidden="1">
+    <row r="74" spans="1:28" ht="64">
       <c r="A74" s="18" t="s">
-        <v>291</v>
+        <v>231</v>
       </c>
       <c r="B74" s="19" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C74" s="10">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D74" s="10"/>
       <c r="E74" s="10"/>
@@ -4208,15 +3698,15 @@
       <c r="AA74" s="10"/>
       <c r="AB74" s="10"/>
     </row>
-    <row r="75" spans="1:28" ht="80" hidden="1">
+    <row r="75" spans="1:28" ht="80">
       <c r="A75" s="18" t="s">
-        <v>86</v>
+        <v>232</v>
       </c>
       <c r="B75" s="19" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C75" s="10">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D75" s="10"/>
       <c r="E75" s="10"/>
@@ -4230,15 +3720,15 @@
       <c r="AA75" s="10"/>
       <c r="AB75" s="10"/>
     </row>
-    <row r="76" spans="1:28" ht="80" hidden="1">
+    <row r="76" spans="1:28" ht="32">
       <c r="A76" s="18" t="s">
-        <v>87</v>
+        <v>70</v>
       </c>
       <c r="B76" s="19" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C76" s="10">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D76" s="10"/>
       <c r="E76" s="10"/>
@@ -4252,15 +3742,15 @@
       <c r="AA76" s="10"/>
       <c r="AB76" s="10"/>
     </row>
-    <row r="77" spans="1:28" ht="16" hidden="1">
+    <row r="77" spans="1:28" ht="16">
       <c r="A77" s="18" t="s">
-        <v>14</v>
+        <v>71</v>
       </c>
       <c r="B77" s="19" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C77" s="10">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D77" s="10"/>
       <c r="E77" s="10"/>
@@ -4274,12 +3764,12 @@
       <c r="AA77" s="10"/>
       <c r="AB77" s="10"/>
     </row>
-    <row r="78" spans="1:28" ht="64" hidden="1">
+    <row r="78" spans="1:28" ht="32">
       <c r="A78" s="18" t="s">
-        <v>88</v>
+        <v>72</v>
       </c>
       <c r="B78" s="19" t="s">
-        <v>5</v>
+        <v>65</v>
       </c>
       <c r="C78" s="10">
         <v>0</v>
@@ -4296,15 +3786,15 @@
       <c r="AA78" s="10"/>
       <c r="AB78" s="10"/>
     </row>
-    <row r="79" spans="1:28" ht="64">
+    <row r="79" spans="1:28" ht="32">
       <c r="A79" s="18" t="s">
-        <v>16</v>
+        <v>73</v>
       </c>
       <c r="B79" s="19" t="s">
-        <v>15</v>
+        <v>74</v>
       </c>
       <c r="C79" s="10">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D79" s="10"/>
       <c r="E79" s="10"/>
@@ -4318,15 +3808,15 @@
       <c r="AA79" s="10"/>
       <c r="AB79" s="10"/>
     </row>
-    <row r="80" spans="1:28" ht="32" hidden="1">
+    <row r="80" spans="1:28" ht="112">
       <c r="A80" s="18" t="s">
-        <v>90</v>
+        <v>75</v>
       </c>
       <c r="B80" s="19" t="s">
-        <v>5</v>
+        <v>63</v>
       </c>
       <c r="C80" s="10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D80" s="10"/>
       <c r="E80" s="10"/>
@@ -4340,12 +3830,12 @@
       <c r="AA80" s="10"/>
       <c r="AB80" s="10"/>
     </row>
-    <row r="81" spans="1:28" ht="48" hidden="1">
-      <c r="A81" s="18" t="s">
-        <v>89</v>
+    <row r="81" spans="1:28">
+      <c r="A81" s="21" t="s">
+        <v>76</v>
       </c>
       <c r="B81" s="19" t="s">
-        <v>5</v>
+        <v>65</v>
       </c>
       <c r="C81" s="10">
         <v>0</v>
@@ -4354,7 +3844,6 @@
       <c r="E81" s="10"/>
       <c r="F81" s="10"/>
       <c r="G81" s="10"/>
-      <c r="H81" s="10"/>
       <c r="K81" s="10"/>
       <c r="L81" s="10"/>
       <c r="O81" s="10"/>
@@ -4362,12 +3851,12 @@
       <c r="AA81" s="10"/>
       <c r="AB81" s="10"/>
     </row>
-    <row r="82" spans="1:28" ht="16" hidden="1">
-      <c r="A82" s="18" t="s">
-        <v>17</v>
+    <row r="82" spans="1:28" ht="16">
+      <c r="A82" s="22" t="s">
+        <v>77</v>
       </c>
       <c r="B82" s="19" t="s">
-        <v>6</v>
+        <v>63</v>
       </c>
       <c r="C82" s="10">
         <v>1</v>
@@ -4376,7 +3865,6 @@
       <c r="E82" s="10"/>
       <c r="F82" s="10"/>
       <c r="G82" s="10"/>
-      <c r="H82" s="10"/>
       <c r="K82" s="10"/>
       <c r="L82" s="10"/>
       <c r="O82" s="10"/>
@@ -4384,766 +3872,480 @@
       <c r="AA82" s="10"/>
       <c r="AB82" s="10"/>
     </row>
-    <row r="83" spans="1:28" ht="32" hidden="1">
-      <c r="A83" s="18" t="s">
-        <v>304</v>
+    <row r="83" spans="1:28" ht="64">
+      <c r="A83" s="23" t="s">
+        <v>78</v>
       </c>
       <c r="B83" s="19" t="s">
-        <v>5</v>
+        <v>63</v>
       </c>
       <c r="C83" s="10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D83" s="10"/>
-      <c r="E83" s="10"/>
-      <c r="F83" s="10"/>
-      <c r="G83" s="10"/>
-      <c r="H83" s="10"/>
-      <c r="K83" s="10"/>
-      <c r="L83" s="10"/>
       <c r="O83" s="10"/>
-      <c r="P83" s="10"/>
-      <c r="AA83" s="10"/>
-      <c r="AB83" s="10"/>
-    </row>
-    <row r="84" spans="1:28" ht="64" hidden="1">
-      <c r="A84" s="18" t="s">
-        <v>18</v>
-      </c>
-      <c r="B84" s="19" t="s">
-        <v>6</v>
+    </row>
+    <row r="84" spans="1:28" ht="32">
+      <c r="A84" s="23" t="s">
+        <v>79</v>
+      </c>
+      <c r="B84" s="20" t="s">
+        <v>58</v>
       </c>
       <c r="C84" s="10">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D84" s="10"/>
-      <c r="E84" s="10"/>
-      <c r="F84" s="10"/>
-      <c r="G84" s="10"/>
-      <c r="H84" s="10"/>
-      <c r="K84" s="10"/>
-      <c r="L84" s="10"/>
       <c r="O84" s="10"/>
-      <c r="P84" s="10"/>
-      <c r="AA84" s="10"/>
-      <c r="AB84" s="10"/>
-    </row>
-    <row r="85" spans="1:28" ht="64" hidden="1">
-      <c r="A85" s="18" t="s">
-        <v>91</v>
-      </c>
-      <c r="B85" s="19" t="s">
-        <v>6</v>
+    </row>
+    <row r="85" spans="1:28" ht="16">
+      <c r="A85" s="23" t="s">
+        <v>81</v>
+      </c>
+      <c r="B85" s="20" t="s">
+        <v>58</v>
       </c>
       <c r="C85" s="10">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D85" s="10"/>
-      <c r="E85" s="10"/>
-      <c r="F85" s="10"/>
-      <c r="G85" s="10"/>
-      <c r="H85" s="10"/>
-      <c r="K85" s="10"/>
-      <c r="L85" s="10"/>
       <c r="O85" s="10"/>
-      <c r="P85" s="10"/>
-      <c r="AA85" s="10"/>
-      <c r="AB85" s="10"/>
-    </row>
-    <row r="86" spans="1:28" ht="32">
-      <c r="A86" s="18" t="s">
-        <v>92</v>
-      </c>
-      <c r="B86" s="19" t="s">
-        <v>93</v>
+    </row>
+    <row r="86" spans="1:28" ht="16">
+      <c r="A86" s="24" t="s">
+        <v>80</v>
+      </c>
+      <c r="B86" s="20" t="s">
+        <v>65</v>
       </c>
       <c r="C86" s="10">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D86" s="10"/>
-      <c r="E86" s="10"/>
-      <c r="F86" s="10"/>
-      <c r="G86" s="10"/>
-      <c r="H86" s="10"/>
-      <c r="K86" s="10"/>
-      <c r="L86" s="10"/>
       <c r="O86" s="10"/>
-      <c r="P86" s="10"/>
-      <c r="AA86" s="10"/>
-      <c r="AB86" s="10"/>
-    </row>
-    <row r="87" spans="1:28" ht="32">
-      <c r="A87" s="18" t="s">
-        <v>318</v>
-      </c>
-      <c r="B87" s="19" t="s">
-        <v>93</v>
+    </row>
+    <row r="87" spans="1:28" ht="16">
+      <c r="A87" s="23" t="s">
+        <v>82</v>
+      </c>
+      <c r="B87" s="20" t="s">
+        <v>65</v>
       </c>
       <c r="C87" s="10">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D87" s="10"/>
-      <c r="E87" s="10"/>
-      <c r="F87" s="10"/>
-      <c r="G87" s="10"/>
-      <c r="H87" s="10"/>
-      <c r="K87" s="10"/>
-      <c r="L87" s="10"/>
       <c r="O87" s="10"/>
-      <c r="P87" s="10"/>
-      <c r="AA87" s="10"/>
-      <c r="AB87" s="10"/>
-    </row>
-    <row r="88" spans="1:28" ht="64">
-      <c r="A88" s="18" t="s">
-        <v>94</v>
-      </c>
-      <c r="B88" s="19" t="s">
-        <v>93</v>
+    </row>
+    <row r="88" spans="1:28" ht="16">
+      <c r="A88" s="23" t="s">
+        <v>83</v>
+      </c>
+      <c r="B88" s="20" t="s">
+        <v>58</v>
       </c>
       <c r="C88" s="10">
         <v>4</v>
       </c>
       <c r="D88" s="10"/>
-      <c r="E88" s="10"/>
-      <c r="F88" s="10"/>
-      <c r="G88" s="10"/>
-      <c r="H88" s="10"/>
-      <c r="K88" s="10"/>
-      <c r="L88" s="10"/>
       <c r="O88" s="10"/>
-      <c r="P88" s="10"/>
-      <c r="AA88" s="10"/>
-      <c r="AB88" s="10"/>
-    </row>
-    <row r="89" spans="1:28" ht="64" hidden="1">
-      <c r="A89" s="18" t="s">
+    </row>
+    <row r="89" spans="1:28" ht="16">
+      <c r="A89" s="23" t="s">
+        <v>281</v>
+      </c>
+      <c r="B89" s="20" t="s">
+        <v>58</v>
+      </c>
+      <c r="C89" s="10">
+        <v>4</v>
+      </c>
+      <c r="D89" s="10"/>
+      <c r="O89" s="10"/>
+    </row>
+    <row r="90" spans="1:28" ht="32">
+      <c r="A90" s="23" t="s">
+        <v>84</v>
+      </c>
+      <c r="B90" s="20" t="s">
+        <v>65</v>
+      </c>
+      <c r="C90" s="10">
+        <v>0</v>
+      </c>
+      <c r="D90" s="10"/>
+      <c r="O90" s="10"/>
+    </row>
+    <row r="91" spans="1:28" ht="16">
+      <c r="A91" s="23" t="s">
+        <v>85</v>
+      </c>
+      <c r="B91" s="20" t="s">
+        <v>65</v>
+      </c>
+      <c r="C91" s="10">
+        <v>0</v>
+      </c>
+      <c r="D91" s="10"/>
+      <c r="O91" s="10"/>
+    </row>
+    <row r="92" spans="1:28" ht="16">
+      <c r="A92" s="23" t="s">
+        <v>86</v>
+      </c>
+      <c r="B92" s="20" t="s">
+        <v>61</v>
+      </c>
+      <c r="C92" s="10">
+        <v>2</v>
+      </c>
+      <c r="D92" s="10"/>
+      <c r="O92" s="10"/>
+    </row>
+    <row r="93" spans="1:28" ht="32">
+      <c r="A93" s="23" t="s">
+        <v>276</v>
+      </c>
+      <c r="B93" s="20" t="s">
+        <v>87</v>
+      </c>
+      <c r="C93" s="10">
+        <v>0</v>
+      </c>
+      <c r="D93" s="10"/>
+      <c r="O93" s="10"/>
+    </row>
+    <row r="94" spans="1:28" ht="16">
+      <c r="A94" s="24" t="s">
+        <v>88</v>
+      </c>
+      <c r="B94" s="20" t="s">
+        <v>65</v>
+      </c>
+      <c r="C94" s="10">
+        <v>0</v>
+      </c>
+      <c r="D94" s="10"/>
+      <c r="O94" s="10"/>
+    </row>
+    <row r="95" spans="1:28" ht="32">
+      <c r="A95" s="23" t="s">
+        <v>89</v>
+      </c>
+      <c r="B95" s="20" t="s">
+        <v>90</v>
+      </c>
+      <c r="C95" s="10">
+        <v>4</v>
+      </c>
+      <c r="D95" s="10"/>
+      <c r="O95" s="10"/>
+    </row>
+    <row r="96" spans="1:28" ht="64">
+      <c r="A96" s="23" t="s">
+        <v>91</v>
+      </c>
+      <c r="B96" s="20" t="s">
+        <v>65</v>
+      </c>
+      <c r="C96" s="10">
+        <v>0</v>
+      </c>
+      <c r="D96" s="10"/>
+      <c r="O96" s="10"/>
+    </row>
+    <row r="97" spans="1:15" ht="32">
+      <c r="A97" s="23" t="s">
+        <v>92</v>
+      </c>
+      <c r="B97" s="20" t="s">
+        <v>65</v>
+      </c>
+      <c r="C97" s="10">
+        <v>0</v>
+      </c>
+      <c r="D97" s="10"/>
+      <c r="O97" s="10"/>
+    </row>
+    <row r="98" spans="1:15" ht="48">
+      <c r="A98" s="23" t="s">
+        <v>93</v>
+      </c>
+      <c r="B98" s="20" t="s">
+        <v>94</v>
+      </c>
+      <c r="C98" s="10">
+        <v>0</v>
+      </c>
+      <c r="D98" s="10"/>
+      <c r="O98" s="10"/>
+    </row>
+    <row r="99" spans="1:15" ht="16">
+      <c r="A99" s="23" t="s">
         <v>95</v>
       </c>
-      <c r="B89" s="19" t="s">
+      <c r="B99" s="20" t="s">
         <v>96</v>
-      </c>
-      <c r="C89" s="10">
-        <v>2</v>
-      </c>
-      <c r="D89" s="10"/>
-      <c r="E89" s="10"/>
-      <c r="F89" s="10"/>
-      <c r="G89" s="10"/>
-      <c r="H89" s="10"/>
-      <c r="K89" s="10"/>
-      <c r="L89" s="10"/>
-      <c r="O89" s="10"/>
-      <c r="P89" s="10"/>
-      <c r="AA89" s="10"/>
-      <c r="AB89" s="10"/>
-    </row>
-    <row r="90" spans="1:28" ht="64" hidden="1">
-      <c r="A90" s="18" t="s">
-        <v>97</v>
-      </c>
-      <c r="B90" s="19" t="s">
-        <v>98</v>
-      </c>
-      <c r="C90" s="10">
-        <v>1</v>
-      </c>
-      <c r="D90" s="10"/>
-      <c r="E90" s="10"/>
-      <c r="F90" s="10"/>
-      <c r="G90" s="10"/>
-      <c r="H90" s="10"/>
-      <c r="K90" s="10"/>
-      <c r="L90" s="10"/>
-      <c r="O90" s="10"/>
-      <c r="P90" s="10"/>
-      <c r="AA90" s="10"/>
-      <c r="AB90" s="10"/>
-    </row>
-    <row r="91" spans="1:28" ht="48" hidden="1">
-      <c r="A91" s="18" t="s">
-        <v>99</v>
-      </c>
-      <c r="B91" s="19" t="s">
-        <v>100</v>
-      </c>
-      <c r="C91" s="10">
-        <v>0</v>
-      </c>
-      <c r="D91" s="10"/>
-      <c r="E91" s="10"/>
-      <c r="F91" s="10"/>
-      <c r="G91" s="10"/>
-      <c r="H91" s="10"/>
-      <c r="K91" s="10"/>
-      <c r="L91" s="10"/>
-      <c r="O91" s="10"/>
-      <c r="P91" s="10"/>
-      <c r="AA91" s="10"/>
-      <c r="AB91" s="10"/>
-    </row>
-    <row r="92" spans="1:28" ht="112" hidden="1">
-      <c r="A92" s="18" t="s">
-        <v>101</v>
-      </c>
-      <c r="B92" s="19" t="s">
-        <v>5</v>
-      </c>
-      <c r="C92" s="10">
-        <v>0</v>
-      </c>
-      <c r="D92" s="10"/>
-      <c r="E92" s="10"/>
-      <c r="F92" s="10"/>
-      <c r="G92" s="10"/>
-      <c r="H92" s="10"/>
-      <c r="K92" s="10"/>
-      <c r="L92" s="10"/>
-      <c r="O92" s="10"/>
-      <c r="P92" s="10"/>
-      <c r="AA92" s="10"/>
-      <c r="AB92" s="10"/>
-    </row>
-    <row r="93" spans="1:28" ht="48" hidden="1">
-      <c r="A93" s="18" t="s">
-        <v>300</v>
-      </c>
-      <c r="B93" s="19" t="s">
-        <v>10</v>
-      </c>
-      <c r="C93" s="10">
-        <v>2</v>
-      </c>
-      <c r="D93" s="10"/>
-      <c r="E93" s="10"/>
-      <c r="F93" s="10"/>
-      <c r="G93" s="10"/>
-      <c r="H93" s="10"/>
-      <c r="K93" s="10"/>
-      <c r="L93" s="10"/>
-      <c r="O93" s="10"/>
-      <c r="P93" s="10"/>
-      <c r="AA93" s="10"/>
-      <c r="AB93" s="10"/>
-    </row>
-    <row r="94" spans="1:28" ht="16" hidden="1">
-      <c r="A94" s="18" t="s">
-        <v>19</v>
-      </c>
-      <c r="B94" s="19" t="s">
-        <v>6</v>
-      </c>
-      <c r="C94" s="10">
-        <v>1</v>
-      </c>
-      <c r="D94" s="10"/>
-      <c r="E94" s="10"/>
-      <c r="F94" s="10"/>
-      <c r="G94" s="10"/>
-      <c r="H94" s="10"/>
-      <c r="K94" s="10"/>
-      <c r="L94" s="10"/>
-      <c r="O94" s="10"/>
-      <c r="P94" s="10"/>
-      <c r="AA94" s="10"/>
-      <c r="AB94" s="10"/>
-    </row>
-    <row r="95" spans="1:28" ht="48" hidden="1">
-      <c r="A95" s="18" t="s">
-        <v>262</v>
-      </c>
-      <c r="B95" s="19" t="s">
-        <v>6</v>
-      </c>
-      <c r="C95" s="10">
-        <v>1</v>
-      </c>
-      <c r="D95" s="10"/>
-      <c r="E95" s="10"/>
-      <c r="F95" s="10"/>
-      <c r="G95" s="10"/>
-      <c r="H95" s="10"/>
-      <c r="K95" s="10"/>
-      <c r="L95" s="10"/>
-      <c r="O95" s="10"/>
-      <c r="P95" s="10"/>
-      <c r="AA95" s="10"/>
-      <c r="AB95" s="10"/>
-    </row>
-    <row r="96" spans="1:28" ht="48" hidden="1">
-      <c r="A96" s="18" t="s">
-        <v>263</v>
-      </c>
-      <c r="B96" s="19" t="s">
-        <v>282</v>
-      </c>
-      <c r="C96" s="10">
-        <v>1</v>
-      </c>
-      <c r="D96" s="10"/>
-      <c r="E96" s="10"/>
-      <c r="F96" s="10"/>
-      <c r="G96" s="10"/>
-      <c r="H96" s="10"/>
-      <c r="K96" s="10"/>
-      <c r="L96" s="10"/>
-      <c r="O96" s="10"/>
-      <c r="P96" s="10"/>
-      <c r="AA96" s="10"/>
-      <c r="AB96" s="10"/>
-    </row>
-    <row r="97" spans="1:28" ht="16" hidden="1">
-      <c r="A97" s="18" t="s">
-        <v>20</v>
-      </c>
-      <c r="B97" s="19" t="s">
-        <v>98</v>
-      </c>
-      <c r="C97" s="10">
-        <v>1</v>
-      </c>
-      <c r="D97" s="10"/>
-      <c r="E97" s="10"/>
-      <c r="F97" s="10"/>
-      <c r="G97" s="10"/>
-      <c r="H97" s="10"/>
-      <c r="K97" s="10"/>
-      <c r="L97" s="10"/>
-      <c r="O97" s="10"/>
-      <c r="P97" s="10"/>
-      <c r="AA97" s="10"/>
-      <c r="AB97" s="10"/>
-    </row>
-    <row r="98" spans="1:28" ht="48" hidden="1">
-      <c r="A98" s="18" t="s">
-        <v>102</v>
-      </c>
-      <c r="B98" s="19" t="s">
-        <v>6</v>
-      </c>
-      <c r="C98" s="10">
-        <v>1</v>
-      </c>
-      <c r="D98" s="10"/>
-      <c r="E98" s="10"/>
-      <c r="F98" s="10"/>
-      <c r="G98" s="10"/>
-      <c r="H98" s="10"/>
-      <c r="K98" s="10"/>
-      <c r="L98" s="10"/>
-      <c r="O98" s="10"/>
-      <c r="P98" s="10"/>
-      <c r="AA98" s="10"/>
-      <c r="AB98" s="10"/>
-    </row>
-    <row r="99" spans="1:28" ht="48" hidden="1">
-      <c r="A99" s="18" t="s">
-        <v>21</v>
-      </c>
-      <c r="B99" s="19" t="s">
-        <v>10</v>
       </c>
       <c r="C99" s="10">
         <v>2</v>
       </c>
       <c r="D99" s="10"/>
-      <c r="E99" s="10"/>
-      <c r="F99" s="10"/>
-      <c r="G99" s="10"/>
-      <c r="H99" s="10"/>
-      <c r="K99" s="10"/>
-      <c r="L99" s="10"/>
       <c r="O99" s="10"/>
-      <c r="P99" s="10"/>
-      <c r="AA99" s="10"/>
-      <c r="AB99" s="10"/>
-    </row>
-    <row r="100" spans="1:28" ht="96" hidden="1">
-      <c r="A100" s="18" t="s">
-        <v>264</v>
-      </c>
-      <c r="B100" s="19" t="s">
-        <v>10</v>
+    </row>
+    <row r="100" spans="1:15" ht="32">
+      <c r="A100" s="23" t="s">
+        <v>97</v>
+      </c>
+      <c r="B100" s="20" t="s">
+        <v>61</v>
       </c>
       <c r="C100" s="10">
         <v>2</v>
       </c>
       <c r="D100" s="10"/>
-      <c r="E100" s="10"/>
-      <c r="F100" s="10"/>
-      <c r="G100" s="10"/>
-      <c r="H100" s="10"/>
-      <c r="K100" s="10"/>
-      <c r="L100" s="10"/>
       <c r="O100" s="10"/>
-      <c r="P100" s="10"/>
-      <c r="AA100" s="10"/>
-      <c r="AB100" s="10"/>
-    </row>
-    <row r="101" spans="1:28" ht="80" hidden="1">
-      <c r="A101" s="18" t="s">
-        <v>265</v>
-      </c>
-      <c r="B101" s="19" t="s">
-        <v>10</v>
+    </row>
+    <row r="101" spans="1:15" ht="64">
+      <c r="A101" s="23" t="s">
+        <v>257</v>
+      </c>
+      <c r="B101" s="20" t="s">
+        <v>65</v>
       </c>
       <c r="C101" s="10">
+        <v>0</v>
+      </c>
+      <c r="D101" s="10"/>
+      <c r="O101" s="10"/>
+    </row>
+    <row r="102" spans="1:15" ht="64">
+      <c r="A102" s="23" t="s">
+        <v>98</v>
+      </c>
+      <c r="B102" s="20" t="s">
+        <v>61</v>
+      </c>
+      <c r="C102" s="10">
         <v>2</v>
       </c>
-      <c r="D101" s="10"/>
-      <c r="E101" s="10"/>
-      <c r="F101" s="10"/>
-      <c r="G101" s="10"/>
-      <c r="H101" s="10"/>
-      <c r="K101" s="10"/>
-      <c r="L101" s="10"/>
-      <c r="O101" s="10"/>
-      <c r="P101" s="10"/>
-      <c r="AA101" s="10"/>
-      <c r="AB101" s="10"/>
-    </row>
-    <row r="102" spans="1:28" ht="32" hidden="1">
-      <c r="A102" s="18" t="s">
-        <v>103</v>
-      </c>
-      <c r="B102" s="19" t="s">
-        <v>98</v>
-      </c>
-      <c r="C102" s="10">
-        <v>1</v>
-      </c>
       <c r="D102" s="10"/>
-      <c r="E102" s="10"/>
-      <c r="F102" s="10"/>
-      <c r="G102" s="10"/>
-      <c r="H102" s="10"/>
-      <c r="K102" s="10"/>
-      <c r="L102" s="10"/>
       <c r="O102" s="10"/>
-      <c r="P102" s="10"/>
-      <c r="AA102" s="10"/>
-      <c r="AB102" s="10"/>
-    </row>
-    <row r="103" spans="1:28" ht="32">
-      <c r="A103" s="18" t="s">
-        <v>104</v>
-      </c>
-      <c r="B103" s="19" t="s">
-        <v>15</v>
+    </row>
+    <row r="103" spans="1:15" ht="48">
+      <c r="A103" s="23" t="s">
+        <v>261</v>
+      </c>
+      <c r="B103" s="20" t="s">
+        <v>63</v>
       </c>
       <c r="C103" s="10">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D103" s="10"/>
-      <c r="E103" s="10"/>
-      <c r="F103" s="10"/>
-      <c r="G103" s="10"/>
-      <c r="H103" s="10"/>
-      <c r="K103" s="10"/>
-      <c r="L103" s="10"/>
       <c r="O103" s="10"/>
-      <c r="P103" s="10"/>
-      <c r="AA103" s="10"/>
-      <c r="AB103" s="10"/>
-    </row>
-    <row r="104" spans="1:28" ht="335" hidden="1">
-      <c r="A104" s="18" t="s">
-        <v>266</v>
-      </c>
-      <c r="B104" s="19" t="s">
-        <v>6</v>
+    </row>
+    <row r="104" spans="1:15" ht="32">
+      <c r="A104" s="23" t="s">
+        <v>100</v>
+      </c>
+      <c r="B104" s="20" t="s">
+        <v>99</v>
       </c>
       <c r="C104" s="10">
         <v>1</v>
       </c>
       <c r="D104" s="10"/>
-      <c r="E104" s="10"/>
-      <c r="F104" s="10"/>
-      <c r="G104" s="10"/>
-      <c r="H104" s="10"/>
-      <c r="K104" s="10"/>
-      <c r="L104" s="10"/>
       <c r="O104" s="10"/>
-      <c r="P104" s="10"/>
-      <c r="AA104" s="10"/>
-      <c r="AB104" s="10"/>
-    </row>
-    <row r="105" spans="1:28" ht="64">
-      <c r="A105" s="18" t="s">
-        <v>267</v>
-      </c>
-      <c r="B105" s="19" t="s">
-        <v>15</v>
+    </row>
+    <row r="105" spans="1:15" ht="48">
+      <c r="A105" s="23" t="s">
+        <v>101</v>
+      </c>
+      <c r="B105" s="20" t="s">
+        <v>58</v>
       </c>
       <c r="C105" s="10">
         <v>4</v>
       </c>
       <c r="D105" s="10"/>
-      <c r="E105" s="10"/>
-      <c r="F105" s="10"/>
-      <c r="G105" s="10"/>
-      <c r="H105" s="10"/>
-      <c r="K105" s="10"/>
-      <c r="L105" s="10"/>
       <c r="O105" s="10"/>
-      <c r="P105" s="10"/>
-      <c r="AA105" s="10"/>
-      <c r="AB105" s="10"/>
-    </row>
-    <row r="106" spans="1:28" ht="80">
-      <c r="A106" s="18" t="s">
-        <v>268</v>
-      </c>
-      <c r="B106" s="19" t="s">
-        <v>15</v>
+    </row>
+    <row r="106" spans="1:15" ht="32">
+      <c r="A106" s="23" t="s">
+        <v>102</v>
+      </c>
+      <c r="B106" s="20" t="s">
+        <v>58</v>
       </c>
       <c r="C106" s="10">
         <v>4</v>
       </c>
       <c r="D106" s="10"/>
-      <c r="E106" s="10"/>
-      <c r="F106" s="10"/>
-      <c r="G106" s="10"/>
-      <c r="H106" s="10"/>
-      <c r="K106" s="10"/>
-      <c r="L106" s="10"/>
       <c r="O106" s="10"/>
-      <c r="P106" s="10"/>
-      <c r="AA106" s="10"/>
-      <c r="AB106" s="10"/>
-    </row>
-    <row r="107" spans="1:28" ht="32">
-      <c r="A107" s="18" t="s">
-        <v>105</v>
-      </c>
-      <c r="B107" s="19" t="s">
-        <v>15</v>
+    </row>
+    <row r="107" spans="1:15" ht="16">
+      <c r="A107" s="23" t="s">
+        <v>103</v>
+      </c>
+      <c r="B107" s="20" t="s">
+        <v>58</v>
       </c>
       <c r="C107" s="10">
         <v>4</v>
       </c>
       <c r="D107" s="10"/>
-      <c r="E107" s="10"/>
-      <c r="F107" s="10"/>
-      <c r="G107" s="10"/>
-      <c r="H107" s="10"/>
-      <c r="K107" s="10"/>
-      <c r="L107" s="10"/>
       <c r="O107" s="10"/>
-      <c r="P107" s="10"/>
-      <c r="AA107" s="10"/>
-      <c r="AB107" s="10"/>
-    </row>
-    <row r="108" spans="1:28" ht="16" hidden="1">
-      <c r="A108" s="18" t="s">
+    </row>
+    <row r="108" spans="1:15" ht="32">
+      <c r="A108" s="23" t="s">
+        <v>104</v>
+      </c>
+      <c r="B108" s="20" t="s">
+        <v>65</v>
+      </c>
+      <c r="C108" s="10">
+        <v>0</v>
+      </c>
+      <c r="D108" s="10"/>
+      <c r="O108" s="10"/>
+    </row>
+    <row r="109" spans="1:15" ht="32">
+      <c r="A109" s="23" t="s">
+        <v>105</v>
+      </c>
+      <c r="B109" s="20" t="s">
+        <v>65</v>
+      </c>
+      <c r="C109" s="10">
+        <v>0</v>
+      </c>
+      <c r="D109" s="10"/>
+      <c r="O109" s="10"/>
+    </row>
+    <row r="110" spans="1:15" ht="16">
+      <c r="A110" s="23" t="s">
         <v>106</v>
       </c>
-      <c r="B108" s="19" t="s">
-        <v>100</v>
-      </c>
-      <c r="C108" s="10">
-        <v>0</v>
-      </c>
-      <c r="D108" s="10"/>
-      <c r="E108" s="10"/>
-      <c r="F108" s="10"/>
-      <c r="G108" s="10"/>
-      <c r="H108" s="10"/>
-      <c r="K108" s="10"/>
-      <c r="L108" s="10"/>
-      <c r="O108" s="10"/>
-      <c r="P108" s="10"/>
-      <c r="AA108" s="10"/>
-      <c r="AB108" s="10"/>
-    </row>
-    <row r="109" spans="1:28" ht="16" hidden="1">
-      <c r="A109" s="18" t="s">
+      <c r="B110" s="20" t="s">
+        <v>65</v>
+      </c>
+      <c r="C110" s="10">
+        <v>0</v>
+      </c>
+      <c r="D110" s="10"/>
+      <c r="O110" s="10"/>
+    </row>
+    <row r="111" spans="1:15" ht="16">
+      <c r="A111" s="23" t="s">
         <v>107</v>
       </c>
-      <c r="B109" s="19" t="s">
-        <v>10</v>
-      </c>
-      <c r="C109" s="10">
-        <v>2</v>
-      </c>
-      <c r="D109" s="10"/>
-      <c r="E109" s="10"/>
-      <c r="F109" s="10"/>
-      <c r="G109" s="10"/>
-      <c r="H109" s="10"/>
-      <c r="K109" s="10"/>
-      <c r="L109" s="10"/>
-      <c r="O109" s="10"/>
-      <c r="P109" s="10"/>
-      <c r="AA109" s="10"/>
-      <c r="AB109" s="10"/>
-    </row>
-    <row r="110" spans="1:28" ht="32" hidden="1">
-      <c r="A110" s="18" t="s">
+      <c r="B111" s="20" t="s">
+        <v>65</v>
+      </c>
+      <c r="C111" s="10">
+        <v>0</v>
+      </c>
+      <c r="D111" s="10"/>
+      <c r="O111" s="10"/>
+    </row>
+    <row r="112" spans="1:15" ht="32">
+      <c r="A112" s="23" t="s">
         <v>108</v>
       </c>
-      <c r="B110" s="19" t="s">
-        <v>100</v>
-      </c>
-      <c r="C110" s="10">
-        <v>0</v>
-      </c>
-      <c r="D110" s="10"/>
-      <c r="E110" s="10"/>
-      <c r="F110" s="10"/>
-      <c r="G110" s="10"/>
-      <c r="H110" s="10"/>
-      <c r="K110" s="10"/>
-      <c r="L110" s="10"/>
-      <c r="O110" s="10"/>
-      <c r="P110" s="10"/>
-      <c r="AA110" s="10"/>
-      <c r="AB110" s="10"/>
-    </row>
-    <row r="111" spans="1:28" ht="32" hidden="1">
-      <c r="A111" s="18" t="s">
+      <c r="B112" s="20" t="s">
+        <v>65</v>
+      </c>
+      <c r="C112" s="10">
+        <v>0</v>
+      </c>
+      <c r="D112" s="10"/>
+      <c r="O112" s="10"/>
+    </row>
+    <row r="113" spans="1:15" ht="32">
+      <c r="A113" s="23" t="s">
         <v>109</v>
       </c>
-      <c r="B111" s="19" t="s">
+      <c r="B113" s="20" t="s">
+        <v>65</v>
+      </c>
+      <c r="C113" s="10">
+        <v>0</v>
+      </c>
+      <c r="D113" s="10"/>
+      <c r="O113" s="10"/>
+    </row>
+    <row r="114" spans="1:15" ht="32">
+      <c r="A114" s="23" t="s">
         <v>110</v>
       </c>
-      <c r="C111" s="10">
-        <v>2</v>
-      </c>
-      <c r="D111" s="10"/>
-      <c r="E111" s="10"/>
-      <c r="F111" s="10"/>
-      <c r="G111" s="10"/>
-      <c r="H111" s="10"/>
-      <c r="K111" s="10"/>
-      <c r="L111" s="10"/>
-      <c r="O111" s="10"/>
-      <c r="P111" s="10"/>
-      <c r="AA111" s="10"/>
-      <c r="AB111" s="10"/>
-    </row>
-    <row r="112" spans="1:28" ht="112" hidden="1">
-      <c r="A112" s="18" t="s">
+      <c r="B114" s="20" t="s">
+        <v>65</v>
+      </c>
+      <c r="C114" s="10">
+        <v>0</v>
+      </c>
+      <c r="D114" s="10"/>
+      <c r="O114" s="10"/>
+    </row>
+    <row r="115" spans="1:15" ht="16">
+      <c r="A115" s="23" t="s">
         <v>111</v>
       </c>
-      <c r="B112" s="19" t="s">
-        <v>98</v>
-      </c>
-      <c r="C112" s="10">
-        <v>1</v>
-      </c>
-      <c r="D112" s="10"/>
-      <c r="E112" s="10"/>
-      <c r="F112" s="10"/>
-      <c r="G112" s="10"/>
-      <c r="H112" s="10"/>
-      <c r="K112" s="10"/>
-      <c r="L112" s="10"/>
-      <c r="O112" s="10"/>
-      <c r="P112" s="10"/>
-      <c r="AA112" s="10"/>
-      <c r="AB112" s="10"/>
-    </row>
-    <row r="113" spans="1:28" hidden="1">
-      <c r="A113" s="21" t="s">
-        <v>112</v>
-      </c>
-      <c r="B113" s="19" t="s">
-        <v>100</v>
-      </c>
-      <c r="C113" s="10">
-        <v>0</v>
-      </c>
-      <c r="D113" s="10"/>
-      <c r="E113" s="10"/>
-      <c r="F113" s="10"/>
-      <c r="G113" s="10"/>
-      <c r="K113" s="10"/>
-      <c r="L113" s="10"/>
-      <c r="O113" s="10"/>
-      <c r="P113" s="10"/>
-      <c r="AA113" s="10"/>
-      <c r="AB113" s="10"/>
-    </row>
-    <row r="114" spans="1:28" ht="16" hidden="1">
-      <c r="A114" s="22" t="s">
-        <v>113</v>
-      </c>
-      <c r="B114" s="19" t="s">
-        <v>98</v>
-      </c>
-      <c r="C114" s="10">
-        <v>1</v>
-      </c>
-      <c r="D114" s="10"/>
-      <c r="E114" s="10"/>
-      <c r="F114" s="10"/>
-      <c r="G114" s="10"/>
-      <c r="K114" s="10"/>
-      <c r="L114" s="10"/>
-      <c r="O114" s="10"/>
-      <c r="P114" s="10"/>
-      <c r="AA114" s="10"/>
-      <c r="AB114" s="10"/>
-    </row>
-    <row r="115" spans="1:28" ht="64" hidden="1">
-      <c r="A115" s="23" t="s">
-        <v>114</v>
-      </c>
-      <c r="B115" s="19" t="s">
-        <v>98</v>
+      <c r="B115" s="20" t="s">
+        <v>65</v>
       </c>
       <c r="C115" s="10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D115" s="10"/>
       <c r="O115" s="10"/>
     </row>
-    <row r="116" spans="1:28" ht="32">
+    <row r="116" spans="1:15" ht="16">
       <c r="A116" s="23" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="B116" s="20" t="s">
-        <v>93</v>
+        <v>65</v>
       </c>
       <c r="C116" s="10">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D116" s="10"/>
       <c r="O116" s="10"/>
     </row>
-    <row r="117" spans="1:28" ht="16">
+    <row r="117" spans="1:15" ht="16">
       <c r="A117" s="23" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="B117" s="20" t="s">
-        <v>93</v>
+        <v>65</v>
       </c>
       <c r="C117" s="10">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D117" s="10"/>
       <c r="O117" s="10"/>
     </row>
-    <row r="118" spans="1:28" ht="16" hidden="1">
+    <row r="118" spans="1:15" ht="16">
       <c r="A118" s="24" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B118" s="20" t="s">
-        <v>100</v>
+        <v>63</v>
       </c>
       <c r="C118" s="10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D118" s="10"/>
       <c r="O118" s="10"/>
     </row>
-    <row r="119" spans="1:28" ht="16" hidden="1">
-      <c r="A119" s="23" t="s">
-        <v>118</v>
+    <row r="119" spans="1:15" ht="16">
+      <c r="A119" s="24" t="s">
+        <v>115</v>
       </c>
       <c r="B119" s="20" t="s">
-        <v>100</v>
+        <v>65</v>
       </c>
       <c r="C119" s="10">
         <v>0</v>
@@ -5151,64 +4353,64 @@
       <c r="D119" s="10"/>
       <c r="O119" s="10"/>
     </row>
-    <row r="120" spans="1:28" ht="16">
-      <c r="A120" s="23" t="s">
-        <v>119</v>
+    <row r="120" spans="1:15" ht="16">
+      <c r="A120" s="24" t="s">
+        <v>117</v>
       </c>
       <c r="B120" s="20" t="s">
-        <v>93</v>
+        <v>63</v>
       </c>
       <c r="C120" s="10">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D120" s="10"/>
       <c r="O120" s="10"/>
     </row>
-    <row r="121" spans="1:28" ht="16">
-      <c r="A121" s="23" t="s">
-        <v>317</v>
+    <row r="121" spans="1:15" ht="16">
+      <c r="A121" s="24" t="s">
+        <v>116</v>
       </c>
       <c r="B121" s="20" t="s">
-        <v>93</v>
+        <v>61</v>
       </c>
       <c r="C121" s="10">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D121" s="10"/>
       <c r="O121" s="10"/>
     </row>
-    <row r="122" spans="1:28" ht="32" hidden="1">
-      <c r="A122" s="23" t="s">
-        <v>120</v>
+    <row r="122" spans="1:15" ht="16">
+      <c r="A122" s="24" t="s">
+        <v>118</v>
       </c>
       <c r="B122" s="20" t="s">
-        <v>100</v>
+        <v>63</v>
       </c>
       <c r="C122" s="10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D122" s="10"/>
       <c r="O122" s="10"/>
     </row>
-    <row r="123" spans="1:28" ht="16" hidden="1">
-      <c r="A123" s="23" t="s">
-        <v>121</v>
+    <row r="123" spans="1:15" ht="16">
+      <c r="A123" s="24" t="s">
+        <v>119</v>
       </c>
       <c r="B123" s="20" t="s">
-        <v>100</v>
+        <v>61</v>
       </c>
       <c r="C123" s="10">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D123" s="10"/>
       <c r="O123" s="10"/>
     </row>
-    <row r="124" spans="1:28" ht="16" hidden="1">
-      <c r="A124" s="23" t="s">
-        <v>122</v>
+    <row r="124" spans="1:15" ht="16">
+      <c r="A124" s="24" t="s">
+        <v>120</v>
       </c>
       <c r="B124" s="20" t="s">
-        <v>96</v>
+        <v>61</v>
       </c>
       <c r="C124" s="10">
         <v>2</v>
@@ -5216,38 +4418,38 @@
       <c r="D124" s="10"/>
       <c r="O124" s="10"/>
     </row>
-    <row r="125" spans="1:28" ht="32" hidden="1">
-      <c r="A125" s="23" t="s">
-        <v>312</v>
+    <row r="125" spans="1:15" ht="16">
+      <c r="A125" s="24" t="s">
+        <v>121</v>
       </c>
       <c r="B125" s="20" t="s">
-        <v>123</v>
+        <v>58</v>
       </c>
       <c r="C125" s="10">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D125" s="10"/>
       <c r="O125" s="10"/>
     </row>
-    <row r="126" spans="1:28" ht="16" hidden="1">
+    <row r="126" spans="1:15" ht="16">
       <c r="A126" s="24" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B126" s="20" t="s">
-        <v>100</v>
+        <v>58</v>
       </c>
       <c r="C126" s="10">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D126" s="10"/>
       <c r="O126" s="10"/>
     </row>
-    <row r="127" spans="1:28" ht="32">
-      <c r="A127" s="23" t="s">
-        <v>125</v>
+    <row r="127" spans="1:15" ht="16">
+      <c r="A127" s="24" t="s">
+        <v>41</v>
       </c>
       <c r="B127" s="20" t="s">
-        <v>126</v>
+        <v>58</v>
       </c>
       <c r="C127" s="10">
         <v>4</v>
@@ -5255,12 +4457,12 @@
       <c r="D127" s="10"/>
       <c r="O127" s="10"/>
     </row>
-    <row r="128" spans="1:28" ht="64" hidden="1">
-      <c r="A128" s="23" t="s">
-        <v>127</v>
+    <row r="128" spans="1:15" ht="16">
+      <c r="A128" s="24" t="s">
+        <v>123</v>
       </c>
       <c r="B128" s="20" t="s">
-        <v>100</v>
+        <v>65</v>
       </c>
       <c r="C128" s="10">
         <v>0</v>
@@ -5268,77 +4470,77 @@
       <c r="D128" s="10"/>
       <c r="O128" s="10"/>
     </row>
-    <row r="129" spans="1:15" ht="32" hidden="1">
+    <row r="129" spans="1:15" ht="16">
       <c r="A129" s="23" t="s">
-        <v>128</v>
+        <v>262</v>
       </c>
       <c r="B129" s="20" t="s">
-        <v>100</v>
+        <v>63</v>
       </c>
       <c r="C129" s="10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D129" s="10"/>
       <c r="O129" s="10"/>
     </row>
-    <row r="130" spans="1:15" ht="48" hidden="1">
+    <row r="130" spans="1:15" ht="16">
       <c r="A130" s="23" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="B130" s="20" t="s">
-        <v>130</v>
+        <v>63</v>
       </c>
       <c r="C130" s="10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D130" s="10"/>
       <c r="O130" s="10"/>
     </row>
-    <row r="131" spans="1:15" ht="16" hidden="1">
+    <row r="131" spans="1:15" ht="16">
       <c r="A131" s="23" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="B131" s="20" t="s">
-        <v>132</v>
+        <v>18</v>
       </c>
       <c r="C131" s="10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D131" s="10"/>
       <c r="O131" s="10"/>
     </row>
-    <row r="132" spans="1:15" ht="32" hidden="1">
+    <row r="132" spans="1:15" ht="16">
       <c r="A132" s="23" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="B132" s="20" t="s">
-        <v>96</v>
+        <v>18</v>
       </c>
       <c r="C132" s="10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D132" s="10"/>
       <c r="O132" s="10"/>
     </row>
-    <row r="133" spans="1:15" ht="64" hidden="1">
+    <row r="133" spans="1:15" ht="16">
       <c r="A133" s="23" t="s">
-        <v>293</v>
+        <v>127</v>
       </c>
       <c r="B133" s="20" t="s">
-        <v>100</v>
+        <v>16</v>
       </c>
       <c r="C133" s="10">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D133" s="10"/>
       <c r="O133" s="10"/>
     </row>
-    <row r="134" spans="1:15" ht="64" hidden="1">
+    <row r="134" spans="1:15" ht="16">
       <c r="A134" s="23" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="B134" s="20" t="s">
-        <v>96</v>
+        <v>16</v>
       </c>
       <c r="C134" s="10">
         <v>2</v>
@@ -5346,207 +4548,207 @@
       <c r="D134" s="10"/>
       <c r="O134" s="10"/>
     </row>
-    <row r="135" spans="1:15" ht="48" hidden="1">
+    <row r="135" spans="1:15" ht="32">
       <c r="A135" s="23" t="s">
-        <v>297</v>
+        <v>129</v>
       </c>
       <c r="B135" s="20" t="s">
-        <v>98</v>
+        <v>16</v>
       </c>
       <c r="C135" s="10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D135" s="10"/>
       <c r="O135" s="10"/>
     </row>
-    <row r="136" spans="1:15" ht="32" hidden="1">
+    <row r="136" spans="1:15" ht="48">
       <c r="A136" s="23" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B136" s="20" t="s">
-        <v>135</v>
+        <v>16</v>
       </c>
       <c r="C136" s="10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D136" s="10"/>
       <c r="O136" s="10"/>
     </row>
-    <row r="137" spans="1:15" ht="48">
+    <row r="137" spans="1:15" ht="16">
       <c r="A137" s="23" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B137" s="20" t="s">
-        <v>93</v>
+        <v>16</v>
       </c>
       <c r="C137" s="10">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D137" s="10"/>
       <c r="O137" s="10"/>
     </row>
-    <row r="138" spans="1:15" ht="32">
+    <row r="138" spans="1:15" ht="16">
       <c r="A138" s="23" t="s">
-        <v>138</v>
+        <v>130</v>
       </c>
       <c r="B138" s="20" t="s">
-        <v>93</v>
+        <v>65</v>
       </c>
       <c r="C138" s="10">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D138" s="10"/>
       <c r="O138" s="10"/>
     </row>
-    <row r="139" spans="1:15" ht="16">
+    <row r="139" spans="1:15" ht="64">
       <c r="A139" s="23" t="s">
-        <v>139</v>
+        <v>235</v>
       </c>
       <c r="B139" s="20" t="s">
-        <v>93</v>
+        <v>16</v>
       </c>
       <c r="C139" s="10">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D139" s="10"/>
       <c r="O139" s="10"/>
     </row>
-    <row r="140" spans="1:15" ht="32" hidden="1">
+    <row r="140" spans="1:15" ht="64">
       <c r="A140" s="23" t="s">
-        <v>140</v>
+        <v>233</v>
       </c>
       <c r="B140" s="20" t="s">
-        <v>100</v>
+        <v>16</v>
       </c>
       <c r="C140" s="10">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D140" s="10"/>
       <c r="O140" s="10"/>
     </row>
-    <row r="141" spans="1:15" ht="32" hidden="1">
+    <row r="141" spans="1:15" ht="48">
       <c r="A141" s="23" t="s">
-        <v>141</v>
+        <v>234</v>
       </c>
       <c r="B141" s="20" t="s">
-        <v>100</v>
+        <v>16</v>
       </c>
       <c r="C141" s="10">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D141" s="10"/>
       <c r="O141" s="10"/>
     </row>
-    <row r="142" spans="1:15" ht="16" hidden="1">
+    <row r="142" spans="1:15" ht="32">
       <c r="A142" s="23" t="s">
-        <v>142</v>
+        <v>236</v>
       </c>
       <c r="B142" s="20" t="s">
-        <v>100</v>
+        <v>16</v>
       </c>
       <c r="C142" s="10">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D142" s="10"/>
       <c r="O142" s="10"/>
     </row>
-    <row r="143" spans="1:15" ht="16" hidden="1">
+    <row r="143" spans="1:15" ht="64">
       <c r="A143" s="23" t="s">
-        <v>143</v>
+        <v>131</v>
       </c>
       <c r="B143" s="20" t="s">
-        <v>100</v>
+        <v>16</v>
       </c>
       <c r="C143" s="10">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D143" s="10"/>
       <c r="O143" s="10"/>
     </row>
-    <row r="144" spans="1:15" ht="32" hidden="1">
+    <row r="144" spans="1:15" ht="16">
       <c r="A144" s="23" t="s">
-        <v>144</v>
+        <v>132</v>
       </c>
       <c r="B144" s="20" t="s">
-        <v>100</v>
+        <v>16</v>
       </c>
       <c r="C144" s="10">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D144" s="10"/>
       <c r="O144" s="10"/>
     </row>
-    <row r="145" spans="1:15" ht="32" hidden="1">
+    <row r="145" spans="1:15" ht="32">
       <c r="A145" s="23" t="s">
-        <v>145</v>
+        <v>133</v>
       </c>
       <c r="B145" s="20" t="s">
-        <v>100</v>
+        <v>137</v>
       </c>
       <c r="C145" s="10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D145" s="10"/>
       <c r="O145" s="10"/>
     </row>
-    <row r="146" spans="1:15" ht="32" hidden="1">
+    <row r="146" spans="1:15" ht="48">
       <c r="A146" s="23" t="s">
-        <v>146</v>
+        <v>237</v>
       </c>
       <c r="B146" s="20" t="s">
-        <v>100</v>
+        <v>61</v>
       </c>
       <c r="C146" s="10">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D146" s="10"/>
       <c r="O146" s="10"/>
     </row>
-    <row r="147" spans="1:15" ht="16" hidden="1">
+    <row r="147" spans="1:15" ht="48">
       <c r="A147" s="23" t="s">
-        <v>147</v>
+        <v>238</v>
       </c>
       <c r="B147" s="20" t="s">
-        <v>100</v>
+        <v>16</v>
       </c>
       <c r="C147" s="10">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D147" s="10"/>
       <c r="O147" s="10"/>
     </row>
-    <row r="148" spans="1:15" ht="16" hidden="1">
+    <row r="148" spans="1:15" ht="16">
       <c r="A148" s="23" t="s">
-        <v>148</v>
+        <v>134</v>
       </c>
       <c r="B148" s="20" t="s">
-        <v>100</v>
+        <v>61</v>
       </c>
       <c r="C148" s="10">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D148" s="10"/>
       <c r="O148" s="10"/>
     </row>
-    <row r="149" spans="1:15" ht="16" hidden="1">
+    <row r="149" spans="1:15" ht="16">
       <c r="A149" s="23" t="s">
-        <v>149</v>
+        <v>138</v>
       </c>
       <c r="B149" s="20" t="s">
-        <v>100</v>
+        <v>61</v>
       </c>
       <c r="C149" s="10">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D149" s="10"/>
       <c r="O149" s="10"/>
     </row>
-    <row r="150" spans="1:15" ht="16" hidden="1">
-      <c r="A150" s="24" t="s">
-        <v>150</v>
+    <row r="150" spans="1:15" ht="16">
+      <c r="A150" s="23" t="s">
+        <v>139</v>
       </c>
       <c r="B150" s="20" t="s">
-        <v>98</v>
+        <v>63</v>
       </c>
       <c r="C150" s="10">
         <v>1</v>
@@ -5554,38 +4756,38 @@
       <c r="D150" s="10"/>
       <c r="O150" s="10"/>
     </row>
-    <row r="151" spans="1:15" ht="16" hidden="1">
-      <c r="A151" s="24" t="s">
-        <v>151</v>
+    <row r="151" spans="1:15" ht="16">
+      <c r="A151" s="23" t="s">
+        <v>140</v>
       </c>
       <c r="B151" s="20" t="s">
-        <v>100</v>
+        <v>141</v>
       </c>
       <c r="C151" s="10">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D151" s="10"/>
       <c r="O151" s="10"/>
     </row>
-    <row r="152" spans="1:15" ht="16" hidden="1">
-      <c r="A152" s="24" t="s">
-        <v>153</v>
+    <row r="152" spans="1:15" ht="16">
+      <c r="A152" s="23" t="s">
+        <v>142</v>
       </c>
       <c r="B152" s="20" t="s">
-        <v>98</v>
+        <v>61</v>
       </c>
       <c r="C152" s="10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D152" s="10"/>
       <c r="O152" s="10"/>
     </row>
-    <row r="153" spans="1:15" ht="16" hidden="1">
-      <c r="A153" s="24" t="s">
-        <v>152</v>
+    <row r="153" spans="1:15" ht="16">
+      <c r="A153" s="23" t="s">
+        <v>143</v>
       </c>
       <c r="B153" s="20" t="s">
-        <v>96</v>
+        <v>61</v>
       </c>
       <c r="C153" s="10">
         <v>2</v>
@@ -5593,51 +4795,51 @@
       <c r="D153" s="10"/>
       <c r="O153" s="10"/>
     </row>
-    <row r="154" spans="1:15" ht="16" hidden="1">
-      <c r="A154" s="24" t="s">
-        <v>154</v>
+    <row r="154" spans="1:15" ht="16">
+      <c r="A154" s="23" t="s">
+        <v>144</v>
       </c>
       <c r="B154" s="20" t="s">
-        <v>98</v>
+        <v>58</v>
       </c>
       <c r="C154" s="10">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D154" s="10"/>
       <c r="O154" s="10"/>
     </row>
-    <row r="155" spans="1:15" ht="16" hidden="1">
-      <c r="A155" s="24" t="s">
-        <v>155</v>
+    <row r="155" spans="1:15" ht="16">
+      <c r="A155" s="23" t="s">
+        <v>145</v>
       </c>
       <c r="B155" s="20" t="s">
-        <v>96</v>
+        <v>58</v>
       </c>
       <c r="C155" s="10">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D155" s="10"/>
       <c r="O155" s="10"/>
     </row>
-    <row r="156" spans="1:15" ht="16" hidden="1">
-      <c r="A156" s="24" t="s">
-        <v>156</v>
+    <row r="156" spans="1:15" ht="16">
+      <c r="A156" s="23" t="s">
+        <v>146</v>
       </c>
       <c r="B156" s="20" t="s">
-        <v>96</v>
+        <v>58</v>
       </c>
       <c r="C156" s="10">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D156" s="10"/>
       <c r="O156" s="10"/>
     </row>
     <row r="157" spans="1:15" ht="16">
-      <c r="A157" s="24" t="s">
-        <v>157</v>
+      <c r="A157" s="23" t="s">
+        <v>147</v>
       </c>
       <c r="B157" s="20" t="s">
-        <v>93</v>
+        <v>58</v>
       </c>
       <c r="C157" s="10">
         <v>4</v>
@@ -5646,11 +4848,11 @@
       <c r="O157" s="10"/>
     </row>
     <row r="158" spans="1:15" ht="16">
-      <c r="A158" s="24" t="s">
-        <v>158</v>
+      <c r="A158" s="23" t="s">
+        <v>148</v>
       </c>
       <c r="B158" s="20" t="s">
-        <v>93</v>
+        <v>58</v>
       </c>
       <c r="C158" s="10">
         <v>4</v>
@@ -5658,12 +4860,12 @@
       <c r="D158" s="10"/>
       <c r="O158" s="10"/>
     </row>
-    <row r="159" spans="1:15" ht="16">
-      <c r="A159" s="24" t="s">
-        <v>72</v>
+    <row r="159" spans="1:15" ht="32">
+      <c r="A159" s="23" t="s">
+        <v>149</v>
       </c>
       <c r="B159" s="20" t="s">
-        <v>93</v>
+        <v>58</v>
       </c>
       <c r="C159" s="10">
         <v>4</v>
@@ -5671,431 +4873,462 @@
       <c r="D159" s="10"/>
       <c r="O159" s="10"/>
     </row>
-    <row r="160" spans="1:15" ht="16" hidden="1">
-      <c r="A160" s="24" t="s">
+    <row r="160" spans="1:15" ht="16">
+      <c r="A160" s="23" t="s">
+        <v>280</v>
+      </c>
+      <c r="B160" s="20" t="s">
+        <v>58</v>
+      </c>
+      <c r="C160" s="10">
+        <v>4</v>
+      </c>
+      <c r="D160" s="10"/>
+      <c r="L160" s="10"/>
+      <c r="O160" s="10"/>
+    </row>
+    <row r="161" spans="1:15" ht="16">
+      <c r="A161" s="23" t="s">
+        <v>150</v>
+      </c>
+      <c r="B161" s="20" t="s">
+        <v>58</v>
+      </c>
+      <c r="C161" s="10">
+        <v>4</v>
+      </c>
+      <c r="D161" s="10"/>
+      <c r="L161" s="10"/>
+      <c r="O161" s="10"/>
+    </row>
+    <row r="162" spans="1:15" ht="32">
+      <c r="A162" s="23" t="s">
+        <v>151</v>
+      </c>
+      <c r="B162" s="20" t="s">
+        <v>58</v>
+      </c>
+      <c r="C162" s="10">
+        <v>4</v>
+      </c>
+      <c r="D162" s="10"/>
+      <c r="L162" s="10"/>
+      <c r="O162" s="10"/>
+    </row>
+    <row r="163" spans="1:15" ht="48">
+      <c r="A163" s="23" t="s">
+        <v>152</v>
+      </c>
+      <c r="B163" s="20" t="s">
+        <v>58</v>
+      </c>
+      <c r="C163" s="10">
+        <v>4</v>
+      </c>
+      <c r="D163" s="10"/>
+      <c r="L163" s="10"/>
+      <c r="O163" s="10"/>
+    </row>
+    <row r="164" spans="1:15" ht="16">
+      <c r="A164" s="23" t="s">
+        <v>153</v>
+      </c>
+      <c r="B164" s="20" t="s">
+        <v>58</v>
+      </c>
+      <c r="C164" s="10">
+        <v>4</v>
+      </c>
+      <c r="D164" s="10"/>
+      <c r="L164" s="10"/>
+      <c r="O164" s="10"/>
+    </row>
+    <row r="165" spans="1:15" ht="64">
+      <c r="A165" s="23" t="s">
+        <v>154</v>
+      </c>
+      <c r="B165" s="20" t="s">
+        <v>156</v>
+      </c>
+      <c r="C165" s="10">
+        <v>0</v>
+      </c>
+      <c r="D165" s="10"/>
+      <c r="L165" s="10"/>
+      <c r="O165" s="10"/>
+    </row>
+    <row r="166" spans="1:15" ht="64">
+      <c r="A166" s="23" t="s">
+        <v>155</v>
+      </c>
+      <c r="B166" s="20" t="s">
+        <v>156</v>
+      </c>
+      <c r="C166" s="10">
+        <v>0</v>
+      </c>
+      <c r="D166" s="10"/>
+      <c r="L166" s="10"/>
+      <c r="O166" s="10"/>
+    </row>
+    <row r="167" spans="1:15" ht="64">
+      <c r="A167" s="23" t="s">
+        <v>249</v>
+      </c>
+      <c r="B167" s="20" t="s">
+        <v>156</v>
+      </c>
+      <c r="C167" s="10">
+        <v>0</v>
+      </c>
+      <c r="D167" s="10"/>
+      <c r="L167" s="10"/>
+      <c r="O167" s="10"/>
+    </row>
+    <row r="168" spans="1:15" ht="32">
+      <c r="A168" s="23" t="s">
+        <v>277</v>
+      </c>
+      <c r="B168" s="20" t="s">
+        <v>156</v>
+      </c>
+      <c r="C168" s="10">
+        <v>0</v>
+      </c>
+      <c r="D168" s="10"/>
+      <c r="L168" s="10"/>
+      <c r="O168" s="10"/>
+    </row>
+    <row r="169" spans="1:15" ht="32">
+      <c r="A169" s="23" t="s">
+        <v>157</v>
+      </c>
+      <c r="B169" s="20" t="s">
+        <v>156</v>
+      </c>
+      <c r="C169" s="10">
+        <v>0</v>
+      </c>
+      <c r="D169" s="10"/>
+      <c r="L169" s="10"/>
+      <c r="O169" s="10"/>
+    </row>
+    <row r="170" spans="1:15" ht="64">
+      <c r="A170" s="23" t="s">
+        <v>158</v>
+      </c>
+      <c r="B170" s="20" t="s">
+        <v>156</v>
+      </c>
+      <c r="C170" s="10">
+        <v>0</v>
+      </c>
+      <c r="D170" s="10"/>
+      <c r="L170" s="10"/>
+      <c r="O170" s="10"/>
+    </row>
+    <row r="171" spans="1:15" ht="48">
+      <c r="A171" s="23" t="s">
         <v>159</v>
       </c>
-      <c r="B160" s="20" t="s">
-        <v>100</v>
-      </c>
-      <c r="C160" s="10">
-        <v>0</v>
-      </c>
-      <c r="D160" s="10"/>
-      <c r="O160" s="10"/>
-    </row>
-    <row r="161" spans="1:15" ht="16" hidden="1">
-      <c r="A161" s="23" t="s">
-        <v>298</v>
-      </c>
-      <c r="B161" s="20" t="s">
-        <v>98</v>
-      </c>
-      <c r="C161" s="10">
-        <v>1</v>
-      </c>
-      <c r="D161" s="10"/>
-      <c r="O161" s="10"/>
-    </row>
-    <row r="162" spans="1:15" ht="16" hidden="1">
-      <c r="A162" s="23" t="s">
+      <c r="B171" s="20" t="s">
+        <v>156</v>
+      </c>
+      <c r="C171" s="10">
+        <v>0</v>
+      </c>
+      <c r="D171" s="10"/>
+      <c r="L171" s="10"/>
+      <c r="O171" s="10"/>
+    </row>
+    <row r="172" spans="1:15" ht="64">
+      <c r="A172" s="23" t="s">
         <v>160</v>
       </c>
-      <c r="B162" s="20" t="s">
-        <v>98</v>
-      </c>
-      <c r="C162" s="10">
-        <v>1</v>
-      </c>
-      <c r="D162" s="10"/>
-      <c r="O162" s="10"/>
-    </row>
-    <row r="163" spans="1:15" ht="16" hidden="1">
-      <c r="A163" s="23" t="s">
+      <c r="B172" s="20" t="s">
+        <v>156</v>
+      </c>
+      <c r="C172" s="10">
+        <v>0</v>
+      </c>
+      <c r="D172" s="10"/>
+      <c r="L172" s="10"/>
+      <c r="O172" s="10"/>
+    </row>
+    <row r="173" spans="1:15" ht="64">
+      <c r="A173" s="23" t="s">
         <v>161</v>
       </c>
-      <c r="B163" s="20" t="s">
-        <v>26</v>
-      </c>
-      <c r="C163" s="10">
-        <v>1</v>
-      </c>
-      <c r="D163" s="10"/>
-      <c r="O163" s="10"/>
-    </row>
-    <row r="164" spans="1:15" ht="16" hidden="1">
-      <c r="A164" s="23" t="s">
+      <c r="B173" s="20" t="s">
+        <v>156</v>
+      </c>
+      <c r="C173" s="10">
+        <v>0</v>
+      </c>
+      <c r="D173" s="10"/>
+      <c r="L173" s="10"/>
+      <c r="O173" s="10"/>
+    </row>
+    <row r="174" spans="1:15" ht="48">
+      <c r="A174" s="23" t="s">
         <v>162</v>
       </c>
-      <c r="B164" s="20" t="s">
-        <v>26</v>
-      </c>
-      <c r="C164" s="10">
-        <v>1</v>
-      </c>
-      <c r="D164" s="10"/>
-      <c r="O164" s="10"/>
-    </row>
-    <row r="165" spans="1:15" ht="16" hidden="1">
-      <c r="A165" s="23" t="s">
+      <c r="B174" s="20" t="s">
+        <v>156</v>
+      </c>
+      <c r="C174" s="10">
+        <v>0</v>
+      </c>
+      <c r="D174" s="10"/>
+      <c r="L174" s="10"/>
+      <c r="O174" s="10"/>
+    </row>
+    <row r="175" spans="1:15" ht="32">
+      <c r="A175" s="23" t="s">
         <v>163</v>
       </c>
-      <c r="B165" s="20" t="s">
-        <v>24</v>
-      </c>
-      <c r="C165" s="10">
-        <v>2</v>
-      </c>
-      <c r="D165" s="10"/>
-      <c r="O165" s="10"/>
-    </row>
-    <row r="166" spans="1:15" ht="16" hidden="1">
-      <c r="A166" s="23" t="s">
+      <c r="B175" s="20" t="s">
+        <v>156</v>
+      </c>
+      <c r="C175" s="10">
+        <v>0</v>
+      </c>
+      <c r="D175" s="10"/>
+      <c r="L175" s="10"/>
+      <c r="O175" s="10"/>
+    </row>
+    <row r="176" spans="1:15" ht="48">
+      <c r="A176" s="23" t="s">
         <v>164</v>
       </c>
-      <c r="B166" s="20" t="s">
-        <v>24</v>
-      </c>
-      <c r="C166" s="10">
-        <v>2</v>
-      </c>
-      <c r="D166" s="10"/>
-      <c r="O166" s="10"/>
-    </row>
-    <row r="167" spans="1:15" ht="32" hidden="1">
-      <c r="A167" s="23" t="s">
+      <c r="B176" s="20" t="s">
+        <v>156</v>
+      </c>
+      <c r="C176" s="10">
+        <v>0</v>
+      </c>
+      <c r="D176" s="10"/>
+      <c r="L176" s="10"/>
+      <c r="O176" s="10"/>
+    </row>
+    <row r="177" spans="1:15" ht="32">
+      <c r="A177" s="23" t="s">
         <v>165</v>
       </c>
-      <c r="B167" s="20" t="s">
-        <v>24</v>
-      </c>
-      <c r="C167" s="10">
-        <v>2</v>
-      </c>
-      <c r="D167" s="10"/>
-      <c r="O167" s="10"/>
-    </row>
-    <row r="168" spans="1:15" ht="48" hidden="1">
-      <c r="A168" s="23" t="s">
-        <v>171</v>
-      </c>
-      <c r="B168" s="20" t="s">
-        <v>24</v>
-      </c>
-      <c r="C168" s="10">
-        <v>2</v>
-      </c>
-      <c r="D168" s="10"/>
-      <c r="O168" s="10"/>
-    </row>
-    <row r="169" spans="1:15" ht="16" hidden="1">
-      <c r="A169" s="23" t="s">
-        <v>172</v>
-      </c>
-      <c r="B169" s="20" t="s">
-        <v>24</v>
-      </c>
-      <c r="C169" s="10">
-        <v>2</v>
-      </c>
-      <c r="D169" s="10"/>
-      <c r="O169" s="10"/>
-    </row>
-    <row r="170" spans="1:15" ht="16" hidden="1">
-      <c r="A170" s="23" t="s">
+      <c r="B177" s="20" t="s">
+        <v>156</v>
+      </c>
+      <c r="C177" s="10">
+        <v>0</v>
+      </c>
+      <c r="D177" s="10"/>
+      <c r="L177" s="10"/>
+      <c r="O177" s="10"/>
+    </row>
+    <row r="178" spans="1:15" ht="48">
+      <c r="A178" s="23" t="s">
+        <v>278</v>
+      </c>
+      <c r="B178" s="20" t="s">
+        <v>156</v>
+      </c>
+      <c r="C178" s="10">
+        <v>0</v>
+      </c>
+      <c r="D178" s="10"/>
+      <c r="L178" s="10"/>
+      <c r="O178" s="10"/>
+    </row>
+    <row r="179" spans="1:15" ht="48">
+      <c r="A179" s="23" t="s">
+        <v>251</v>
+      </c>
+      <c r="B179" s="20" t="s">
+        <v>156</v>
+      </c>
+      <c r="C179" s="10">
+        <v>0</v>
+      </c>
+      <c r="D179" s="10"/>
+      <c r="L179" s="10"/>
+      <c r="O179" s="10"/>
+    </row>
+    <row r="180" spans="1:15" ht="48">
+      <c r="A180" s="23" t="s">
+        <v>279</v>
+      </c>
+      <c r="B180" s="20" t="s">
+        <v>156</v>
+      </c>
+      <c r="C180" s="10">
+        <v>0</v>
+      </c>
+      <c r="D180" s="10"/>
+      <c r="L180" s="10"/>
+      <c r="O180" s="10"/>
+    </row>
+    <row r="181" spans="1:15" ht="32">
+      <c r="A181" s="23" t="s">
+        <v>252</v>
+      </c>
+      <c r="B181" s="20" t="s">
+        <v>156</v>
+      </c>
+      <c r="C181" s="10">
+        <v>0</v>
+      </c>
+      <c r="D181" s="10"/>
+      <c r="L181" s="10"/>
+      <c r="O181" s="10"/>
+    </row>
+    <row r="182" spans="1:15" ht="32">
+      <c r="A182" s="23" t="s">
+        <v>167</v>
+      </c>
+      <c r="B182" s="20" t="s">
+        <v>156</v>
+      </c>
+      <c r="C182" s="10">
+        <v>0</v>
+      </c>
+      <c r="D182" s="10"/>
+      <c r="L182" s="10"/>
+      <c r="O182" s="10"/>
+    </row>
+    <row r="183" spans="1:15" ht="48">
+      <c r="A183" s="23" t="s">
         <v>166</v>
       </c>
-      <c r="B170" s="20" t="s">
-        <v>100</v>
-      </c>
-      <c r="C170" s="10">
-        <v>0</v>
-      </c>
-      <c r="D170" s="10"/>
-      <c r="O170" s="10"/>
-    </row>
-    <row r="171" spans="1:15" ht="64" hidden="1">
-      <c r="A171" s="23" t="s">
-        <v>271</v>
-      </c>
-      <c r="B171" s="20" t="s">
-        <v>24</v>
-      </c>
-      <c r="C171" s="10">
-        <v>2</v>
-      </c>
-      <c r="D171" s="10"/>
-      <c r="O171" s="10"/>
-    </row>
-    <row r="172" spans="1:15" ht="64" hidden="1">
-      <c r="A172" s="23" t="s">
-        <v>269</v>
-      </c>
-      <c r="B172" s="20" t="s">
-        <v>24</v>
-      </c>
-      <c r="C172" s="10">
-        <v>2</v>
-      </c>
-      <c r="D172" s="10"/>
-      <c r="O172" s="10"/>
-    </row>
-    <row r="173" spans="1:15" ht="48" hidden="1">
-      <c r="A173" s="23" t="s">
-        <v>270</v>
-      </c>
-      <c r="B173" s="20" t="s">
-        <v>24</v>
-      </c>
-      <c r="C173" s="10">
-        <v>2</v>
-      </c>
-      <c r="D173" s="10"/>
-      <c r="O173" s="10"/>
-    </row>
-    <row r="174" spans="1:15" ht="32" hidden="1">
-      <c r="A174" s="23" t="s">
-        <v>272</v>
-      </c>
-      <c r="B174" s="20" t="s">
-        <v>24</v>
-      </c>
-      <c r="C174" s="10">
-        <v>2</v>
-      </c>
-      <c r="D174" s="10"/>
-      <c r="O174" s="10"/>
-    </row>
-    <row r="175" spans="1:15" ht="64" hidden="1">
-      <c r="A175" s="23" t="s">
-        <v>167</v>
-      </c>
-      <c r="B175" s="20" t="s">
-        <v>24</v>
-      </c>
-      <c r="C175" s="10">
-        <v>2</v>
-      </c>
-      <c r="D175" s="10"/>
-      <c r="O175" s="10"/>
-    </row>
-    <row r="176" spans="1:15" ht="16" hidden="1">
-      <c r="A176" s="23" t="s">
+      <c r="B183" s="20" t="s">
+        <v>156</v>
+      </c>
+      <c r="C183" s="10">
+        <v>0</v>
+      </c>
+      <c r="D183" s="10"/>
+      <c r="L183" s="10"/>
+      <c r="O183" s="10"/>
+    </row>
+    <row r="184" spans="1:15" ht="48">
+      <c r="A184" s="23" t="s">
         <v>168</v>
       </c>
-      <c r="B176" s="20" t="s">
-        <v>24</v>
-      </c>
-      <c r="C176" s="10">
-        <v>2</v>
-      </c>
-      <c r="D176" s="10"/>
-      <c r="O176" s="10"/>
-    </row>
-    <row r="177" spans="1:15" ht="32" hidden="1">
-      <c r="A177" s="23" t="s">
-        <v>169</v>
-      </c>
-      <c r="B177" s="20" t="s">
-        <v>173</v>
-      </c>
-      <c r="C177" s="10">
-        <v>1</v>
-      </c>
-      <c r="D177" s="10"/>
-      <c r="O177" s="10"/>
-    </row>
-    <row r="178" spans="1:15" ht="48" hidden="1">
-      <c r="A178" s="23" t="s">
-        <v>273</v>
-      </c>
-      <c r="B178" s="20" t="s">
-        <v>96</v>
-      </c>
-      <c r="C178" s="10">
-        <v>2</v>
-      </c>
-      <c r="D178" s="10"/>
-      <c r="O178" s="10"/>
-    </row>
-    <row r="179" spans="1:15" ht="48" hidden="1">
-      <c r="A179" s="23" t="s">
-        <v>274</v>
-      </c>
-      <c r="B179" s="20" t="s">
-        <v>24</v>
-      </c>
-      <c r="C179" s="10">
-        <v>2</v>
-      </c>
-      <c r="D179" s="10"/>
-      <c r="O179" s="10"/>
-    </row>
-    <row r="180" spans="1:15" ht="16" hidden="1">
-      <c r="A180" s="23" t="s">
-        <v>170</v>
-      </c>
-      <c r="B180" s="20" t="s">
-        <v>96</v>
-      </c>
-      <c r="C180" s="10">
-        <v>2</v>
-      </c>
-      <c r="D180" s="10"/>
-      <c r="O180" s="10"/>
-    </row>
-    <row r="181" spans="1:15" ht="16" hidden="1">
-      <c r="A181" s="23" t="s">
-        <v>174</v>
-      </c>
-      <c r="B181" s="20" t="s">
-        <v>96</v>
-      </c>
-      <c r="C181" s="10">
-        <v>2</v>
-      </c>
-      <c r="D181" s="10"/>
-      <c r="O181" s="10"/>
-    </row>
-    <row r="182" spans="1:15" ht="16" hidden="1">
-      <c r="A182" s="23" t="s">
-        <v>175</v>
-      </c>
-      <c r="B182" s="20" t="s">
-        <v>98</v>
-      </c>
-      <c r="C182" s="10">
-        <v>1</v>
-      </c>
-      <c r="D182" s="10"/>
-      <c r="O182" s="10"/>
-    </row>
-    <row r="183" spans="1:15" ht="16" hidden="1">
-      <c r="A183" s="23" t="s">
-        <v>176</v>
-      </c>
-      <c r="B183" s="20" t="s">
-        <v>177</v>
-      </c>
-      <c r="C183" s="10">
-        <v>2</v>
-      </c>
-      <c r="D183" s="10"/>
-      <c r="O183" s="10"/>
-    </row>
-    <row r="184" spans="1:15" ht="16" hidden="1">
-      <c r="A184" s="23" t="s">
-        <v>178</v>
-      </c>
       <c r="B184" s="20" t="s">
-        <v>96</v>
+        <v>156</v>
       </c>
       <c r="C184" s="10">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D184" s="10"/>
+      <c r="L184" s="10"/>
       <c r="O184" s="10"/>
     </row>
-    <row r="185" spans="1:15" ht="16" hidden="1">
+    <row r="185" spans="1:15" ht="48">
       <c r="A185" s="23" t="s">
-        <v>179</v>
+        <v>168</v>
       </c>
       <c r="B185" s="20" t="s">
-        <v>96</v>
+        <v>156</v>
       </c>
       <c r="C185" s="10">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D185" s="10"/>
       <c r="O185" s="10"/>
     </row>
-    <row r="186" spans="1:15" ht="16">
+    <row r="186" spans="1:15" ht="64">
       <c r="A186" s="23" t="s">
-        <v>180</v>
+        <v>169</v>
       </c>
       <c r="B186" s="20" t="s">
-        <v>93</v>
+        <v>156</v>
       </c>
       <c r="C186" s="10">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D186" s="10"/>
+      <c r="L186" s="10"/>
       <c r="O186" s="10"/>
     </row>
-    <row r="187" spans="1:15" ht="16">
+    <row r="187" spans="1:15" ht="64">
       <c r="A187" s="23" t="s">
-        <v>181</v>
+        <v>171</v>
       </c>
       <c r="B187" s="20" t="s">
-        <v>93</v>
+        <v>170</v>
       </c>
       <c r="C187" s="10">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D187" s="10"/>
+      <c r="L187" s="10"/>
       <c r="O187" s="10"/>
     </row>
-    <row r="188" spans="1:15" ht="16">
+    <row r="188" spans="1:15" ht="48">
       <c r="A188" s="23" t="s">
-        <v>182</v>
+        <v>172</v>
       </c>
       <c r="B188" s="20" t="s">
-        <v>93</v>
+        <v>170</v>
       </c>
       <c r="C188" s="10">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D188" s="10"/>
+      <c r="L188" s="10"/>
       <c r="O188" s="10"/>
     </row>
-    <row r="189" spans="1:15" ht="16">
+    <row r="189" spans="1:15" ht="64">
       <c r="A189" s="23" t="s">
-        <v>183</v>
+        <v>173</v>
       </c>
       <c r="B189" s="20" t="s">
-        <v>93</v>
+        <v>170</v>
       </c>
       <c r="C189" s="10">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D189" s="10"/>
+      <c r="L189" s="10"/>
       <c r="O189" s="10"/>
     </row>
-    <row r="190" spans="1:15" ht="16">
+    <row r="190" spans="1:15" ht="48">
       <c r="A190" s="23" t="s">
-        <v>184</v>
+        <v>174</v>
       </c>
       <c r="B190" s="20" t="s">
-        <v>93</v>
+        <v>170</v>
       </c>
       <c r="C190" s="10">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D190" s="10"/>
+      <c r="L190" s="10"/>
       <c r="O190" s="10"/>
     </row>
-    <row r="191" spans="1:15" ht="32">
+    <row r="191" spans="1:15" ht="48">
       <c r="A191" s="23" t="s">
-        <v>185</v>
+        <v>175</v>
       </c>
       <c r="B191" s="20" t="s">
-        <v>93</v>
+        <v>170</v>
       </c>
       <c r="C191" s="10">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D191" s="10"/>
+      <c r="L191" s="10"/>
       <c r="O191" s="10"/>
     </row>
     <row r="192" spans="1:15" ht="16">
       <c r="A192" s="23" t="s">
-        <v>316</v>
+        <v>176</v>
       </c>
       <c r="B192" s="20" t="s">
-        <v>93</v>
+        <v>170</v>
       </c>
       <c r="C192" s="10">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D192" s="10"/>
       <c r="L192" s="10"/>
@@ -6103,373 +5336,372 @@
     </row>
     <row r="193" spans="1:15" ht="16">
       <c r="A193" s="23" t="s">
-        <v>186</v>
+        <v>177</v>
       </c>
       <c r="B193" s="20" t="s">
-        <v>93</v>
+        <v>170</v>
       </c>
       <c r="C193" s="10">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D193" s="10"/>
       <c r="L193" s="10"/>
       <c r="O193" s="10"/>
     </row>
-    <row r="194" spans="1:15" ht="32">
+    <row r="194" spans="1:15" ht="16">
       <c r="A194" s="23" t="s">
-        <v>187</v>
+        <v>178</v>
       </c>
       <c r="B194" s="20" t="s">
-        <v>93</v>
+        <v>170</v>
       </c>
       <c r="C194" s="10">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D194" s="10"/>
-      <c r="L194" s="10"/>
       <c r="O194" s="10"/>
     </row>
-    <row r="195" spans="1:15" ht="48">
+    <row r="195" spans="1:15" ht="16">
       <c r="A195" s="23" t="s">
-        <v>188</v>
+        <v>179</v>
       </c>
       <c r="B195" s="20" t="s">
-        <v>93</v>
+        <v>170</v>
       </c>
       <c r="C195" s="10">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D195" s="10"/>
       <c r="L195" s="10"/>
       <c r="O195" s="10"/>
     </row>
-    <row r="196" spans="1:15" ht="16">
+    <row r="196" spans="1:15" ht="64">
       <c r="A196" s="23" t="s">
-        <v>189</v>
+        <v>258</v>
       </c>
       <c r="B196" s="20" t="s">
-        <v>93</v>
+        <v>170</v>
       </c>
       <c r="C196" s="10">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D196" s="10"/>
       <c r="L196" s="10"/>
       <c r="O196" s="10"/>
     </row>
-    <row r="197" spans="1:15" ht="64" hidden="1">
+    <row r="197" spans="1:15" ht="112">
       <c r="A197" s="23" t="s">
-        <v>190</v>
+        <v>180</v>
       </c>
       <c r="B197" s="20" t="s">
-        <v>192</v>
+        <v>170</v>
       </c>
       <c r="C197" s="10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D197" s="10"/>
       <c r="L197" s="10"/>
       <c r="O197" s="10"/>
     </row>
-    <row r="198" spans="1:15" ht="64" hidden="1">
+    <row r="198" spans="1:15" ht="48">
       <c r="A198" s="23" t="s">
-        <v>191</v>
+        <v>181</v>
       </c>
       <c r="B198" s="20" t="s">
-        <v>192</v>
+        <v>170</v>
       </c>
       <c r="C198" s="10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D198" s="10"/>
       <c r="L198" s="10"/>
       <c r="O198" s="10"/>
     </row>
-    <row r="199" spans="1:15" ht="64" hidden="1">
+    <row r="199" spans="1:15" ht="48">
       <c r="A199" s="23" t="s">
-        <v>285</v>
+        <v>274</v>
       </c>
       <c r="B199" s="20" t="s">
-        <v>192</v>
+        <v>170</v>
       </c>
       <c r="C199" s="10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D199" s="10"/>
       <c r="L199" s="10"/>
       <c r="O199" s="10"/>
     </row>
-    <row r="200" spans="1:15" ht="32" hidden="1">
+    <row r="200" spans="1:15" ht="32">
       <c r="A200" s="23" t="s">
-        <v>313</v>
+        <v>182</v>
       </c>
       <c r="B200" s="20" t="s">
-        <v>192</v>
+        <v>170</v>
       </c>
       <c r="C200" s="10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D200" s="10"/>
       <c r="L200" s="10"/>
       <c r="O200" s="10"/>
     </row>
-    <row r="201" spans="1:15" ht="32" hidden="1">
+    <row r="201" spans="1:15" ht="32">
       <c r="A201" s="23" t="s">
-        <v>193</v>
+        <v>183</v>
       </c>
       <c r="B201" s="20" t="s">
-        <v>192</v>
+        <v>170</v>
       </c>
       <c r="C201" s="10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D201" s="10"/>
       <c r="L201" s="10"/>
       <c r="O201" s="10"/>
     </row>
-    <row r="202" spans="1:15" ht="64" hidden="1">
+    <row r="202" spans="1:15" ht="32">
       <c r="A202" s="23" t="s">
-        <v>194</v>
+        <v>184</v>
       </c>
       <c r="B202" s="20" t="s">
-        <v>192</v>
+        <v>170</v>
       </c>
       <c r="C202" s="10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D202" s="10"/>
       <c r="L202" s="10"/>
-      <c r="O202" s="10"/>
-    </row>
-    <row r="203" spans="1:15" ht="48" hidden="1">
+    </row>
+    <row r="203" spans="1:15" ht="64">
       <c r="A203" s="23" t="s">
-        <v>195</v>
+        <v>256</v>
       </c>
       <c r="B203" s="20" t="s">
-        <v>192</v>
+        <v>170</v>
       </c>
       <c r="C203" s="10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D203" s="10"/>
       <c r="L203" s="10"/>
       <c r="O203" s="10"/>
     </row>
-    <row r="204" spans="1:15" ht="64" hidden="1">
+    <row r="204" spans="1:15" ht="96">
       <c r="A204" s="23" t="s">
-        <v>196</v>
+        <v>185</v>
       </c>
       <c r="B204" s="20" t="s">
-        <v>192</v>
+        <v>170</v>
       </c>
       <c r="C204" s="10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D204" s="10"/>
       <c r="L204" s="10"/>
       <c r="O204" s="10"/>
     </row>
-    <row r="205" spans="1:15" ht="64" hidden="1">
+    <row r="205" spans="1:15" ht="80">
       <c r="A205" s="23" t="s">
-        <v>197</v>
+        <v>266</v>
       </c>
       <c r="B205" s="20" t="s">
-        <v>192</v>
+        <v>170</v>
       </c>
       <c r="C205" s="10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D205" s="10"/>
       <c r="L205" s="10"/>
       <c r="O205" s="10"/>
     </row>
-    <row r="206" spans="1:15" ht="48" hidden="1">
+    <row r="206" spans="1:15" ht="112">
       <c r="A206" s="23" t="s">
-        <v>198</v>
+        <v>186</v>
       </c>
       <c r="B206" s="20" t="s">
-        <v>192</v>
+        <v>170</v>
       </c>
       <c r="C206" s="10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D206" s="10"/>
       <c r="L206" s="10"/>
       <c r="O206" s="10"/>
     </row>
-    <row r="207" spans="1:15" ht="32" hidden="1">
+    <row r="207" spans="1:15" ht="96">
       <c r="A207" s="23" t="s">
-        <v>199</v>
+        <v>241</v>
       </c>
       <c r="B207" s="20" t="s">
-        <v>192</v>
+        <v>170</v>
       </c>
       <c r="C207" s="10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D207" s="10"/>
       <c r="L207" s="10"/>
       <c r="O207" s="10"/>
     </row>
-    <row r="208" spans="1:15" ht="48" hidden="1">
+    <row r="208" spans="1:15" ht="64">
       <c r="A208" s="23" t="s">
-        <v>200</v>
+        <v>187</v>
       </c>
       <c r="B208" s="20" t="s">
-        <v>192</v>
+        <v>170</v>
       </c>
       <c r="C208" s="10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D208" s="10"/>
       <c r="L208" s="10"/>
       <c r="O208" s="10"/>
     </row>
-    <row r="209" spans="1:15" ht="32" hidden="1">
+    <row r="209" spans="1:15" ht="80">
       <c r="A209" s="23" t="s">
-        <v>201</v>
+        <v>188</v>
       </c>
       <c r="B209" s="20" t="s">
-        <v>192</v>
+        <v>170</v>
       </c>
       <c r="C209" s="10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D209" s="10"/>
       <c r="L209" s="10"/>
       <c r="O209" s="10"/>
     </row>
-    <row r="210" spans="1:15" ht="48" hidden="1">
+    <row r="210" spans="1:15" ht="64">
       <c r="A210" s="23" t="s">
-        <v>314</v>
+        <v>189</v>
       </c>
       <c r="B210" s="20" t="s">
-        <v>192</v>
+        <v>170</v>
       </c>
       <c r="C210" s="10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D210" s="10"/>
       <c r="L210" s="10"/>
       <c r="O210" s="10"/>
     </row>
-    <row r="211" spans="1:15" ht="48" hidden="1">
+    <row r="211" spans="1:15" ht="48">
       <c r="A211" s="23" t="s">
-        <v>287</v>
+        <v>242</v>
       </c>
       <c r="B211" s="20" t="s">
-        <v>192</v>
+        <v>170</v>
       </c>
       <c r="C211" s="10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D211" s="10"/>
       <c r="L211" s="10"/>
       <c r="O211" s="10"/>
     </row>
-    <row r="212" spans="1:15" ht="48" hidden="1">
+    <row r="212" spans="1:15" ht="80">
       <c r="A212" s="23" t="s">
-        <v>315</v>
+        <v>243</v>
       </c>
       <c r="B212" s="20" t="s">
-        <v>192</v>
+        <v>18</v>
       </c>
       <c r="C212" s="10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D212" s="10"/>
       <c r="L212" s="10"/>
       <c r="O212" s="10"/>
     </row>
-    <row r="213" spans="1:15" ht="32" hidden="1">
+    <row r="213" spans="1:15" ht="96">
       <c r="A213" s="23" t="s">
-        <v>288</v>
+        <v>267</v>
       </c>
       <c r="B213" s="20" t="s">
-        <v>192</v>
+        <v>170</v>
       </c>
       <c r="C213" s="10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D213" s="10"/>
       <c r="L213" s="10"/>
       <c r="O213" s="10"/>
     </row>
-    <row r="214" spans="1:15" ht="32" hidden="1">
+    <row r="214" spans="1:15" ht="96">
       <c r="A214" s="23" t="s">
-        <v>203</v>
+        <v>190</v>
       </c>
       <c r="B214" s="20" t="s">
-        <v>192</v>
+        <v>170</v>
       </c>
       <c r="C214" s="10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D214" s="10"/>
       <c r="L214" s="10"/>
       <c r="O214" s="10"/>
     </row>
-    <row r="215" spans="1:15" ht="48" hidden="1">
+    <row r="215" spans="1:15" ht="48">
       <c r="A215" s="23" t="s">
-        <v>202</v>
+        <v>239</v>
       </c>
       <c r="B215" s="20" t="s">
-        <v>192</v>
+        <v>170</v>
       </c>
       <c r="C215" s="10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D215" s="10"/>
       <c r="L215" s="10"/>
       <c r="O215" s="10"/>
     </row>
-    <row r="216" spans="1:15" ht="48" hidden="1">
+    <row r="216" spans="1:15" ht="64">
       <c r="A216" s="23" t="s">
-        <v>204</v>
+        <v>240</v>
       </c>
       <c r="B216" s="20" t="s">
-        <v>192</v>
+        <v>18</v>
       </c>
       <c r="C216" s="10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D216" s="10"/>
       <c r="L216" s="10"/>
       <c r="O216" s="10"/>
     </row>
-    <row r="217" spans="1:15" ht="48" hidden="1">
+    <row r="217" spans="1:15" ht="96">
       <c r="A217" s="23" t="s">
-        <v>204</v>
+        <v>191</v>
       </c>
       <c r="B217" s="20" t="s">
-        <v>192</v>
+        <v>170</v>
       </c>
       <c r="C217" s="10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D217" s="10"/>
+      <c r="L217" s="10"/>
       <c r="O217" s="10"/>
     </row>
-    <row r="218" spans="1:15" ht="64" hidden="1">
+    <row r="218" spans="1:15" ht="80">
       <c r="A218" s="23" t="s">
-        <v>205</v>
+        <v>269</v>
       </c>
       <c r="B218" s="20" t="s">
-        <v>192</v>
+        <v>170</v>
       </c>
       <c r="C218" s="10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D218" s="10"/>
       <c r="L218" s="10"/>
       <c r="O218" s="10"/>
     </row>
-    <row r="219" spans="1:15" ht="64" hidden="1">
+    <row r="219" spans="1:15" ht="80">
       <c r="A219" s="23" t="s">
-        <v>207</v>
+        <v>253</v>
       </c>
       <c r="B219" s="20" t="s">
-        <v>206</v>
+        <v>170</v>
       </c>
       <c r="C219" s="10">
         <v>1</v>
@@ -6478,12 +5710,12 @@
       <c r="L219" s="10"/>
       <c r="O219" s="10"/>
     </row>
-    <row r="220" spans="1:15" ht="48" hidden="1">
+    <row r="220" spans="1:15" ht="64">
       <c r="A220" s="23" t="s">
-        <v>208</v>
+        <v>259</v>
       </c>
       <c r="B220" s="20" t="s">
-        <v>206</v>
+        <v>170</v>
       </c>
       <c r="C220" s="10">
         <v>1</v>
@@ -6492,12 +5724,12 @@
       <c r="L220" s="10"/>
       <c r="O220" s="10"/>
     </row>
-    <row r="221" spans="1:15" ht="64" hidden="1">
+    <row r="221" spans="1:15" ht="64">
       <c r="A221" s="23" t="s">
-        <v>209</v>
+        <v>192</v>
       </c>
       <c r="B221" s="20" t="s">
-        <v>206</v>
+        <v>170</v>
       </c>
       <c r="C221" s="10">
         <v>1</v>
@@ -6506,12 +5738,12 @@
       <c r="L221" s="10"/>
       <c r="O221" s="10"/>
     </row>
-    <row r="222" spans="1:15" ht="48" hidden="1">
+    <row r="222" spans="1:15" ht="80">
       <c r="A222" s="23" t="s">
-        <v>210</v>
+        <v>193</v>
       </c>
       <c r="B222" s="20" t="s">
-        <v>206</v>
+        <v>170</v>
       </c>
       <c r="C222" s="10">
         <v>1</v>
@@ -6520,12 +5752,12 @@
       <c r="L222" s="10"/>
       <c r="O222" s="10"/>
     </row>
-    <row r="223" spans="1:15" ht="48" hidden="1">
+    <row r="223" spans="1:15" ht="80">
       <c r="A223" s="23" t="s">
-        <v>211</v>
+        <v>194</v>
       </c>
       <c r="B223" s="20" t="s">
-        <v>206</v>
+        <v>170</v>
       </c>
       <c r="C223" s="10">
         <v>1</v>
@@ -6534,12 +5766,12 @@
       <c r="L223" s="10"/>
       <c r="O223" s="10"/>
     </row>
-    <row r="224" spans="1:15" ht="16" hidden="1">
+    <row r="224" spans="1:15" ht="112">
       <c r="A224" s="23" t="s">
-        <v>212</v>
+        <v>180</v>
       </c>
       <c r="B224" s="20" t="s">
-        <v>206</v>
+        <v>170</v>
       </c>
       <c r="C224" s="10">
         <v>1</v>
@@ -6548,12 +5780,12 @@
       <c r="L224" s="10"/>
       <c r="O224" s="10"/>
     </row>
-    <row r="225" spans="1:15" ht="16" hidden="1">
+    <row r="225" spans="1:15" ht="80">
       <c r="A225" s="23" t="s">
-        <v>213</v>
+        <v>193</v>
       </c>
       <c r="B225" s="20" t="s">
-        <v>206</v>
+        <v>170</v>
       </c>
       <c r="C225" s="10">
         <v>1</v>
@@ -6562,25 +5794,26 @@
       <c r="L225" s="10"/>
       <c r="O225" s="10"/>
     </row>
-    <row r="226" spans="1:15" ht="16" hidden="1">
+    <row r="226" spans="1:15" ht="64">
       <c r="A226" s="23" t="s">
-        <v>214</v>
+        <v>192</v>
       </c>
       <c r="B226" s="20" t="s">
-        <v>206</v>
+        <v>170</v>
       </c>
       <c r="C226" s="10">
         <v>1</v>
       </c>
       <c r="D226" s="10"/>
+      <c r="L226" s="10"/>
       <c r="O226" s="10"/>
     </row>
-    <row r="227" spans="1:15" ht="16" hidden="1">
+    <row r="227" spans="1:15" ht="32">
       <c r="A227" s="23" t="s">
-        <v>215</v>
+        <v>270</v>
       </c>
       <c r="B227" s="20" t="s">
-        <v>206</v>
+        <v>170</v>
       </c>
       <c r="C227" s="10">
         <v>1</v>
@@ -6589,12 +5822,12 @@
       <c r="L227" s="10"/>
       <c r="O227" s="10"/>
     </row>
-    <row r="228" spans="1:15" ht="64" hidden="1">
+    <row r="228" spans="1:15" ht="64">
       <c r="A228" s="23" t="s">
-        <v>294</v>
+        <v>171</v>
       </c>
       <c r="B228" s="20" t="s">
-        <v>206</v>
+        <v>170</v>
       </c>
       <c r="C228" s="10">
         <v>1</v>
@@ -6603,12 +5836,12 @@
       <c r="L228" s="10"/>
       <c r="O228" s="10"/>
     </row>
-    <row r="229" spans="1:15" ht="112" hidden="1">
+    <row r="229" spans="1:15" ht="16">
       <c r="A229" s="23" t="s">
-        <v>216</v>
+        <v>195</v>
       </c>
       <c r="B229" s="20" t="s">
-        <v>206</v>
+        <v>170</v>
       </c>
       <c r="C229" s="10">
         <v>1</v>
@@ -6617,12 +5850,12 @@
       <c r="L229" s="10"/>
       <c r="O229" s="10"/>
     </row>
-    <row r="230" spans="1:15" ht="48" hidden="1">
+    <row r="230" spans="1:15" ht="32">
       <c r="A230" s="23" t="s">
-        <v>217</v>
+        <v>273</v>
       </c>
       <c r="B230" s="20" t="s">
-        <v>206</v>
+        <v>170</v>
       </c>
       <c r="C230" s="10">
         <v>1</v>
@@ -6631,12 +5864,12 @@
       <c r="L230" s="10"/>
       <c r="O230" s="10"/>
     </row>
-    <row r="231" spans="1:15" ht="48" hidden="1">
+    <row r="231" spans="1:15" ht="16">
       <c r="A231" s="23" t="s">
-        <v>310</v>
+        <v>272</v>
       </c>
       <c r="B231" s="20" t="s">
-        <v>206</v>
+        <v>170</v>
       </c>
       <c r="C231" s="10">
         <v>1</v>
@@ -6645,12 +5878,12 @@
       <c r="L231" s="10"/>
       <c r="O231" s="10"/>
     </row>
-    <row r="232" spans="1:15" ht="32" hidden="1">
+    <row r="232" spans="1:15" ht="32">
       <c r="A232" s="23" t="s">
-        <v>218</v>
+        <v>196</v>
       </c>
       <c r="B232" s="20" t="s">
-        <v>206</v>
+        <v>170</v>
       </c>
       <c r="C232" s="10">
         <v>1</v>
@@ -6659,12 +5892,12 @@
       <c r="L232" s="10"/>
       <c r="O232" s="10"/>
     </row>
-    <row r="233" spans="1:15" ht="32" hidden="1">
+    <row r="233" spans="1:15" ht="16">
       <c r="A233" s="23" t="s">
-        <v>219</v>
+        <v>197</v>
       </c>
       <c r="B233" s="20" t="s">
-        <v>206</v>
+        <v>170</v>
       </c>
       <c r="C233" s="10">
         <v>1</v>
@@ -6673,25 +5906,26 @@
       <c r="L233" s="10"/>
       <c r="O233" s="10"/>
     </row>
-    <row r="234" spans="1:15" ht="32" hidden="1">
+    <row r="234" spans="1:15" ht="16">
       <c r="A234" s="23" t="s">
-        <v>220</v>
+        <v>198</v>
       </c>
       <c r="B234" s="20" t="s">
-        <v>206</v>
+        <v>170</v>
       </c>
       <c r="C234" s="10">
         <v>1</v>
       </c>
       <c r="D234" s="10"/>
       <c r="L234" s="10"/>
-    </row>
-    <row r="235" spans="1:15" ht="64" hidden="1">
+      <c r="O234" s="10"/>
+    </row>
+    <row r="235" spans="1:15" ht="16">
       <c r="A235" s="23" t="s">
-        <v>292</v>
+        <v>199</v>
       </c>
       <c r="B235" s="20" t="s">
-        <v>206</v>
+        <v>170</v>
       </c>
       <c r="C235" s="10">
         <v>1</v>
@@ -6700,12 +5934,12 @@
       <c r="L235" s="10"/>
       <c r="O235" s="10"/>
     </row>
-    <row r="236" spans="1:15" ht="96" hidden="1">
+    <row r="236" spans="1:15" ht="16">
       <c r="A236" s="23" t="s">
-        <v>221</v>
+        <v>200</v>
       </c>
       <c r="B236" s="20" t="s">
-        <v>206</v>
+        <v>170</v>
       </c>
       <c r="C236" s="10">
         <v>1</v>
@@ -6714,12 +5948,12 @@
       <c r="L236" s="10"/>
       <c r="O236" s="10"/>
     </row>
-    <row r="237" spans="1:15" ht="80" hidden="1">
+    <row r="237" spans="1:15" ht="16">
       <c r="A237" s="23" t="s">
-        <v>302</v>
+        <v>201</v>
       </c>
       <c r="B237" s="20" t="s">
-        <v>206</v>
+        <v>170</v>
       </c>
       <c r="C237" s="10">
         <v>1</v>
@@ -6728,12 +5962,12 @@
       <c r="L237" s="10"/>
       <c r="O237" s="10"/>
     </row>
-    <row r="238" spans="1:15" ht="112" hidden="1">
+    <row r="238" spans="1:15" ht="16">
       <c r="A238" s="23" t="s">
-        <v>222</v>
+        <v>202</v>
       </c>
       <c r="B238" s="20" t="s">
-        <v>206</v>
+        <v>170</v>
       </c>
       <c r="C238" s="10">
         <v>1</v>
@@ -6742,12 +5976,12 @@
       <c r="L238" s="10"/>
       <c r="O238" s="10"/>
     </row>
-    <row r="239" spans="1:15" ht="96" hidden="1">
+    <row r="239" spans="1:15" ht="16">
       <c r="A239" s="23" t="s">
-        <v>277</v>
+        <v>203</v>
       </c>
       <c r="B239" s="20" t="s">
-        <v>206</v>
+        <v>170</v>
       </c>
       <c r="C239" s="10">
         <v>1</v>
@@ -6756,12 +5990,12 @@
       <c r="L239" s="10"/>
       <c r="O239" s="10"/>
     </row>
-    <row r="240" spans="1:15" ht="64" hidden="1">
+    <row r="240" spans="1:15" ht="16">
       <c r="A240" s="23" t="s">
-        <v>223</v>
+        <v>204</v>
       </c>
       <c r="B240" s="20" t="s">
-        <v>206</v>
+        <v>170</v>
       </c>
       <c r="C240" s="10">
         <v>1</v>
@@ -6770,12 +6004,12 @@
       <c r="L240" s="10"/>
       <c r="O240" s="10"/>
     </row>
-    <row r="241" spans="1:15" ht="80" hidden="1">
+    <row r="241" spans="1:15" ht="16">
       <c r="A241" s="23" t="s">
-        <v>224</v>
+        <v>265</v>
       </c>
       <c r="B241" s="20" t="s">
-        <v>206</v>
+        <v>170</v>
       </c>
       <c r="C241" s="10">
         <v>1</v>
@@ -6784,12 +6018,12 @@
       <c r="L241" s="10"/>
       <c r="O241" s="10"/>
     </row>
-    <row r="242" spans="1:15" ht="64" hidden="1">
+    <row r="242" spans="1:15" ht="16">
       <c r="A242" s="23" t="s">
-        <v>225</v>
+        <v>205</v>
       </c>
       <c r="B242" s="20" t="s">
-        <v>206</v>
+        <v>170</v>
       </c>
       <c r="C242" s="10">
         <v>1</v>
@@ -6798,12 +6032,12 @@
       <c r="L242" s="10"/>
       <c r="O242" s="10"/>
     </row>
-    <row r="243" spans="1:15" ht="48" hidden="1">
+    <row r="243" spans="1:15" ht="32">
       <c r="A243" s="23" t="s">
-        <v>278</v>
+        <v>206</v>
       </c>
       <c r="B243" s="20" t="s">
-        <v>206</v>
+        <v>170</v>
       </c>
       <c r="C243" s="10">
         <v>1</v>
@@ -6812,12 +6046,12 @@
       <c r="L243" s="10"/>
       <c r="O243" s="10"/>
     </row>
-    <row r="244" spans="1:15" ht="80" hidden="1">
+    <row r="244" spans="1:15" ht="16">
       <c r="A244" s="23" t="s">
-        <v>279</v>
+        <v>207</v>
       </c>
       <c r="B244" s="20" t="s">
-        <v>26</v>
+        <v>170</v>
       </c>
       <c r="C244" s="10">
         <v>1</v>
@@ -6826,12 +6060,12 @@
       <c r="L244" s="10"/>
       <c r="O244" s="10"/>
     </row>
-    <row r="245" spans="1:15" ht="96" hidden="1">
+    <row r="245" spans="1:15" ht="16">
       <c r="A245" s="23" t="s">
-        <v>303</v>
+        <v>208</v>
       </c>
       <c r="B245" s="20" t="s">
-        <v>206</v>
+        <v>170</v>
       </c>
       <c r="C245" s="10">
         <v>1</v>
@@ -6840,12 +6074,12 @@
       <c r="L245" s="10"/>
       <c r="O245" s="10"/>
     </row>
-    <row r="246" spans="1:15" ht="96" hidden="1">
+    <row r="246" spans="1:15" ht="16">
       <c r="A246" s="23" t="s">
-        <v>226</v>
+        <v>209</v>
       </c>
       <c r="B246" s="20" t="s">
-        <v>206</v>
+        <v>170</v>
       </c>
       <c r="C246" s="10">
         <v>1</v>
@@ -6854,12 +6088,12 @@
       <c r="L246" s="10"/>
       <c r="O246" s="10"/>
     </row>
-    <row r="247" spans="1:15" ht="48" hidden="1">
+    <row r="247" spans="1:15" ht="16">
       <c r="A247" s="23" t="s">
-        <v>275</v>
+        <v>179</v>
       </c>
       <c r="B247" s="20" t="s">
-        <v>206</v>
+        <v>170</v>
       </c>
       <c r="C247" s="10">
         <v>1</v>
@@ -6868,644 +6102,190 @@
       <c r="L247" s="10"/>
       <c r="O247" s="10"/>
     </row>
-    <row r="248" spans="1:15" ht="64" hidden="1">
+    <row r="248" spans="1:15" ht="48">
       <c r="A248" s="23" t="s">
-        <v>276</v>
+        <v>210</v>
       </c>
       <c r="B248" s="20" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="C248" s="10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D248" s="10"/>
       <c r="L248" s="10"/>
       <c r="O248" s="10"/>
     </row>
-    <row r="249" spans="1:15" ht="96" hidden="1">
+    <row r="249" spans="1:15" ht="48">
       <c r="A249" s="23" t="s">
-        <v>227</v>
+        <v>211</v>
       </c>
       <c r="B249" s="20" t="s">
-        <v>206</v>
+        <v>16</v>
       </c>
       <c r="C249" s="10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D249" s="10"/>
       <c r="L249" s="10"/>
       <c r="O249" s="10"/>
     </row>
-    <row r="250" spans="1:15" ht="80" hidden="1">
+    <row r="250" spans="1:15" ht="48">
       <c r="A250" s="23" t="s">
-        <v>305</v>
+        <v>212</v>
       </c>
       <c r="B250" s="20" t="s">
-        <v>206</v>
+        <v>16</v>
       </c>
       <c r="C250" s="10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D250" s="10"/>
       <c r="L250" s="10"/>
       <c r="O250" s="10"/>
     </row>
-    <row r="251" spans="1:15" ht="80" hidden="1">
+    <row r="251" spans="1:15" ht="96">
       <c r="A251" s="23" t="s">
-        <v>289</v>
+        <v>213</v>
       </c>
       <c r="B251" s="20" t="s">
-        <v>206</v>
+        <v>16</v>
       </c>
       <c r="C251" s="10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D251" s="10"/>
       <c r="L251" s="10"/>
       <c r="O251" s="10"/>
     </row>
-    <row r="252" spans="1:15" ht="64" hidden="1">
+    <row r="252" spans="1:15" ht="48">
       <c r="A252" s="23" t="s">
-        <v>295</v>
+        <v>214</v>
       </c>
       <c r="B252" s="20" t="s">
-        <v>206</v>
+        <v>16</v>
       </c>
       <c r="C252" s="10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D252" s="10"/>
       <c r="L252" s="10"/>
       <c r="O252" s="10"/>
     </row>
-    <row r="253" spans="1:15" ht="64" hidden="1">
+    <row r="253" spans="1:15" ht="16">
       <c r="A253" s="23" t="s">
-        <v>228</v>
+        <v>215</v>
       </c>
       <c r="B253" s="20" t="s">
-        <v>206</v>
+        <v>16</v>
       </c>
       <c r="C253" s="10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D253" s="10"/>
       <c r="L253" s="10"/>
       <c r="O253" s="10"/>
     </row>
-    <row r="254" spans="1:15" ht="80" hidden="1">
+    <row r="254" spans="1:15" ht="80">
       <c r="A254" s="23" t="s">
-        <v>229</v>
+        <v>216</v>
       </c>
       <c r="B254" s="20" t="s">
-        <v>206</v>
+        <v>16</v>
       </c>
       <c r="C254" s="10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D254" s="10"/>
       <c r="L254" s="10"/>
       <c r="O254" s="10"/>
     </row>
-    <row r="255" spans="1:15" ht="80" hidden="1">
+    <row r="255" spans="1:15" ht="32">
       <c r="A255" s="23" t="s">
-        <v>230</v>
+        <v>217</v>
       </c>
       <c r="B255" s="20" t="s">
-        <v>206</v>
+        <v>16</v>
       </c>
       <c r="C255" s="10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D255" s="10"/>
       <c r="L255" s="10"/>
       <c r="O255" s="10"/>
     </row>
-    <row r="256" spans="1:15" ht="112" hidden="1">
+    <row r="256" spans="1:15" ht="64">
       <c r="A256" s="23" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="B256" s="20" t="s">
-        <v>206</v>
+        <v>16</v>
       </c>
       <c r="C256" s="10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D256" s="10"/>
       <c r="L256" s="10"/>
       <c r="O256" s="10"/>
     </row>
-    <row r="257" spans="1:15" ht="80" hidden="1">
+    <row r="257" spans="1:15" ht="80">
       <c r="A257" s="23" t="s">
-        <v>229</v>
+        <v>275</v>
       </c>
       <c r="B257" s="20" t="s">
-        <v>206</v>
+        <v>16</v>
       </c>
       <c r="C257" s="10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D257" s="10"/>
       <c r="L257" s="10"/>
       <c r="O257" s="10"/>
     </row>
-    <row r="258" spans="1:15" ht="64" hidden="1">
+    <row r="258" spans="1:15" ht="48">
       <c r="A258" s="23" t="s">
-        <v>228</v>
+        <v>219</v>
       </c>
       <c r="B258" s="20" t="s">
-        <v>206</v>
+        <v>16</v>
       </c>
       <c r="C258" s="10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D258" s="10"/>
       <c r="L258" s="10"/>
       <c r="O258" s="10"/>
     </row>
-    <row r="259" spans="1:15" ht="32" hidden="1">
+    <row r="259" spans="1:15" ht="16">
       <c r="A259" s="23" t="s">
-        <v>306</v>
+        <v>220</v>
       </c>
       <c r="B259" s="20" t="s">
-        <v>206</v>
+        <v>16</v>
       </c>
       <c r="C259" s="10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D259" s="10"/>
       <c r="L259" s="10"/>
       <c r="O259" s="10"/>
     </row>
-    <row r="260" spans="1:15" ht="64" hidden="1">
+    <row r="260" spans="1:15" ht="16">
       <c r="A260" s="23" t="s">
-        <v>207</v>
+        <v>221</v>
       </c>
       <c r="B260" s="20" t="s">
-        <v>206</v>
+        <v>16</v>
       </c>
       <c r="C260" s="10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D260" s="10"/>
       <c r="L260" s="10"/>
       <c r="O260" s="10"/>
     </row>
-    <row r="261" spans="1:15" ht="16" hidden="1">
-      <c r="A261" s="23" t="s">
-        <v>231</v>
-      </c>
-      <c r="B261" s="20" t="s">
-        <v>206</v>
-      </c>
-      <c r="C261" s="10">
-        <v>1</v>
-      </c>
-      <c r="D261" s="10"/>
-      <c r="L261" s="10"/>
-      <c r="O261" s="10"/>
-    </row>
-    <row r="262" spans="1:15" ht="32" hidden="1">
-      <c r="A262" s="23" t="s">
-        <v>309</v>
-      </c>
-      <c r="B262" s="20" t="s">
-        <v>206</v>
-      </c>
-      <c r="C262" s="10">
-        <v>1</v>
-      </c>
-      <c r="D262" s="10"/>
-      <c r="L262" s="10"/>
-      <c r="O262" s="10"/>
-    </row>
-    <row r="263" spans="1:15" ht="16" hidden="1">
-      <c r="A263" s="23" t="s">
-        <v>308</v>
-      </c>
-      <c r="B263" s="20" t="s">
-        <v>206</v>
-      </c>
-      <c r="C263" s="10">
-        <v>1</v>
-      </c>
-      <c r="D263" s="10"/>
-      <c r="L263" s="10"/>
-      <c r="O263" s="10"/>
-    </row>
-    <row r="264" spans="1:15" ht="32" hidden="1">
-      <c r="A264" s="23" t="s">
-        <v>232</v>
-      </c>
-      <c r="B264" s="20" t="s">
-        <v>206</v>
-      </c>
-      <c r="C264" s="10">
-        <v>1</v>
-      </c>
-      <c r="D264" s="10"/>
-      <c r="L264" s="10"/>
-      <c r="O264" s="10"/>
-    </row>
-    <row r="265" spans="1:15" ht="16" hidden="1">
-      <c r="A265" s="23" t="s">
-        <v>233</v>
-      </c>
-      <c r="B265" s="20" t="s">
-        <v>206</v>
-      </c>
-      <c r="C265" s="10">
-        <v>1</v>
-      </c>
-      <c r="D265" s="10"/>
-      <c r="L265" s="10"/>
-      <c r="O265" s="10"/>
-    </row>
-    <row r="266" spans="1:15" ht="16" hidden="1">
-      <c r="A266" s="23" t="s">
-        <v>234</v>
-      </c>
-      <c r="B266" s="20" t="s">
-        <v>206</v>
-      </c>
-      <c r="C266" s="10">
-        <v>1</v>
-      </c>
-      <c r="D266" s="10"/>
-      <c r="L266" s="10"/>
-      <c r="O266" s="10"/>
-    </row>
-    <row r="267" spans="1:15" ht="16" hidden="1">
-      <c r="A267" s="23" t="s">
-        <v>235</v>
-      </c>
-      <c r="B267" s="20" t="s">
-        <v>206</v>
-      </c>
-      <c r="C267" s="10">
-        <v>1</v>
-      </c>
-      <c r="D267" s="10"/>
-      <c r="L267" s="10"/>
-      <c r="O267" s="10"/>
-    </row>
-    <row r="268" spans="1:15" ht="16" hidden="1">
-      <c r="A268" s="23" t="s">
-        <v>236</v>
-      </c>
-      <c r="B268" s="20" t="s">
-        <v>206</v>
-      </c>
-      <c r="C268" s="10">
-        <v>1</v>
-      </c>
-      <c r="D268" s="10"/>
-      <c r="L268" s="10"/>
-      <c r="O268" s="10"/>
-    </row>
-    <row r="269" spans="1:15" ht="16" hidden="1">
-      <c r="A269" s="23" t="s">
-        <v>237</v>
-      </c>
-      <c r="B269" s="20" t="s">
-        <v>206</v>
-      </c>
-      <c r="C269" s="10">
-        <v>1</v>
-      </c>
-      <c r="D269" s="10"/>
-      <c r="L269" s="10"/>
-      <c r="O269" s="10"/>
-    </row>
-    <row r="270" spans="1:15" ht="16" hidden="1">
-      <c r="A270" s="23" t="s">
-        <v>238</v>
-      </c>
-      <c r="B270" s="20" t="s">
-        <v>206</v>
-      </c>
-      <c r="C270" s="10">
-        <v>1</v>
-      </c>
-      <c r="D270" s="10"/>
-      <c r="L270" s="10"/>
-      <c r="O270" s="10"/>
-    </row>
-    <row r="271" spans="1:15" ht="16" hidden="1">
-      <c r="A271" s="23" t="s">
-        <v>239</v>
-      </c>
-      <c r="B271" s="20" t="s">
-        <v>206</v>
-      </c>
-      <c r="C271" s="10">
-        <v>1</v>
-      </c>
-      <c r="D271" s="10"/>
-      <c r="L271" s="10"/>
-      <c r="O271" s="10"/>
-    </row>
-    <row r="272" spans="1:15" ht="16" hidden="1">
-      <c r="A272" s="23" t="s">
-        <v>240</v>
-      </c>
-      <c r="B272" s="20" t="s">
-        <v>206</v>
-      </c>
-      <c r="C272" s="10">
-        <v>1</v>
-      </c>
-      <c r="D272" s="10"/>
-      <c r="L272" s="10"/>
-      <c r="O272" s="10"/>
-    </row>
-    <row r="273" spans="1:15" ht="16" hidden="1">
-      <c r="A273" s="23" t="s">
-        <v>301</v>
-      </c>
-      <c r="B273" s="20" t="s">
-        <v>206</v>
-      </c>
-      <c r="C273" s="10">
-        <v>1</v>
-      </c>
-      <c r="D273" s="10"/>
-      <c r="L273" s="10"/>
-      <c r="O273" s="10"/>
-    </row>
-    <row r="274" spans="1:15" ht="16" hidden="1">
-      <c r="A274" s="23" t="s">
-        <v>241</v>
-      </c>
-      <c r="B274" s="20" t="s">
-        <v>206</v>
-      </c>
-      <c r="C274" s="10">
-        <v>1</v>
-      </c>
-      <c r="D274" s="10"/>
-      <c r="L274" s="10"/>
-      <c r="O274" s="10"/>
-    </row>
-    <row r="275" spans="1:15" ht="32" hidden="1">
-      <c r="A275" s="23" t="s">
-        <v>242</v>
-      </c>
-      <c r="B275" s="20" t="s">
-        <v>206</v>
-      </c>
-      <c r="C275" s="10">
-        <v>1</v>
-      </c>
-      <c r="D275" s="10"/>
-      <c r="L275" s="10"/>
-      <c r="O275" s="10"/>
-    </row>
-    <row r="276" spans="1:15" ht="16" hidden="1">
-      <c r="A276" s="23" t="s">
-        <v>243</v>
-      </c>
-      <c r="B276" s="20" t="s">
-        <v>206</v>
-      </c>
-      <c r="C276" s="10">
-        <v>1</v>
-      </c>
-      <c r="D276" s="10"/>
-      <c r="L276" s="10"/>
-      <c r="O276" s="10"/>
-    </row>
-    <row r="277" spans="1:15" ht="16" hidden="1">
-      <c r="A277" s="23" t="s">
-        <v>244</v>
-      </c>
-      <c r="B277" s="20" t="s">
-        <v>206</v>
-      </c>
-      <c r="C277" s="10">
-        <v>1</v>
-      </c>
-      <c r="D277" s="10"/>
-      <c r="L277" s="10"/>
-      <c r="O277" s="10"/>
-    </row>
-    <row r="278" spans="1:15" ht="16" hidden="1">
-      <c r="A278" s="23" t="s">
-        <v>245</v>
-      </c>
-      <c r="B278" s="20" t="s">
-        <v>206</v>
-      </c>
-      <c r="C278" s="10">
-        <v>1</v>
-      </c>
-      <c r="D278" s="10"/>
-      <c r="L278" s="10"/>
-      <c r="O278" s="10"/>
-    </row>
-    <row r="279" spans="1:15" ht="16" hidden="1">
-      <c r="A279" s="23" t="s">
-        <v>215</v>
-      </c>
-      <c r="B279" s="20" t="s">
-        <v>206</v>
-      </c>
-      <c r="C279" s="10">
-        <v>1</v>
-      </c>
-      <c r="D279" s="10"/>
-      <c r="L279" s="10"/>
-      <c r="O279" s="10"/>
-    </row>
-    <row r="280" spans="1:15" ht="48" hidden="1">
-      <c r="A280" s="23" t="s">
-        <v>246</v>
-      </c>
-      <c r="B280" s="20" t="s">
-        <v>24</v>
-      </c>
-      <c r="C280" s="10">
-        <v>2</v>
-      </c>
-      <c r="D280" s="10"/>
-      <c r="L280" s="10"/>
-      <c r="O280" s="10"/>
-    </row>
-    <row r="281" spans="1:15" ht="48" hidden="1">
-      <c r="A281" s="23" t="s">
-        <v>247</v>
-      </c>
-      <c r="B281" s="20" t="s">
-        <v>24</v>
-      </c>
-      <c r="C281" s="10">
-        <v>2</v>
-      </c>
-      <c r="D281" s="10"/>
-      <c r="L281" s="10"/>
-      <c r="O281" s="10"/>
-    </row>
-    <row r="282" spans="1:15" ht="48" hidden="1">
-      <c r="A282" s="23" t="s">
-        <v>248</v>
-      </c>
-      <c r="B282" s="20" t="s">
-        <v>24</v>
-      </c>
-      <c r="C282" s="10">
-        <v>2</v>
-      </c>
-      <c r="D282" s="10"/>
-      <c r="L282" s="10"/>
-      <c r="O282" s="10"/>
-    </row>
-    <row r="283" spans="1:15" ht="96" hidden="1">
-      <c r="A283" s="23" t="s">
-        <v>249</v>
-      </c>
-      <c r="B283" s="20" t="s">
-        <v>24</v>
-      </c>
-      <c r="C283" s="10">
-        <v>2</v>
-      </c>
-      <c r="D283" s="10"/>
-      <c r="L283" s="10"/>
-      <c r="O283" s="10"/>
-    </row>
-    <row r="284" spans="1:15" ht="48" hidden="1">
-      <c r="A284" s="23" t="s">
-        <v>250</v>
-      </c>
-      <c r="B284" s="20" t="s">
-        <v>24</v>
-      </c>
-      <c r="C284" s="10">
-        <v>2</v>
-      </c>
-      <c r="D284" s="10"/>
-      <c r="L284" s="10"/>
-      <c r="O284" s="10"/>
-    </row>
-    <row r="285" spans="1:15" ht="16" hidden="1">
-      <c r="A285" s="23" t="s">
-        <v>251</v>
-      </c>
-      <c r="B285" s="20" t="s">
-        <v>24</v>
-      </c>
-      <c r="C285" s="10">
-        <v>2</v>
-      </c>
-      <c r="D285" s="10"/>
-      <c r="L285" s="10"/>
-      <c r="O285" s="10"/>
-    </row>
-    <row r="286" spans="1:15" ht="80" hidden="1">
-      <c r="A286" s="23" t="s">
-        <v>252</v>
-      </c>
-      <c r="B286" s="20" t="s">
-        <v>24</v>
-      </c>
-      <c r="C286" s="10">
-        <v>2</v>
-      </c>
-      <c r="D286" s="10"/>
-      <c r="L286" s="10"/>
-      <c r="O286" s="10"/>
-    </row>
-    <row r="287" spans="1:15" ht="32" hidden="1">
-      <c r="A287" s="23" t="s">
-        <v>253</v>
-      </c>
-      <c r="B287" s="20" t="s">
-        <v>24</v>
-      </c>
-      <c r="C287" s="10">
-        <v>2</v>
-      </c>
-      <c r="D287" s="10"/>
-      <c r="L287" s="10"/>
-      <c r="O287" s="10"/>
-    </row>
-    <row r="288" spans="1:15" ht="64" hidden="1">
-      <c r="A288" s="23" t="s">
-        <v>254</v>
-      </c>
-      <c r="B288" s="20" t="s">
-        <v>24</v>
-      </c>
-      <c r="C288" s="10">
-        <v>2</v>
-      </c>
-      <c r="D288" s="10"/>
-      <c r="L288" s="10"/>
-      <c r="O288" s="10"/>
-    </row>
-    <row r="289" spans="1:15" ht="80" hidden="1">
-      <c r="A289" s="23" t="s">
-        <v>311</v>
-      </c>
-      <c r="B289" s="20" t="s">
-        <v>24</v>
-      </c>
-      <c r="C289" s="10">
-        <v>2</v>
-      </c>
-      <c r="D289" s="10"/>
-      <c r="L289" s="10"/>
-      <c r="O289" s="10"/>
-    </row>
-    <row r="290" spans="1:15" ht="48" hidden="1">
-      <c r="A290" s="23" t="s">
-        <v>255</v>
-      </c>
-      <c r="B290" s="20" t="s">
-        <v>24</v>
-      </c>
-      <c r="C290" s="10">
-        <v>2</v>
-      </c>
-      <c r="D290" s="10"/>
-      <c r="L290" s="10"/>
-      <c r="O290" s="10"/>
-    </row>
-    <row r="291" spans="1:15" ht="16" hidden="1">
-      <c r="A291" s="23" t="s">
-        <v>256</v>
-      </c>
-      <c r="B291" s="20" t="s">
-        <v>24</v>
-      </c>
-      <c r="C291" s="10">
-        <v>2</v>
-      </c>
-      <c r="D291" s="10"/>
-      <c r="L291" s="10"/>
-      <c r="O291" s="10"/>
-    </row>
-    <row r="292" spans="1:15" ht="16" hidden="1">
-      <c r="A292" s="23" t="s">
-        <v>257</v>
-      </c>
-      <c r="B292" s="20" t="s">
-        <v>24</v>
-      </c>
-      <c r="C292" s="10">
-        <v>2</v>
-      </c>
-      <c r="D292" s="10"/>
-      <c r="L292" s="10"/>
-      <c r="O292" s="10"/>
-    </row>
   </sheetData>
-  <autoFilter ref="B1:B292" xr:uid="{FA1A086F-8425-6F47-9951-01E60A9FEFB3}">
-    <filterColumn colId="0">
-      <filters>
-        <filter val="대인관계"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="B1:B260" xr:uid="{FA1A086F-8425-6F47-9951-01E60A9FEFB3}"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
